--- a/workbook1.xlsx
+++ b/workbook1.xlsx
@@ -12854,10 +12854,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:N98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -13045,7 +13045,7 @@
     <row r="4">
       <c r="A4" s="13" t="inlineStr">
         <is>
-          <t>V103</t>
+          <t>CV102</t>
         </is>
       </c>
       <c r="B4" s="13" t="inlineStr">
@@ -13053,63 +13053,27 @@
           <t>Sheet 1</t>
         </is>
       </c>
-      <c r="C4" s="13" t="inlineStr">
-        <is>
-          <t>3/4" Class 800</t>
-        </is>
-      </c>
-      <c r="D4" s="13" t="inlineStr">
-        <is>
-          <t>SW x NPT</t>
-        </is>
-      </c>
-      <c r="E4" s="13" t="inlineStr">
-        <is>
-          <t>Gate</t>
-        </is>
-      </c>
-      <c r="F4" s="13" t="inlineStr">
-        <is>
-          <t>ASTM A105N</t>
-        </is>
-      </c>
-      <c r="G4" s="13" t="inlineStr">
-        <is>
-          <t>Trim # 8</t>
-        </is>
-      </c>
-      <c r="H4" s="13" t="inlineStr">
-        <is>
-          <t>Conventional</t>
-        </is>
-      </c>
+      <c r="C4" s="13" t="n"/>
+      <c r="D4" s="13" t="n"/>
+      <c r="E4" s="13" t="n"/>
+      <c r="F4" s="13" t="n"/>
+      <c r="G4" s="13" t="n"/>
+      <c r="H4" s="13" t="n"/>
       <c r="I4" s="13" t="inlineStr">
         <is>
-          <t>20-16"-P-5030-101-3CS11P</t>
-        </is>
-      </c>
-      <c r="J4" s="13" t="inlineStr">
-        <is>
-          <t>3CS11</t>
-        </is>
-      </c>
+          <t>20-12"-P-5030-100-3CS11P</t>
+        </is>
+      </c>
+      <c r="J4" s="13" t="n"/>
       <c r="K4" s="13" t="n"/>
       <c r="L4" s="13" t="n"/>
-      <c r="M4" s="13" t="inlineStr">
-        <is>
-          <t>GASACH1F</t>
-        </is>
-      </c>
-      <c r="N4" s="13" t="inlineStr">
-        <is>
-          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
-        </is>
-      </c>
+      <c r="M4" s="13" t="n"/>
+      <c r="N4" s="13" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="13" t="inlineStr">
         <is>
-          <t>V104</t>
+          <t>V103</t>
         </is>
       </c>
       <c r="B5" s="13" t="inlineStr">
@@ -13119,32 +13083,32 @@
       </c>
       <c r="C5" s="13" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/4" Class 800</t>
         </is>
       </c>
       <c r="D5" s="13" t="inlineStr">
         <is>
-          <t>FNPT</t>
+          <t>SW x NPT</t>
         </is>
       </c>
       <c r="E5" s="13" t="inlineStr">
         <is>
-          <t>2-Valve Manifold - PG</t>
+          <t>Gate</t>
         </is>
       </c>
       <c r="F5" s="13" t="inlineStr">
         <is>
-          <t>Stainless Steel</t>
+          <t>ASTM A105N</t>
         </is>
       </c>
       <c r="G5" s="13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Trim # 8</t>
         </is>
       </c>
       <c r="H5" s="13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Conventional</t>
         </is>
       </c>
       <c r="I5" s="13" t="inlineStr">
@@ -13154,98 +13118,98 @@
       </c>
       <c r="J5" s="13" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K5" s="13" t="inlineStr">
-        <is>
-          <t>AGCO</t>
-        </is>
-      </c>
-      <c r="L5" s="13" t="inlineStr">
-        <is>
-          <t>PTM-VIS-4 with V6-VIS-4</t>
-        </is>
-      </c>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K5" s="13" t="n"/>
+      <c r="L5" s="13" t="n"/>
       <c r="M5" s="13" t="inlineStr">
         <is>
-          <t>Not Applicable</t>
+          <t>GASACH1F</t>
         </is>
       </c>
       <c r="N5" s="13" t="inlineStr">
         <is>
-          <t>Teflon packing, metal seat</t>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="13" t="inlineStr">
         <is>
-          <t>V108</t>
+          <t>V104</t>
         </is>
       </c>
       <c r="B6" s="13" t="inlineStr">
         <is>
-          <t>Sheet 2</t>
+          <t>Sheet 1</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
         <is>
-          <t>3/4" Class 800</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="D6" s="13" t="inlineStr">
         <is>
-          <t>SW x NPT</t>
+          <t>FNPT</t>
         </is>
       </c>
       <c r="E6" s="13" t="inlineStr">
         <is>
-          <t>Gate</t>
+          <t>2-Valve Manifold - PG</t>
         </is>
       </c>
       <c r="F6" s="13" t="inlineStr">
         <is>
-          <t>ASTM A105N</t>
+          <t>Stainless Steel</t>
         </is>
       </c>
       <c r="G6" s="13" t="inlineStr">
         <is>
-          <t>Trim # 8</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H6" s="13" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I6" s="13" t="inlineStr">
         <is>
-          <t>20-16"-P-5031-102-3CS11P-HP</t>
+          <t>20-16"-P-5030-101-3CS11P</t>
         </is>
       </c>
       <c r="J6" s="13" t="inlineStr">
         <is>
-          <t>3CS11</t>
-        </is>
-      </c>
-      <c r="K6" s="13" t="n"/>
-      <c r="L6" s="13" t="n"/>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K6" s="13" t="inlineStr">
+        <is>
+          <t>AGCO</t>
+        </is>
+      </c>
+      <c r="L6" s="13" t="inlineStr">
+        <is>
+          <t>PTM-VIS-4 with V6-VIS-4</t>
+        </is>
+      </c>
       <c r="M6" s="13" t="inlineStr">
         <is>
-          <t>GASACH1F</t>
+          <t>Not Applicable</t>
         </is>
       </c>
       <c r="N6" s="13" t="inlineStr">
         <is>
-          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+          <t>Teflon packing, metal seat</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="13" t="inlineStr">
         <is>
-          <t>V111</t>
+          <t>V105</t>
         </is>
       </c>
       <c r="B7" s="13" t="inlineStr">
@@ -13255,149 +13219,261 @@
       </c>
       <c r="C7" s="13" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/4" Class 800</t>
         </is>
       </c>
       <c r="D7" s="13" t="inlineStr">
         <is>
-          <t>FNPT</t>
+          <t>SW x NPT</t>
         </is>
       </c>
       <c r="E7" s="13" t="inlineStr">
         <is>
-          <t>2-Valve Manifold - PT</t>
+          <t>Gate</t>
         </is>
       </c>
       <c r="F7" s="13" t="inlineStr">
         <is>
-          <t>Stainless Steel</t>
+          <t>ASTM A105N</t>
         </is>
       </c>
       <c r="G7" s="13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Trim # 8</t>
         </is>
       </c>
       <c r="H7" s="13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Conventional</t>
         </is>
       </c>
       <c r="I7" s="13" t="inlineStr">
         <is>
-          <t>20-16"-P-5031-102-3CS11P-HP</t>
+          <t>20-16"-P-5030-101-3CS11P</t>
         </is>
       </c>
       <c r="J7" s="13" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K7" s="13" t="inlineStr">
-        <is>
-          <t>Rosemount</t>
-        </is>
-      </c>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K7" s="13" t="n"/>
       <c r="L7" s="13" t="n"/>
       <c r="M7" s="13" t="inlineStr">
         <is>
-          <t>Not Applicable</t>
+          <t>GASACH1F</t>
         </is>
       </c>
       <c r="N7" s="13" t="inlineStr">
         <is>
-          <t>Teflon packing, metal seat</t>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="13" t="inlineStr">
         <is>
-          <t>V116</t>
+          <t>V106</t>
         </is>
       </c>
       <c r="B8" s="13" t="inlineStr">
         <is>
-          <t>Sheet 12</t>
-        </is>
-      </c>
-      <c r="C8" s="13" t="n"/>
-      <c r="D8" s="13" t="n"/>
-      <c r="E8" s="13" t="n"/>
-      <c r="F8" s="13" t="n"/>
-      <c r="G8" s="13" t="n"/>
-      <c r="H8" s="13" t="n"/>
+          <t>Sheet 2</t>
+        </is>
+      </c>
+      <c r="C8" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D8" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E8" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F8" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G8" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H8" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
       <c r="I8" s="13" t="inlineStr">
         <is>
-          <t>20-C-5021 Compressor Second Stage</t>
-        </is>
-      </c>
-      <c r="J8" s="13" t="n"/>
+          <t>20-16"-P-5030-101-3CS11P</t>
+        </is>
+      </c>
+      <c r="J8" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
       <c r="K8" s="13" t="n"/>
       <c r="L8" s="13" t="n"/>
-      <c r="M8" s="13" t="n"/>
-      <c r="N8" s="13" t="n"/>
+      <c r="M8" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N8" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="13" t="inlineStr">
         <is>
-          <t>V117</t>
+          <t>V107</t>
         </is>
       </c>
       <c r="B9" s="13" t="inlineStr">
         <is>
-          <t>Sheet 12</t>
-        </is>
-      </c>
-      <c r="C9" s="13" t="n"/>
-      <c r="D9" s="13" t="n"/>
-      <c r="E9" s="13" t="n"/>
-      <c r="F9" s="13" t="n"/>
-      <c r="G9" s="13" t="n"/>
-      <c r="H9" s="13" t="n"/>
+          <t>Sheet 2</t>
+        </is>
+      </c>
+      <c r="C9" s="13" t="inlineStr">
+        <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="D9" s="13" t="inlineStr">
+        <is>
+          <t>FNPT</t>
+        </is>
+      </c>
+      <c r="E9" s="13" t="inlineStr">
+        <is>
+          <t>3-Valve Manifold - PDT</t>
+        </is>
+      </c>
+      <c r="F9" s="13" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="G9" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H9" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="I9" s="13" t="inlineStr">
         <is>
-          <t>Instrumentation / Tubing</t>
-        </is>
-      </c>
-      <c r="J9" s="13" t="n"/>
-      <c r="K9" s="13" t="n"/>
-      <c r="L9" s="13" t="n"/>
-      <c r="M9" s="13" t="n"/>
-      <c r="N9" s="13" t="n"/>
+          <t>20-16"-P-5030-101-3CS11P</t>
+        </is>
+      </c>
+      <c r="J9" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K9" s="13" t="inlineStr">
+        <is>
+          <t>AGCO</t>
+        </is>
+      </c>
+      <c r="L9" s="13" t="inlineStr">
+        <is>
+          <t>M1-VIS-4-AM</t>
+        </is>
+      </c>
+      <c r="M9" s="13" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="N9" s="13" t="inlineStr">
+        <is>
+          <t>Teflon packing, metal seat</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="13" t="inlineStr">
         <is>
-          <t>V118</t>
+          <t>V108</t>
         </is>
       </c>
       <c r="B10" s="13" t="inlineStr">
         <is>
-          <t>Sheet 12</t>
-        </is>
-      </c>
-      <c r="C10" s="13" t="n"/>
-      <c r="D10" s="13" t="n"/>
-      <c r="E10" s="13" t="n"/>
-      <c r="F10" s="13" t="n"/>
-      <c r="G10" s="13" t="n"/>
-      <c r="H10" s="13" t="n"/>
+          <t>Sheet 2</t>
+        </is>
+      </c>
+      <c r="C10" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D10" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E10" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F10" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G10" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H10" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
       <c r="I10" s="13" t="inlineStr">
         <is>
-          <t>20-C-5021 Compressor First Stage</t>
-        </is>
-      </c>
-      <c r="J10" s="13" t="n"/>
+          <t>20-16"-P-5031-102-3CS11P-HP</t>
+        </is>
+      </c>
+      <c r="J10" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
       <c r="K10" s="13" t="n"/>
       <c r="L10" s="13" t="n"/>
-      <c r="M10" s="13" t="n"/>
-      <c r="N10" s="13" t="n"/>
+      <c r="M10" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N10" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="13" t="inlineStr">
         <is>
-          <t>V120</t>
+          <t>V109</t>
         </is>
       </c>
       <c r="B11" s="13" t="inlineStr">
@@ -13437,7 +13513,7 @@
       </c>
       <c r="I11" s="13" t="inlineStr">
         <is>
-          <t>20-8"-P-5031-104-3CS11P-HP</t>
+          <t>20-16"-P-5031-102-3CS11P-HP</t>
         </is>
       </c>
       <c r="J11" s="13" t="inlineStr">
@@ -13461,7 +13537,7 @@
     <row r="12">
       <c r="A12" s="13" t="inlineStr">
         <is>
-          <t>V122</t>
+          <t>V110</t>
         </is>
       </c>
       <c r="B12" s="13" t="inlineStr">
@@ -13471,266 +13547,266 @@
       </c>
       <c r="C12" s="13" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/4" Class 800</t>
         </is>
       </c>
       <c r="D12" s="13" t="inlineStr">
         <is>
-          <t>FNPT</t>
+          <t>SW x NPT</t>
         </is>
       </c>
       <c r="E12" s="13" t="inlineStr">
         <is>
-          <t>3-Valve Manifold - PDT</t>
+          <t>Gate</t>
         </is>
       </c>
       <c r="F12" s="13" t="inlineStr">
         <is>
-          <t>Stainless Steel</t>
+          <t>ASTM A105N</t>
         </is>
       </c>
       <c r="G12" s="13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Trim # 8</t>
         </is>
       </c>
       <c r="H12" s="13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Conventional</t>
         </is>
       </c>
       <c r="I12" s="13" t="inlineStr">
         <is>
-          <t>20-8"-P-5031-104-3CS11P-HP</t>
+          <t>20-16"-P-5031-102-3CS11P-HP</t>
         </is>
       </c>
       <c r="J12" s="13" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K12" s="13" t="inlineStr">
-        <is>
-          <t>Rosemount</t>
-        </is>
-      </c>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K12" s="13" t="n"/>
       <c r="L12" s="13" t="n"/>
       <c r="M12" s="13" t="inlineStr">
         <is>
-          <t>Not Applicable</t>
+          <t>GASACH1F</t>
         </is>
       </c>
       <c r="N12" s="13" t="inlineStr">
         <is>
-          <t>Teflon packing, metal seat</t>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="13" t="inlineStr">
         <is>
-          <t>V133</t>
+          <t>V111</t>
         </is>
       </c>
       <c r="B13" s="13" t="inlineStr">
         <is>
-          <t>Sheet 3</t>
+          <t>Sheet 2</t>
         </is>
       </c>
       <c r="C13" s="13" t="inlineStr">
         <is>
-          <t>3/4" Class 800</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="D13" s="13" t="inlineStr">
         <is>
-          <t>SW x NPT</t>
+          <t>FNPT</t>
         </is>
       </c>
       <c r="E13" s="13" t="inlineStr">
         <is>
-          <t>Gate</t>
+          <t>2-Valve Manifold - PT</t>
         </is>
       </c>
       <c r="F13" s="13" t="inlineStr">
         <is>
-          <t>ASTM A105N</t>
+          <t>Stainless Steel</t>
         </is>
       </c>
       <c r="G13" s="13" t="inlineStr">
         <is>
-          <t>Trim # 8</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H13" s="13" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I13" s="13" t="inlineStr">
         <is>
-          <t>20-V-5124 Bulk Oil Seperator</t>
+          <t>20-16"-P-5031-102-3CS11P-HP</t>
         </is>
       </c>
       <c r="J13" s="13" t="inlineStr">
         <is>
-          <t>3CS11</t>
-        </is>
-      </c>
-      <c r="K13" s="13" t="n"/>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K13" s="13" t="inlineStr">
+        <is>
+          <t>Rosemount</t>
+        </is>
+      </c>
       <c r="L13" s="13" t="n"/>
       <c r="M13" s="13" t="inlineStr">
         <is>
-          <t>GASACH1F</t>
+          <t>Not Applicable</t>
         </is>
       </c>
       <c r="N13" s="13" t="inlineStr">
         <is>
-          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+          <t>Teflon packing, metal seat</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="13" t="inlineStr">
         <is>
-          <t>V135</t>
+          <t>V112</t>
         </is>
       </c>
       <c r="B14" s="13" t="inlineStr">
         <is>
-          <t>Sheet 3</t>
+          <t>Sheet 2</t>
         </is>
       </c>
       <c r="C14" s="13" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/4" Class 800</t>
         </is>
       </c>
       <c r="D14" s="13" t="inlineStr">
         <is>
-          <t>FNPT</t>
+          <t>SW x NPT</t>
         </is>
       </c>
       <c r="E14" s="13" t="inlineStr">
         <is>
-          <t>3-Valve Manifold - PDT</t>
+          <t>Gate</t>
         </is>
       </c>
       <c r="F14" s="13" t="inlineStr">
         <is>
-          <t>Stainless Steel</t>
+          <t>ASTM A105N</t>
         </is>
       </c>
       <c r="G14" s="13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Trim # 8</t>
         </is>
       </c>
       <c r="H14" s="13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Conventional</t>
         </is>
       </c>
       <c r="I14" s="13" t="inlineStr">
         <is>
-          <t>20-V-5124 Bulk Oil Seperator</t>
+          <t>20-16"-P-5031-102-3CS11P-HP</t>
         </is>
       </c>
       <c r="J14" s="13" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K14" s="13" t="inlineStr">
-        <is>
-          <t>Rosemount</t>
-        </is>
-      </c>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K14" s="13" t="n"/>
       <c r="L14" s="13" t="n"/>
       <c r="M14" s="13" t="inlineStr">
         <is>
-          <t>Not Applicable</t>
+          <t>GASACH1F</t>
         </is>
       </c>
       <c r="N14" s="13" t="inlineStr">
         <is>
-          <t>Teflon packing, metal seat</t>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="13" t="inlineStr">
         <is>
-          <t>V136</t>
+          <t>V113</t>
         </is>
       </c>
       <c r="B15" s="13" t="inlineStr">
         <is>
-          <t>Sheet 4</t>
+          <t>Sheet 2</t>
         </is>
       </c>
       <c r="C15" s="13" t="inlineStr">
         <is>
-          <t>3/4" Class 800</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="D15" s="13" t="inlineStr">
         <is>
-          <t>SW x NPT</t>
+          <t>FNPT</t>
         </is>
       </c>
       <c r="E15" s="13" t="inlineStr">
         <is>
-          <t>Gate</t>
+          <t>2-Valve Manifold - PT</t>
         </is>
       </c>
       <c r="F15" s="13" t="inlineStr">
         <is>
-          <t>ASTM A105N</t>
+          <t>Stainless Steel</t>
         </is>
       </c>
       <c r="G15" s="13" t="inlineStr">
         <is>
-          <t>Trim # 8</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H15" s="13" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I15" s="13" t="inlineStr">
         <is>
-          <t>20-8"-P-5033-106-3CS11P-HP</t>
+          <t>20-16"-P-5031-102-3CS11P-HP</t>
         </is>
       </c>
       <c r="J15" s="13" t="inlineStr">
         <is>
-          <t>3CS11</t>
-        </is>
-      </c>
-      <c r="K15" s="13" t="n"/>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K15" s="13" t="inlineStr">
+        <is>
+          <t>Rosemount</t>
+        </is>
+      </c>
       <c r="L15" s="13" t="n"/>
       <c r="M15" s="13" t="inlineStr">
         <is>
-          <t>GASACH1F</t>
+          <t>Not Applicable</t>
         </is>
       </c>
       <c r="N15" s="13" t="inlineStr">
         <is>
-          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+          <t>Teflon packing, metal seat</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="13" t="inlineStr">
         <is>
-          <t>V137</t>
+          <t>V114</t>
         </is>
       </c>
       <c r="B16" s="13" t="inlineStr">
         <is>
-          <t>Sheet 4</t>
+          <t>Sheet 2</t>
         </is>
       </c>
       <c r="C16" s="13" t="inlineStr">
@@ -13765,7 +13841,7 @@
       </c>
       <c r="I16" s="13" t="inlineStr">
         <is>
-          <t>20-8"-P-5033-107-3CS11P-HP</t>
+          <t>20-16"-P-5031-102-3CS11P-HP</t>
         </is>
       </c>
       <c r="J16" s="13" t="inlineStr">
@@ -13789,12 +13865,12 @@
     <row r="17">
       <c r="A17" s="13" t="inlineStr">
         <is>
-          <t>V138</t>
+          <t>V115</t>
         </is>
       </c>
       <c r="B17" s="13" t="inlineStr">
         <is>
-          <t>Sheet 4</t>
+          <t>Sheet 2</t>
         </is>
       </c>
       <c r="C17" s="13" t="inlineStr">
@@ -13809,7 +13885,7 @@
       </c>
       <c r="E17" s="13" t="inlineStr">
         <is>
-          <t>3-Valve Manifold - PDT</t>
+          <t>2-Valve Manifold - PT</t>
         </is>
       </c>
       <c r="F17" s="13" t="inlineStr">
@@ -13829,7 +13905,7 @@
       </c>
       <c r="I17" s="13" t="inlineStr">
         <is>
-          <t>Instrumentation / Tubing</t>
+          <t>20-16"-P-5031-102-3CS11P-HP</t>
         </is>
       </c>
       <c r="J17" s="13" t="inlineStr">
@@ -13857,76 +13933,40 @@
     <row r="18">
       <c r="A18" s="13" t="inlineStr">
         <is>
-          <t>V141</t>
+          <t>V116</t>
         </is>
       </c>
       <c r="B18" s="13" t="inlineStr">
         <is>
-          <t>Sheet 4</t>
-        </is>
-      </c>
-      <c r="C18" s="13" t="inlineStr">
-        <is>
-          <t>8"-300#</t>
-        </is>
-      </c>
-      <c r="D18" s="13" t="inlineStr">
-        <is>
-          <t>RF Flange</t>
-        </is>
-      </c>
-      <c r="E18" s="13" t="inlineStr">
-        <is>
-          <t>Gate</t>
-        </is>
-      </c>
-      <c r="F18" s="13" t="inlineStr">
-        <is>
-          <t>ASTM A216 WCB</t>
-        </is>
-      </c>
-      <c r="G18" s="13" t="inlineStr">
-        <is>
-          <t>Trim # 8</t>
-        </is>
-      </c>
-      <c r="H18" s="13" t="inlineStr">
-        <is>
-          <t>Full Port</t>
-        </is>
-      </c>
+          <t>Sheet 12</t>
+        </is>
+      </c>
+      <c r="C18" s="13" t="n"/>
+      <c r="D18" s="13" t="n"/>
+      <c r="E18" s="13" t="n"/>
+      <c r="F18" s="13" t="n"/>
+      <c r="G18" s="13" t="n"/>
+      <c r="H18" s="13" t="n"/>
       <c r="I18" s="13" t="inlineStr">
         <is>
-          <t>20-8"-P-5033-107-3CS11P-HP</t>
-        </is>
-      </c>
-      <c r="J18" s="13" t="inlineStr">
-        <is>
-          <t>3CS11</t>
-        </is>
-      </c>
+          <t>20-C-5021 Compressor Second Stage</t>
+        </is>
+      </c>
+      <c r="J18" s="13" t="n"/>
       <c r="K18" s="13" t="n"/>
       <c r="L18" s="13" t="n"/>
-      <c r="M18" s="13" t="inlineStr">
-        <is>
-          <t>GABARH2F</t>
-        </is>
-      </c>
-      <c r="N18" s="13" t="inlineStr">
-        <is>
-          <t>Bolted Bonnet, Gear Operated, API 600, OS&amp;Y, Bevel Gear Operator, Flexible Graphite Packing, Flexible/Solid Wedge</t>
-        </is>
-      </c>
+      <c r="M18" s="13" t="n"/>
+      <c r="N18" s="13" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="13" t="inlineStr">
         <is>
-          <t>V146</t>
+          <t>V117</t>
         </is>
       </c>
       <c r="B19" s="13" t="inlineStr">
         <is>
-          <t>Sheet 4</t>
+          <t>Sheet 12</t>
         </is>
       </c>
       <c r="C19" s="13" t="n"/>
@@ -13937,7 +13977,7 @@
       <c r="H19" s="13" t="n"/>
       <c r="I19" s="13" t="inlineStr">
         <is>
-          <t>20-8"-P-5033-107-3CS11P-HP</t>
+          <t>Instrumentation / Tubing</t>
         </is>
       </c>
       <c r="J19" s="13" t="n"/>
@@ -13949,168 +13989,132 @@
     <row r="20">
       <c r="A20" s="13" t="inlineStr">
         <is>
-          <t>V149</t>
+          <t>V118</t>
         </is>
       </c>
       <c r="B20" s="13" t="inlineStr">
         <is>
-          <t>Sheet 6</t>
-        </is>
-      </c>
-      <c r="C20" s="13" t="inlineStr">
-        <is>
-          <t>8"-300#</t>
-        </is>
-      </c>
-      <c r="D20" s="13" t="inlineStr">
-        <is>
-          <t>RF Flange</t>
-        </is>
-      </c>
-      <c r="E20" s="13" t="inlineStr">
-        <is>
-          <t>Gate</t>
-        </is>
-      </c>
-      <c r="F20" s="13" t="inlineStr">
-        <is>
-          <t>ASTM A216 WCB</t>
-        </is>
-      </c>
-      <c r="G20" s="13" t="inlineStr">
-        <is>
-          <t>Trim # 8</t>
-        </is>
-      </c>
-      <c r="H20" s="13" t="inlineStr">
-        <is>
-          <t>Full Port</t>
-        </is>
-      </c>
+          <t>Sheet 12</t>
+        </is>
+      </c>
+      <c r="C20" s="13" t="n"/>
+      <c r="D20" s="13" t="n"/>
+      <c r="E20" s="13" t="n"/>
+      <c r="F20" s="13" t="n"/>
+      <c r="G20" s="13" t="n"/>
+      <c r="H20" s="13" t="n"/>
       <c r="I20" s="13" t="inlineStr">
         <is>
-          <t>20-8"-P-5035-108-3CS11P-HP</t>
-        </is>
-      </c>
-      <c r="J20" s="13" t="inlineStr">
-        <is>
-          <t>3CS11</t>
-        </is>
-      </c>
+          <t>20-C-5021 Compressor First Stage</t>
+        </is>
+      </c>
+      <c r="J20" s="13" t="n"/>
       <c r="K20" s="13" t="n"/>
       <c r="L20" s="13" t="n"/>
-      <c r="M20" s="13" t="inlineStr">
-        <is>
-          <t>GABARH2F</t>
-        </is>
-      </c>
-      <c r="N20" s="13" t="inlineStr">
-        <is>
-          <t>Bolted Bonnet, Gear Operated, API 600, OS&amp;Y, Bevel Gear Operator, Flexible Graphite Packing, Flexible/Solid Wedge</t>
-        </is>
-      </c>
+      <c r="M20" s="13" t="n"/>
+      <c r="N20" s="13" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="13" t="inlineStr">
         <is>
-          <t>V150</t>
+          <t>V119</t>
         </is>
       </c>
       <c r="B21" s="13" t="inlineStr">
         <is>
-          <t>Sheet 6</t>
-        </is>
-      </c>
-      <c r="C21" s="13" t="inlineStr">
-        <is>
-          <t>3/4" Class 800</t>
-        </is>
-      </c>
-      <c r="D21" s="13" t="inlineStr">
-        <is>
-          <t>SW x NPT</t>
-        </is>
-      </c>
-      <c r="E21" s="13" t="inlineStr">
-        <is>
-          <t>Gate</t>
-        </is>
-      </c>
-      <c r="F21" s="13" t="inlineStr">
-        <is>
-          <t>ASTM A105N</t>
-        </is>
-      </c>
-      <c r="G21" s="13" t="inlineStr">
-        <is>
-          <t>Trim # 8</t>
-        </is>
-      </c>
-      <c r="H21" s="13" t="inlineStr">
-        <is>
-          <t>Conventional</t>
-        </is>
-      </c>
+          <t>Sheet 12</t>
+        </is>
+      </c>
+      <c r="C21" s="13" t="n"/>
+      <c r="D21" s="13" t="n"/>
+      <c r="E21" s="13" t="n"/>
+      <c r="F21" s="13" t="n"/>
+      <c r="G21" s="13" t="n"/>
+      <c r="H21" s="13" t="n"/>
       <c r="I21" s="13" t="inlineStr">
         <is>
-          <t>20-8"-P-5035-108-3CS11P-HP</t>
-        </is>
-      </c>
-      <c r="J21" s="13" t="inlineStr">
-        <is>
-          <t>3CS11</t>
-        </is>
-      </c>
+          <t>Instrumentation / Tubing</t>
+        </is>
+      </c>
+      <c r="J21" s="13" t="n"/>
       <c r="K21" s="13" t="n"/>
       <c r="L21" s="13" t="n"/>
-      <c r="M21" s="13" t="inlineStr">
-        <is>
-          <t>GASACH1F</t>
-        </is>
-      </c>
-      <c r="N21" s="13" t="inlineStr">
-        <is>
-          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
-        </is>
-      </c>
+      <c r="M21" s="13" t="n"/>
+      <c r="N21" s="13" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="13" t="inlineStr">
         <is>
-          <t>V153</t>
+          <t>V120</t>
         </is>
       </c>
       <c r="B22" s="13" t="inlineStr">
         <is>
-          <t>Sheet 7</t>
-        </is>
-      </c>
-      <c r="C22" s="13" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="13" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="13" t="n"/>
-      <c r="H22" s="13" t="n"/>
+          <t>Sheet 2</t>
+        </is>
+      </c>
+      <c r="C22" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D22" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E22" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F22" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G22" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H22" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
       <c r="I22" s="13" t="inlineStr">
         <is>
-          <t>20-2"-P-5036-112-3CS11P-H-TE</t>
-        </is>
-      </c>
-      <c r="J22" s="13" t="n"/>
+          <t>20-8"-P-5031-104-3CS11P-HP</t>
+        </is>
+      </c>
+      <c r="J22" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
       <c r="K22" s="13" t="n"/>
       <c r="L22" s="13" t="n"/>
-      <c r="M22" s="13" t="n"/>
-      <c r="N22" s="13" t="n"/>
+      <c r="M22" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N22" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="13" t="inlineStr">
         <is>
-          <t>V157</t>
+          <t>V121</t>
         </is>
       </c>
       <c r="B23" s="13" t="inlineStr">
         <is>
-          <t>Sheet 7</t>
+          <t>Sheet 2</t>
         </is>
       </c>
       <c r="C23" s="13" t="inlineStr">
@@ -14145,7 +14149,7 @@
       </c>
       <c r="I23" s="13" t="inlineStr">
         <is>
-          <t>20-2"-P-5036-112-3CS11P-H-TE</t>
+          <t>20-8"-P-5031-104-3CS11P-HP</t>
         </is>
       </c>
       <c r="J23" s="13" t="inlineStr">
@@ -14169,12 +14173,12 @@
     <row r="24">
       <c r="A24" s="13" t="inlineStr">
         <is>
-          <t>V158</t>
+          <t>V122</t>
         </is>
       </c>
       <c r="B24" s="13" t="inlineStr">
         <is>
-          <t>Sheet 7</t>
+          <t>Sheet 2</t>
         </is>
       </c>
       <c r="C24" s="13" t="inlineStr">
@@ -14189,7 +14193,7 @@
       </c>
       <c r="E24" s="13" t="inlineStr">
         <is>
-          <t>2-Valve Manifold - PT</t>
+          <t>3-Valve Manifold - PDT</t>
         </is>
       </c>
       <c r="F24" s="13" t="inlineStr">
@@ -14209,7 +14213,7 @@
       </c>
       <c r="I24" s="13" t="inlineStr">
         <is>
-          <t>20-2"-P-5036-112-3CS11P-H-TE</t>
+          <t>20-8"-P-5031-104-3CS11P-HP</t>
         </is>
       </c>
       <c r="J24" s="13" t="inlineStr">
@@ -14237,12 +14241,12 @@
     <row r="25">
       <c r="A25" s="13" t="inlineStr">
         <is>
-          <t>V161</t>
+          <t>V123</t>
         </is>
       </c>
       <c r="B25" s="13" t="inlineStr">
         <is>
-          <t>Sheet 7</t>
+          <t>Sheet 2</t>
         </is>
       </c>
       <c r="C25" s="13" t="inlineStr">
@@ -14277,7 +14281,7 @@
       </c>
       <c r="I25" s="13" t="inlineStr">
         <is>
-          <t>20-2"-P-5036-113-3CS11P</t>
+          <t>20-8"-P-5031-104-3CS11P-HP</t>
         </is>
       </c>
       <c r="J25" s="13" t="inlineStr">
@@ -14301,40 +14305,80 @@
     <row r="26">
       <c r="A26" s="13" t="inlineStr">
         <is>
-          <t>V162</t>
+          <t>V124</t>
         </is>
       </c>
       <c r="B26" s="13" t="inlineStr">
         <is>
-          <t>Sheet 7</t>
-        </is>
-      </c>
-      <c r="C26" s="13" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="13" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="13" t="n"/>
-      <c r="H26" s="13" t="n"/>
+          <t>Sheet 2</t>
+        </is>
+      </c>
+      <c r="C26" s="13" t="inlineStr">
+        <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="D26" s="13" t="inlineStr">
+        <is>
+          <t>FNPT</t>
+        </is>
+      </c>
+      <c r="E26" s="13" t="inlineStr">
+        <is>
+          <t>3-Valve Manifold - PDT</t>
+        </is>
+      </c>
+      <c r="F26" s="13" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="G26" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H26" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="I26" s="13" t="inlineStr">
         <is>
-          <t>20-2"-P-5036-113-3CS11P</t>
-        </is>
-      </c>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+          <t>20-8"-P-5031-104-3CS11P-HP</t>
+        </is>
+      </c>
+      <c r="J26" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K26" s="13" t="inlineStr">
+        <is>
+          <t>Rosemount</t>
+        </is>
+      </c>
       <c r="L26" s="13" t="n"/>
-      <c r="M26" s="13" t="n"/>
-      <c r="N26" s="13" t="n"/>
+      <c r="M26" s="13" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="N26" s="13" t="inlineStr">
+        <is>
+          <t>Teflon packing, metal seat</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="13" t="inlineStr">
         <is>
-          <t>V164</t>
+          <t>V125</t>
         </is>
       </c>
       <c r="B27" s="13" t="inlineStr">
         <is>
-          <t>Sheet 9</t>
+          <t>Sheet 2</t>
         </is>
       </c>
       <c r="C27" s="13" t="inlineStr">
@@ -14369,7 +14413,7 @@
       </c>
       <c r="I27" s="13" t="inlineStr">
         <is>
-          <t>20-6"-P-5038-114-3CS11P-H-TE</t>
+          <t>20-8"-P-5031-104-3CS11P-HP</t>
         </is>
       </c>
       <c r="J27" s="13" t="inlineStr">
@@ -14393,96 +14437,100 @@
     <row r="28">
       <c r="A28" s="13" t="inlineStr">
         <is>
-          <t>V169</t>
+          <t>V126</t>
         </is>
       </c>
       <c r="B28" s="13" t="inlineStr">
         <is>
-          <t>Sheet 9</t>
+          <t>Sheet 2</t>
         </is>
       </c>
       <c r="C28" s="13" t="inlineStr">
         <is>
-          <t>6"-300#</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="D28" s="13" t="inlineStr">
         <is>
-          <t>RF Flange</t>
+          <t>FNPT</t>
         </is>
       </c>
       <c r="E28" s="13" t="inlineStr">
         <is>
-          <t>Gate</t>
+          <t>3-Valve Manifold - PDT</t>
         </is>
       </c>
       <c r="F28" s="13" t="inlineStr">
         <is>
-          <t>ASTM A216 WCB</t>
+          <t>Stainless Steel</t>
         </is>
       </c>
       <c r="G28" s="13" t="inlineStr">
         <is>
-          <t>Trim # 8</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H28" s="13" t="inlineStr">
         <is>
-          <t>Full Port</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I28" s="13" t="inlineStr">
         <is>
-          <t>20-6"-P-5038-114-3CS11P-H-TE</t>
+          <t>20-8"-P-5031-104-3CS11P-HP</t>
         </is>
       </c>
       <c r="J28" s="13" t="inlineStr">
         <is>
-          <t>3CS11</t>
-        </is>
-      </c>
-      <c r="K28" s="13" t="n"/>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K28" s="13" t="inlineStr">
+        <is>
+          <t>Rosemount</t>
+        </is>
+      </c>
       <c r="L28" s="13" t="n"/>
       <c r="M28" s="13" t="inlineStr">
         <is>
-          <t>GABARH1F</t>
+          <t>Not Applicable</t>
         </is>
       </c>
       <c r="N28" s="13" t="inlineStr">
         <is>
-          <t>Bolted Bonnet, API 600, OS&amp;Y, Flexible Graphite Packing, Flexible/Solid Wedge</t>
+          <t>Teflon packing, metal seat</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="13" t="inlineStr">
         <is>
-          <t>CV170</t>
+          <t>V127</t>
         </is>
       </c>
       <c r="B29" s="13" t="inlineStr">
         <is>
-          <t>Sheet 9</t>
+          <t>Sheet 2</t>
         </is>
       </c>
       <c r="C29" s="13" t="inlineStr">
         <is>
-          <t>2"-300#</t>
+          <t>3/4" Class 800</t>
         </is>
       </c>
       <c r="D29" s="13" t="inlineStr">
         <is>
-          <t>RF Flange</t>
+          <t>SW x NPT</t>
         </is>
       </c>
       <c r="E29" s="13" t="inlineStr">
         <is>
-          <t>Swing Check</t>
+          <t>Gate</t>
         </is>
       </c>
       <c r="F29" s="13" t="inlineStr">
         <is>
-          <t>ASTM A216 WCB</t>
+          <t>ASTM A105N</t>
         </is>
       </c>
       <c r="G29" s="13" t="inlineStr">
@@ -14492,12 +14540,12 @@
       </c>
       <c r="H29" s="13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Conventional</t>
         </is>
       </c>
       <c r="I29" s="13" t="inlineStr">
         <is>
-          <t>20-2"-P-5038-113-3CS11P</t>
+          <t>20-8"-P-5031-104-3CS11P-HP</t>
         </is>
       </c>
       <c r="J29" s="13" t="inlineStr">
@@ -14509,188 +14557,224 @@
       <c r="L29" s="13" t="n"/>
       <c r="M29" s="13" t="inlineStr">
         <is>
-          <t>CSBARH1</t>
+          <t>GASACH1F</t>
         </is>
       </c>
       <c r="N29" s="13" t="inlineStr">
         <is>
-          <t>Bolted Cover, API 594</t>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="13" t="inlineStr">
         <is>
-          <t>V200</t>
+          <t>V128</t>
         </is>
       </c>
       <c r="B30" s="13" t="inlineStr">
         <is>
-          <t>Sheet 9</t>
+          <t>Sheet 2</t>
         </is>
       </c>
       <c r="C30" s="13" t="inlineStr">
         <is>
-          <t>3/4" Class 800</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="D30" s="13" t="inlineStr">
         <is>
-          <t>SW x NPT</t>
+          <t>FNPT</t>
         </is>
       </c>
       <c r="E30" s="13" t="inlineStr">
         <is>
-          <t>Gate</t>
+          <t>2-Valve Manifold - PT</t>
         </is>
       </c>
       <c r="F30" s="13" t="inlineStr">
         <is>
-          <t>ASTM A105N</t>
+          <t>Stainless Steel</t>
         </is>
       </c>
       <c r="G30" s="13" t="inlineStr">
         <is>
-          <t>Trim # 8</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H30" s="13" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I30" s="13" t="inlineStr">
         <is>
-          <t>20-6"-P-5038-200-3CS11P-H</t>
+          <t>20-8"-P-5031-104-3CS11P-HP</t>
         </is>
       </c>
       <c r="J30" s="13" t="inlineStr">
         <is>
-          <t>3CS11</t>
-        </is>
-      </c>
-      <c r="K30" s="13" t="n"/>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K30" s="13" t="inlineStr">
+        <is>
+          <t>Rosemount</t>
+        </is>
+      </c>
       <c r="L30" s="13" t="n"/>
       <c r="M30" s="13" t="inlineStr">
         <is>
-          <t>GASACH1F</t>
+          <t>Not Applicable</t>
         </is>
       </c>
       <c r="N30" s="13" t="inlineStr">
         <is>
-          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+          <t>Teflon packing, metal seat</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="13" t="inlineStr">
         <is>
-          <t>V201</t>
+          <t>V129</t>
         </is>
       </c>
       <c r="B31" s="13" t="inlineStr">
         <is>
-          <t>Sheet 9</t>
+          <t>Sheet 2</t>
         </is>
       </c>
       <c r="C31" s="13" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/4" Class 800</t>
         </is>
       </c>
       <c r="D31" s="13" t="inlineStr">
         <is>
-          <t>FNPT</t>
+          <t>SW x NPT</t>
         </is>
       </c>
       <c r="E31" s="13" t="inlineStr">
         <is>
-          <t>2-Valve Manifold - PG</t>
+          <t>Gate</t>
         </is>
       </c>
       <c r="F31" s="13" t="inlineStr">
         <is>
-          <t>Stainless Steel</t>
+          <t>ASTM A105N</t>
         </is>
       </c>
       <c r="G31" s="13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Trim # 8</t>
         </is>
       </c>
       <c r="H31" s="13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Conventional</t>
         </is>
       </c>
       <c r="I31" s="13" t="inlineStr">
         <is>
-          <t>20-6"-P-5038-200-3CS11P-H</t>
+          <t>20-8"-P-5031-104-3CS11P-HP</t>
         </is>
       </c>
       <c r="J31" s="13" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K31" s="13" t="inlineStr">
-        <is>
-          <t>AGCO</t>
-        </is>
-      </c>
-      <c r="L31" s="13" t="inlineStr">
-        <is>
-          <t>PTM-VIS-4 with V6-VIS-4</t>
-        </is>
-      </c>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K31" s="13" t="n"/>
+      <c r="L31" s="13" t="n"/>
       <c r="M31" s="13" t="inlineStr">
         <is>
-          <t>Not Applicable</t>
+          <t>GASACH1F</t>
         </is>
       </c>
       <c r="N31" s="13" t="inlineStr">
         <is>
-          <t>Teflon packing, metal seat</t>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="13" t="inlineStr">
         <is>
-          <t>V206</t>
+          <t>V130</t>
         </is>
       </c>
       <c r="B32" s="13" t="inlineStr">
         <is>
-          <t>Sheet 9</t>
-        </is>
-      </c>
-      <c r="C32" s="13" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="13" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="13" t="n"/>
-      <c r="H32" s="13" t="n"/>
+          <t>Sheet 2</t>
+        </is>
+      </c>
+      <c r="C32" s="13" t="inlineStr">
+        <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="D32" s="13" t="inlineStr">
+        <is>
+          <t>FNPT</t>
+        </is>
+      </c>
+      <c r="E32" s="13" t="inlineStr">
+        <is>
+          <t>2-Valve Manifold - PT</t>
+        </is>
+      </c>
+      <c r="F32" s="13" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="G32" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H32" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="I32" s="13" t="inlineStr">
         <is>
-          <t>20-6"-P-5038-200-3CS11P-H</t>
-        </is>
-      </c>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+          <t>20-8"-P-5031-104-3CS11P-HP</t>
+        </is>
+      </c>
+      <c r="J32" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K32" s="13" t="inlineStr">
+        <is>
+          <t>Rosemount</t>
+        </is>
+      </c>
       <c r="L32" s="13" t="n"/>
-      <c r="M32" s="13" t="n"/>
-      <c r="N32" s="13" t="n"/>
+      <c r="M32" s="13" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="N32" s="13" t="inlineStr">
+        <is>
+          <t>Teflon packing, metal seat</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="13" t="inlineStr">
         <is>
-          <t>V207</t>
+          <t>V131</t>
         </is>
       </c>
       <c r="B33" s="13" t="inlineStr">
         <is>
-          <t>Sheet 9</t>
+          <t>Sheet 2</t>
         </is>
       </c>
       <c r="C33" s="13" t="inlineStr">
@@ -14725,7 +14809,7 @@
       </c>
       <c r="I33" s="13" t="inlineStr">
         <is>
-          <t>20-4"-P-5038-201-3CS11P-H</t>
+          <t>20-8"-P-5031-104-3CS11P-HP</t>
         </is>
       </c>
       <c r="J33" s="13" t="inlineStr">
@@ -14749,76 +14833,80 @@
     <row r="34">
       <c r="A34" s="13" t="inlineStr">
         <is>
-          <t>V210</t>
+          <t>V132</t>
         </is>
       </c>
       <c r="B34" s="13" t="inlineStr">
         <is>
-          <t>Sheet 10</t>
+          <t>Sheet 2</t>
         </is>
       </c>
       <c r="C34" s="13" t="inlineStr">
         <is>
-          <t>2"-300#</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="D34" s="13" t="inlineStr">
         <is>
-          <t>RF Flange</t>
+          <t>FNPT</t>
         </is>
       </c>
       <c r="E34" s="13" t="inlineStr">
         <is>
-          <t>Gate</t>
+          <t>2-Valve Manifold - PT</t>
         </is>
       </c>
       <c r="F34" s="13" t="inlineStr">
         <is>
-          <t>ASTM A216 WCB</t>
+          <t>Stainless Steel</t>
         </is>
       </c>
       <c r="G34" s="13" t="inlineStr">
         <is>
-          <t>Trim # 8</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H34" s="13" t="inlineStr">
         <is>
-          <t>Full Port</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I34" s="13" t="inlineStr">
         <is>
-          <t>20-4"-P-5039-202-3CS11P-H</t>
+          <t>20-8"-P-5031-104-3CS11P-HP</t>
         </is>
       </c>
       <c r="J34" s="13" t="inlineStr">
         <is>
-          <t>3CS11</t>
-        </is>
-      </c>
-      <c r="K34" s="13" t="n"/>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K34" s="13" t="inlineStr">
+        <is>
+          <t>Rosemount</t>
+        </is>
+      </c>
       <c r="L34" s="13" t="n"/>
       <c r="M34" s="13" t="inlineStr">
         <is>
-          <t>GABARH1F</t>
+          <t>Not Applicable</t>
         </is>
       </c>
       <c r="N34" s="13" t="inlineStr">
         <is>
-          <t>Bolted Bonnet, API 600, OS&amp;Y, Flexible Graphite Packing, Flexible/Solid Wedge</t>
+          <t>Teflon packing, metal seat</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="13" t="inlineStr">
         <is>
-          <t>V211</t>
+          <t>V133</t>
         </is>
       </c>
       <c r="B35" s="13" t="inlineStr">
         <is>
-          <t>Sheet 10</t>
+          <t>Sheet 3</t>
         </is>
       </c>
       <c r="C35" s="13" t="inlineStr">
@@ -14853,7 +14941,7 @@
       </c>
       <c r="I35" s="13" t="inlineStr">
         <is>
-          <t>20-4"-P-5039-202-3CS11P-H</t>
+          <t>20-V-5124 Bulk Oil Seperator</t>
         </is>
       </c>
       <c r="J35" s="13" t="inlineStr">
@@ -14877,122 +14965,3690 @@
     <row r="36">
       <c r="A36" s="13" t="inlineStr">
         <is>
-          <t>V214</t>
+          <t>V134</t>
         </is>
       </c>
       <c r="B36" s="13" t="inlineStr">
         <is>
-          <t>Sheet 10</t>
-        </is>
-      </c>
-      <c r="C36" s="13" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="13" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="13" t="n"/>
-      <c r="H36" s="13" t="n"/>
+          <t>Sheet 3</t>
+        </is>
+      </c>
+      <c r="C36" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D36" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E36" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F36" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G36" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H36" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
       <c r="I36" s="13" t="inlineStr">
         <is>
-          <t>20-4"-P-5039-202-3CS11P-H</t>
-        </is>
-      </c>
-      <c r="J36" s="13" t="n"/>
+          <t>20-V-5124 Bulk Oil Seperator</t>
+        </is>
+      </c>
+      <c r="J36" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
       <c r="K36" s="13" t="n"/>
       <c r="L36" s="13" t="n"/>
-      <c r="M36" s="13" t="n"/>
-      <c r="N36" s="13" t="n"/>
+      <c r="M36" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N36" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="13" t="inlineStr">
         <is>
-          <t>V215</t>
+          <t>V135</t>
         </is>
       </c>
       <c r="B37" s="13" t="inlineStr">
         <is>
-          <t>Sheet 10</t>
+          <t>Sheet 3</t>
         </is>
       </c>
       <c r="C37" s="13" t="inlineStr">
         <is>
-          <t>3/4" Class 800</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="D37" s="13" t="inlineStr">
         <is>
-          <t>SW x NPT</t>
+          <t>FNPT</t>
         </is>
       </c>
       <c r="E37" s="13" t="inlineStr">
         <is>
-          <t>Gate</t>
+          <t>3-Valve Manifold - PDT</t>
         </is>
       </c>
       <c r="F37" s="13" t="inlineStr">
         <is>
-          <t>ASTM A105N</t>
+          <t>Stainless Steel</t>
         </is>
       </c>
       <c r="G37" s="13" t="inlineStr">
         <is>
-          <t>Trim # 8</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H37" s="13" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I37" s="13" t="inlineStr">
         <is>
-          <t>20-4"-P-5039-203-3CS11P-H</t>
+          <t>20-V-5124 Bulk Oil Seperator</t>
         </is>
       </c>
       <c r="J37" s="13" t="inlineStr">
         <is>
-          <t>3CS11</t>
-        </is>
-      </c>
-      <c r="K37" s="13" t="n"/>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K37" s="13" t="inlineStr">
+        <is>
+          <t>Rosemount</t>
+        </is>
+      </c>
       <c r="L37" s="13" t="n"/>
       <c r="M37" s="13" t="inlineStr">
         <is>
-          <t>GASACH1F</t>
+          <t>Not Applicable</t>
         </is>
       </c>
       <c r="N37" s="13" t="inlineStr">
         <is>
-          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+          <t>Teflon packing, metal seat</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="13" t="inlineStr">
         <is>
-          <t>V221</t>
+          <t>V136</t>
         </is>
       </c>
       <c r="B38" s="13" t="inlineStr">
         <is>
-          <t>Sheet 10</t>
-        </is>
-      </c>
-      <c r="C38" s="13" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="13" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="13" t="n"/>
-      <c r="H38" s="13" t="n"/>
+          <t>Sheet 4</t>
+        </is>
+      </c>
+      <c r="C38" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D38" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E38" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F38" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G38" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H38" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
       <c r="I38" s="13" t="inlineStr">
         <is>
-          <t>20-4"-P-5039-203-3CS11P-H</t>
-        </is>
-      </c>
-      <c r="J38" s="13" t="n"/>
+          <t>20-8"-P-5033-106-3CS11P-HP</t>
+        </is>
+      </c>
+      <c r="J38" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
       <c r="K38" s="13" t="n"/>
       <c r="L38" s="13" t="n"/>
-      <c r="M38" s="13" t="n"/>
-      <c r="N38" s="13" t="n"/>
+      <c r="M38" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N38" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="13" t="inlineStr">
+        <is>
+          <t>V137</t>
+        </is>
+      </c>
+      <c r="B39" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 4</t>
+        </is>
+      </c>
+      <c r="C39" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D39" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E39" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F39" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G39" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H39" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="I39" s="13" t="inlineStr">
+        <is>
+          <t>20-8"-P-5033-107-3CS11P-HP</t>
+        </is>
+      </c>
+      <c r="J39" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K39" s="13" t="n"/>
+      <c r="L39" s="13" t="n"/>
+      <c r="M39" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N39" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="13" t="inlineStr">
+        <is>
+          <t>V138</t>
+        </is>
+      </c>
+      <c r="B40" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 4</t>
+        </is>
+      </c>
+      <c r="C40" s="13" t="inlineStr">
+        <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="D40" s="13" t="inlineStr">
+        <is>
+          <t>FNPT</t>
+        </is>
+      </c>
+      <c r="E40" s="13" t="inlineStr">
+        <is>
+          <t>3-Valve Manifold - PDT</t>
+        </is>
+      </c>
+      <c r="F40" s="13" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="G40" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H40" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I40" s="13" t="inlineStr">
+        <is>
+          <t>Instrumentation / Tubing</t>
+        </is>
+      </c>
+      <c r="J40" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K40" s="13" t="inlineStr">
+        <is>
+          <t>Rosemount</t>
+        </is>
+      </c>
+      <c r="L40" s="13" t="n"/>
+      <c r="M40" s="13" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="N40" s="13" t="inlineStr">
+        <is>
+          <t>Teflon packing, metal seat</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="13" t="inlineStr">
+        <is>
+          <t>V139</t>
+        </is>
+      </c>
+      <c r="B41" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 4</t>
+        </is>
+      </c>
+      <c r="C41" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D41" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E41" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F41" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G41" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H41" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="I41" s="13" t="inlineStr">
+        <is>
+          <t>20-8"-P-5033-107-3CS11P-HP</t>
+        </is>
+      </c>
+      <c r="J41" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K41" s="13" t="n"/>
+      <c r="L41" s="13" t="n"/>
+      <c r="M41" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N41" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="13" t="inlineStr">
+        <is>
+          <t>V140</t>
+        </is>
+      </c>
+      <c r="B42" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 4</t>
+        </is>
+      </c>
+      <c r="C42" s="13" t="inlineStr">
+        <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="D42" s="13" t="inlineStr">
+        <is>
+          <t>FNPT</t>
+        </is>
+      </c>
+      <c r="E42" s="13" t="inlineStr">
+        <is>
+          <t>2-Valve Manifold - PG</t>
+        </is>
+      </c>
+      <c r="F42" s="13" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="G42" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H42" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I42" s="13" t="inlineStr">
+        <is>
+          <t>Instrumentation / Tubing</t>
+        </is>
+      </c>
+      <c r="J42" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K42" s="13" t="inlineStr">
+        <is>
+          <t>AGCO</t>
+        </is>
+      </c>
+      <c r="L42" s="13" t="inlineStr">
+        <is>
+          <t>PTM-VIS-4 with V6-VIS-4</t>
+        </is>
+      </c>
+      <c r="M42" s="13" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="N42" s="13" t="inlineStr">
+        <is>
+          <t>Teflon packing, metal seat</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="13" t="inlineStr">
+        <is>
+          <t>V141</t>
+        </is>
+      </c>
+      <c r="B43" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 4</t>
+        </is>
+      </c>
+      <c r="C43" s="13" t="inlineStr">
+        <is>
+          <t>8"-300#</t>
+        </is>
+      </c>
+      <c r="D43" s="13" t="inlineStr">
+        <is>
+          <t>RF Flange</t>
+        </is>
+      </c>
+      <c r="E43" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F43" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A216 WCB</t>
+        </is>
+      </c>
+      <c r="G43" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H43" s="13" t="inlineStr">
+        <is>
+          <t>Full Port</t>
+        </is>
+      </c>
+      <c r="I43" s="13" t="inlineStr">
+        <is>
+          <t>20-8"-P-5033-107-3CS11P-HP</t>
+        </is>
+      </c>
+      <c r="J43" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K43" s="13" t="n"/>
+      <c r="L43" s="13" t="n"/>
+      <c r="M43" s="13" t="inlineStr">
+        <is>
+          <t>GABARH2F</t>
+        </is>
+      </c>
+      <c r="N43" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, Gear Operated, API 600, OS&amp;Y, Bevel Gear Operator, Flexible Graphite Packing, Flexible/Solid Wedge</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="13" t="inlineStr">
+        <is>
+          <t>V142</t>
+        </is>
+      </c>
+      <c r="B44" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 4</t>
+        </is>
+      </c>
+      <c r="C44" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D44" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E44" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F44" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G44" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H44" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="I44" s="13" t="inlineStr">
+        <is>
+          <t>20-8"-P-5033-107-3CS11P-HP</t>
+        </is>
+      </c>
+      <c r="J44" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K44" s="13" t="n"/>
+      <c r="L44" s="13" t="n"/>
+      <c r="M44" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N44" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="13" t="inlineStr">
+        <is>
+          <t>V143</t>
+        </is>
+      </c>
+      <c r="B45" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 4</t>
+        </is>
+      </c>
+      <c r="C45" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D45" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E45" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F45" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G45" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H45" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="I45" s="13" t="inlineStr">
+        <is>
+          <t>20-8"-P-5033-107-3CS11P-HP</t>
+        </is>
+      </c>
+      <c r="J45" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K45" s="13" t="n"/>
+      <c r="L45" s="13" t="n"/>
+      <c r="M45" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N45" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="13" t="inlineStr">
+        <is>
+          <t>V144</t>
+        </is>
+      </c>
+      <c r="B46" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 4</t>
+        </is>
+      </c>
+      <c r="C46" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D46" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E46" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F46" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G46" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H46" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="I46" s="13" t="inlineStr">
+        <is>
+          <t>20-8"-P-5033-107-3CS11P-HP</t>
+        </is>
+      </c>
+      <c r="J46" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K46" s="13" t="n"/>
+      <c r="L46" s="13" t="n"/>
+      <c r="M46" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N46" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="13" t="inlineStr">
+        <is>
+          <t>V145</t>
+        </is>
+      </c>
+      <c r="B47" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 4</t>
+        </is>
+      </c>
+      <c r="C47" s="13" t="inlineStr">
+        <is>
+          <t>8"-300#</t>
+        </is>
+      </c>
+      <c r="D47" s="13" t="inlineStr">
+        <is>
+          <t>RF Flange</t>
+        </is>
+      </c>
+      <c r="E47" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F47" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A216 WCB</t>
+        </is>
+      </c>
+      <c r="G47" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H47" s="13" t="inlineStr">
+        <is>
+          <t>Full Port</t>
+        </is>
+      </c>
+      <c r="I47" s="13" t="inlineStr">
+        <is>
+          <t>20-8"-P-5033-107-3CS11P-HP</t>
+        </is>
+      </c>
+      <c r="J47" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K47" s="13" t="n"/>
+      <c r="L47" s="13" t="n"/>
+      <c r="M47" s="13" t="inlineStr">
+        <is>
+          <t>GABARH2F</t>
+        </is>
+      </c>
+      <c r="N47" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, Gear Operated, API 600, OS&amp;Y, Bevel Gear Operator, Flexible Graphite Packing, Flexible/Solid Wedge</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="13" t="inlineStr">
+        <is>
+          <t>V146</t>
+        </is>
+      </c>
+      <c r="B48" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 4</t>
+        </is>
+      </c>
+      <c r="C48" s="13" t="n"/>
+      <c r="D48" s="13" t="n"/>
+      <c r="E48" s="13" t="n"/>
+      <c r="F48" s="13" t="n"/>
+      <c r="G48" s="13" t="n"/>
+      <c r="H48" s="13" t="n"/>
+      <c r="I48" s="13" t="inlineStr">
+        <is>
+          <t>20-8"-P-5033-107-3CS11P-HP</t>
+        </is>
+      </c>
+      <c r="J48" s="13" t="n"/>
+      <c r="K48" s="13" t="n"/>
+      <c r="L48" s="13" t="n"/>
+      <c r="M48" s="13" t="n"/>
+      <c r="N48" s="13" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="13" t="inlineStr">
+        <is>
+          <t>CV147</t>
+        </is>
+      </c>
+      <c r="B49" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 4</t>
+        </is>
+      </c>
+      <c r="C49" s="13" t="inlineStr">
+        <is>
+          <t>8"-300#</t>
+        </is>
+      </c>
+      <c r="D49" s="13" t="inlineStr">
+        <is>
+          <t>RF Flange</t>
+        </is>
+      </c>
+      <c r="E49" s="13" t="inlineStr">
+        <is>
+          <t>Swing Check</t>
+        </is>
+      </c>
+      <c r="F49" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A216 WCB</t>
+        </is>
+      </c>
+      <c r="G49" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H49" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I49" s="13" t="inlineStr">
+        <is>
+          <t>20-8"-P-5033-107-3CS11P-HP</t>
+        </is>
+      </c>
+      <c r="J49" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K49" s="13" t="n"/>
+      <c r="L49" s="13" t="n"/>
+      <c r="M49" s="13" t="inlineStr">
+        <is>
+          <t>CSBARH1</t>
+        </is>
+      </c>
+      <c r="N49" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Cover, API 594</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="13" t="inlineStr">
+        <is>
+          <t>V148</t>
+        </is>
+      </c>
+      <c r="B50" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 4</t>
+        </is>
+      </c>
+      <c r="C50" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D50" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E50" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F50" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G50" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H50" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="I50" s="13" t="inlineStr">
+        <is>
+          <t>20-8"-P-5033-107-3CS11P-HP</t>
+        </is>
+      </c>
+      <c r="J50" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K50" s="13" t="n"/>
+      <c r="L50" s="13" t="n"/>
+      <c r="M50" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N50" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="13" t="inlineStr">
+        <is>
+          <t>V149</t>
+        </is>
+      </c>
+      <c r="B51" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 6</t>
+        </is>
+      </c>
+      <c r="C51" s="13" t="inlineStr">
+        <is>
+          <t>8"-300#</t>
+        </is>
+      </c>
+      <c r="D51" s="13" t="inlineStr">
+        <is>
+          <t>RF Flange</t>
+        </is>
+      </c>
+      <c r="E51" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F51" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A216 WCB</t>
+        </is>
+      </c>
+      <c r="G51" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H51" s="13" t="inlineStr">
+        <is>
+          <t>Full Port</t>
+        </is>
+      </c>
+      <c r="I51" s="13" t="inlineStr">
+        <is>
+          <t>20-8"-P-5035-108-3CS11P-HP</t>
+        </is>
+      </c>
+      <c r="J51" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K51" s="13" t="n"/>
+      <c r="L51" s="13" t="n"/>
+      <c r="M51" s="13" t="inlineStr">
+        <is>
+          <t>GABARH2F</t>
+        </is>
+      </c>
+      <c r="N51" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, Gear Operated, API 600, OS&amp;Y, Bevel Gear Operator, Flexible Graphite Packing, Flexible/Solid Wedge</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="13" t="inlineStr">
+        <is>
+          <t>V150</t>
+        </is>
+      </c>
+      <c r="B52" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 6</t>
+        </is>
+      </c>
+      <c r="C52" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D52" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E52" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F52" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G52" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H52" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="I52" s="13" t="inlineStr">
+        <is>
+          <t>20-8"-P-5035-108-3CS11P-HP</t>
+        </is>
+      </c>
+      <c r="J52" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K52" s="13" t="n"/>
+      <c r="L52" s="13" t="n"/>
+      <c r="M52" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N52" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="13" t="inlineStr">
+        <is>
+          <t>V151</t>
+        </is>
+      </c>
+      <c r="B53" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 6</t>
+        </is>
+      </c>
+      <c r="C53" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D53" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E53" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F53" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G53" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H53" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="I53" s="13" t="inlineStr">
+        <is>
+          <t>20-8"-P-5035-108-3CS11P-HP</t>
+        </is>
+      </c>
+      <c r="J53" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K53" s="13" t="n"/>
+      <c r="L53" s="13" t="n"/>
+      <c r="M53" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N53" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="13" t="inlineStr">
+        <is>
+          <t>V152</t>
+        </is>
+      </c>
+      <c r="B54" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 6</t>
+        </is>
+      </c>
+      <c r="C54" s="13" t="inlineStr">
+        <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="D54" s="13" t="inlineStr">
+        <is>
+          <t>FNPT</t>
+        </is>
+      </c>
+      <c r="E54" s="13" t="inlineStr">
+        <is>
+          <t>2-Valve Manifold - PT</t>
+        </is>
+      </c>
+      <c r="F54" s="13" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="G54" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H54" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I54" s="13" t="inlineStr">
+        <is>
+          <t>Instrumentation / Tubing</t>
+        </is>
+      </c>
+      <c r="J54" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K54" s="13" t="inlineStr">
+        <is>
+          <t>AGCO</t>
+        </is>
+      </c>
+      <c r="L54" s="13" t="inlineStr">
+        <is>
+          <t>PTM-VIS-4 with V6-VIS-4</t>
+        </is>
+      </c>
+      <c r="M54" s="13" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="N54" s="13" t="inlineStr">
+        <is>
+          <t>Teflon packing, metal seat</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="13" t="inlineStr">
+        <is>
+          <t>V153</t>
+        </is>
+      </c>
+      <c r="B55" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 7</t>
+        </is>
+      </c>
+      <c r="C55" s="13" t="n"/>
+      <c r="D55" s="13" t="n"/>
+      <c r="E55" s="13" t="n"/>
+      <c r="F55" s="13" t="n"/>
+      <c r="G55" s="13" t="n"/>
+      <c r="H55" s="13" t="n"/>
+      <c r="I55" s="13" t="inlineStr">
+        <is>
+          <t>20-2"-P-5036-112-3CS11P-H-TE</t>
+        </is>
+      </c>
+      <c r="J55" s="13" t="n"/>
+      <c r="K55" s="13" t="n"/>
+      <c r="L55" s="13" t="n"/>
+      <c r="M55" s="13" t="n"/>
+      <c r="N55" s="13" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="13" t="inlineStr">
+        <is>
+          <t>V154</t>
+        </is>
+      </c>
+      <c r="B56" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 7</t>
+        </is>
+      </c>
+      <c r="C56" s="13" t="n"/>
+      <c r="D56" s="13" t="n"/>
+      <c r="E56" s="13" t="n"/>
+      <c r="F56" s="13" t="n"/>
+      <c r="G56" s="13" t="n"/>
+      <c r="H56" s="13" t="n"/>
+      <c r="I56" s="13" t="inlineStr">
+        <is>
+          <t>20-2"-P-5036-112-3CS11P-H-TE</t>
+        </is>
+      </c>
+      <c r="J56" s="13" t="n"/>
+      <c r="K56" s="13" t="n"/>
+      <c r="L56" s="13" t="n"/>
+      <c r="M56" s="13" t="n"/>
+      <c r="N56" s="13" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="13" t="inlineStr">
+        <is>
+          <t>V155</t>
+        </is>
+      </c>
+      <c r="B57" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 7</t>
+        </is>
+      </c>
+      <c r="C57" s="13" t="n"/>
+      <c r="D57" s="13" t="n"/>
+      <c r="E57" s="13" t="n"/>
+      <c r="F57" s="13" t="n"/>
+      <c r="G57" s="13" t="n"/>
+      <c r="H57" s="13" t="n"/>
+      <c r="I57" s="13" t="inlineStr">
+        <is>
+          <t>20-2"-P-5036-112-3CS11P-H-TE</t>
+        </is>
+      </c>
+      <c r="J57" s="13" t="n"/>
+      <c r="K57" s="13" t="n"/>
+      <c r="L57" s="13" t="n"/>
+      <c r="M57" s="13" t="n"/>
+      <c r="N57" s="13" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="13" t="inlineStr">
+        <is>
+          <t>V156</t>
+        </is>
+      </c>
+      <c r="B58" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 7</t>
+        </is>
+      </c>
+      <c r="C58" s="13" t="n"/>
+      <c r="D58" s="13" t="n"/>
+      <c r="E58" s="13" t="n"/>
+      <c r="F58" s="13" t="n"/>
+      <c r="G58" s="13" t="n"/>
+      <c r="H58" s="13" t="n"/>
+      <c r="I58" s="13" t="inlineStr">
+        <is>
+          <t>20-2"-P-5036-112-3CS11P-H-TE</t>
+        </is>
+      </c>
+      <c r="J58" s="13" t="n"/>
+      <c r="K58" s="13" t="n"/>
+      <c r="L58" s="13" t="n"/>
+      <c r="M58" s="13" t="n"/>
+      <c r="N58" s="13" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="13" t="inlineStr">
+        <is>
+          <t>V157</t>
+        </is>
+      </c>
+      <c r="B59" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 7</t>
+        </is>
+      </c>
+      <c r="C59" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D59" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E59" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F59" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G59" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H59" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="I59" s="13" t="inlineStr">
+        <is>
+          <t>20-2"-P-5036-112-3CS11P-H-TE</t>
+        </is>
+      </c>
+      <c r="J59" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K59" s="13" t="n"/>
+      <c r="L59" s="13" t="n"/>
+      <c r="M59" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N59" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="13" t="inlineStr">
+        <is>
+          <t>V158</t>
+        </is>
+      </c>
+      <c r="B60" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 7</t>
+        </is>
+      </c>
+      <c r="C60" s="13" t="inlineStr">
+        <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="D60" s="13" t="inlineStr">
+        <is>
+          <t>FNPT</t>
+        </is>
+      </c>
+      <c r="E60" s="13" t="inlineStr">
+        <is>
+          <t>2-Valve Manifold - PT</t>
+        </is>
+      </c>
+      <c r="F60" s="13" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="G60" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H60" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I60" s="13" t="inlineStr">
+        <is>
+          <t>20-2"-P-5036-112-3CS11P-H-TE</t>
+        </is>
+      </c>
+      <c r="J60" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K60" s="13" t="inlineStr">
+        <is>
+          <t>Rosemount</t>
+        </is>
+      </c>
+      <c r="L60" s="13" t="n"/>
+      <c r="M60" s="13" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="N60" s="13" t="inlineStr">
+        <is>
+          <t>Teflon packing, metal seat</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="13" t="inlineStr">
+        <is>
+          <t>V159</t>
+        </is>
+      </c>
+      <c r="B61" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 7</t>
+        </is>
+      </c>
+      <c r="C61" s="13" t="n"/>
+      <c r="D61" s="13" t="n"/>
+      <c r="E61" s="13" t="n"/>
+      <c r="F61" s="13" t="n"/>
+      <c r="G61" s="13" t="n"/>
+      <c r="H61" s="13" t="n"/>
+      <c r="I61" s="13" t="inlineStr">
+        <is>
+          <t>20-2"-P-5036-112-3CS11P-H-TE</t>
+        </is>
+      </c>
+      <c r="J61" s="13" t="n"/>
+      <c r="K61" s="13" t="n"/>
+      <c r="L61" s="13" t="n"/>
+      <c r="M61" s="13" t="n"/>
+      <c r="N61" s="13" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="13" t="inlineStr">
+        <is>
+          <t>V160</t>
+        </is>
+      </c>
+      <c r="B62" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 7</t>
+        </is>
+      </c>
+      <c r="C62" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D62" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E62" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F62" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G62" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H62" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="I62" s="13" t="inlineStr">
+        <is>
+          <t>20-2"-P-5036-112-3CS11P-H-TE</t>
+        </is>
+      </c>
+      <c r="J62" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K62" s="13" t="n"/>
+      <c r="L62" s="13" t="n"/>
+      <c r="M62" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N62" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="13" t="inlineStr">
+        <is>
+          <t>V161</t>
+        </is>
+      </c>
+      <c r="B63" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 7</t>
+        </is>
+      </c>
+      <c r="C63" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D63" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E63" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F63" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G63" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H63" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="I63" s="13" t="inlineStr">
+        <is>
+          <t>20-2"-P-5036-113-3CS11P</t>
+        </is>
+      </c>
+      <c r="J63" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K63" s="13" t="n"/>
+      <c r="L63" s="13" t="n"/>
+      <c r="M63" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N63" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="13" t="inlineStr">
+        <is>
+          <t>V162</t>
+        </is>
+      </c>
+      <c r="B64" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 7</t>
+        </is>
+      </c>
+      <c r="C64" s="13" t="n"/>
+      <c r="D64" s="13" t="n"/>
+      <c r="E64" s="13" t="n"/>
+      <c r="F64" s="13" t="n"/>
+      <c r="G64" s="13" t="n"/>
+      <c r="H64" s="13" t="n"/>
+      <c r="I64" s="13" t="inlineStr">
+        <is>
+          <t>20-2"-P-5036-113-3CS11P</t>
+        </is>
+      </c>
+      <c r="J64" s="13" t="n"/>
+      <c r="K64" s="13" t="n"/>
+      <c r="L64" s="13" t="n"/>
+      <c r="M64" s="13" t="n"/>
+      <c r="N64" s="13" t="n"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="13" t="inlineStr">
+        <is>
+          <t>V163</t>
+        </is>
+      </c>
+      <c r="B65" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 7</t>
+        </is>
+      </c>
+      <c r="C65" s="13" t="n"/>
+      <c r="D65" s="13" t="n"/>
+      <c r="E65" s="13" t="n"/>
+      <c r="F65" s="13" t="n"/>
+      <c r="G65" s="13" t="n"/>
+      <c r="H65" s="13" t="n"/>
+      <c r="I65" s="13" t="inlineStr">
+        <is>
+          <t>20-2"-P-5036-112-3CS11P-H-TE</t>
+        </is>
+      </c>
+      <c r="J65" s="13" t="n"/>
+      <c r="K65" s="13" t="n"/>
+      <c r="L65" s="13" t="n"/>
+      <c r="M65" s="13" t="n"/>
+      <c r="N65" s="13" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="13" t="inlineStr">
+        <is>
+          <t>V164</t>
+        </is>
+      </c>
+      <c r="B66" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 9</t>
+        </is>
+      </c>
+      <c r="C66" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D66" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E66" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F66" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G66" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H66" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="I66" s="13" t="inlineStr">
+        <is>
+          <t>20-6"-P-5038-114-3CS11P-H-TE</t>
+        </is>
+      </c>
+      <c r="J66" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K66" s="13" t="n"/>
+      <c r="L66" s="13" t="n"/>
+      <c r="M66" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N66" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="13" t="inlineStr">
+        <is>
+          <t>V165</t>
+        </is>
+      </c>
+      <c r="B67" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 9</t>
+        </is>
+      </c>
+      <c r="C67" s="13" t="inlineStr">
+        <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="D67" s="13" t="inlineStr">
+        <is>
+          <t>FNPT</t>
+        </is>
+      </c>
+      <c r="E67" s="13" t="inlineStr">
+        <is>
+          <t>2-Valve Manifold - PG</t>
+        </is>
+      </c>
+      <c r="F67" s="13" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="G67" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H67" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I67" s="13" t="inlineStr">
+        <is>
+          <t>Instrumentation / Tubing</t>
+        </is>
+      </c>
+      <c r="J67" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K67" s="13" t="inlineStr">
+        <is>
+          <t>AGCO</t>
+        </is>
+      </c>
+      <c r="L67" s="13" t="inlineStr">
+        <is>
+          <t>PTM-VIS-4 with V6-VIS-4</t>
+        </is>
+      </c>
+      <c r="M67" s="13" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="N67" s="13" t="inlineStr">
+        <is>
+          <t>Teflon packing, metal seat</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="13" t="inlineStr">
+        <is>
+          <t>V166</t>
+        </is>
+      </c>
+      <c r="B68" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 9</t>
+        </is>
+      </c>
+      <c r="C68" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D68" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E68" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F68" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G68" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H68" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="I68" s="13" t="inlineStr">
+        <is>
+          <t>20-6"-P-5038-114-3CS11P-H-TE</t>
+        </is>
+      </c>
+      <c r="J68" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K68" s="13" t="n"/>
+      <c r="L68" s="13" t="n"/>
+      <c r="M68" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N68" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="13" t="inlineStr">
+        <is>
+          <t>V167</t>
+        </is>
+      </c>
+      <c r="B69" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 9</t>
+        </is>
+      </c>
+      <c r="C69" s="13" t="inlineStr">
+        <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="D69" s="13" t="inlineStr">
+        <is>
+          <t>FNPT</t>
+        </is>
+      </c>
+      <c r="E69" s="13" t="inlineStr">
+        <is>
+          <t>2-Valve Manifold - PT</t>
+        </is>
+      </c>
+      <c r="F69" s="13" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="G69" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H69" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I69" s="13" t="inlineStr">
+        <is>
+          <t>Instrumentation / Tubing</t>
+        </is>
+      </c>
+      <c r="J69" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K69" s="13" t="inlineStr">
+        <is>
+          <t>AGCO</t>
+        </is>
+      </c>
+      <c r="L69" s="13" t="inlineStr">
+        <is>
+          <t>PTM-VIS-4 with V6-VIS-4</t>
+        </is>
+      </c>
+      <c r="M69" s="13" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="N69" s="13" t="inlineStr">
+        <is>
+          <t>Teflon packing, metal seat</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="13" t="inlineStr">
+        <is>
+          <t>V168</t>
+        </is>
+      </c>
+      <c r="B70" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 9</t>
+        </is>
+      </c>
+      <c r="C70" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D70" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E70" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F70" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G70" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H70" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="I70" s="13" t="inlineStr">
+        <is>
+          <t>20-6"-P-5038-114-3CS11P-H-TE</t>
+        </is>
+      </c>
+      <c r="J70" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K70" s="13" t="n"/>
+      <c r="L70" s="13" t="n"/>
+      <c r="M70" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N70" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="13" t="inlineStr">
+        <is>
+          <t>V169</t>
+        </is>
+      </c>
+      <c r="B71" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 9</t>
+        </is>
+      </c>
+      <c r="C71" s="13" t="inlineStr">
+        <is>
+          <t>6"-300#</t>
+        </is>
+      </c>
+      <c r="D71" s="13" t="inlineStr">
+        <is>
+          <t>RF Flange</t>
+        </is>
+      </c>
+      <c r="E71" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F71" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A216 WCB</t>
+        </is>
+      </c>
+      <c r="G71" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H71" s="13" t="inlineStr">
+        <is>
+          <t>Full Port</t>
+        </is>
+      </c>
+      <c r="I71" s="13" t="inlineStr">
+        <is>
+          <t>20-6"-P-5038-114-3CS11P-H-TE</t>
+        </is>
+      </c>
+      <c r="J71" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K71" s="13" t="n"/>
+      <c r="L71" s="13" t="n"/>
+      <c r="M71" s="13" t="inlineStr">
+        <is>
+          <t>GABARH1F</t>
+        </is>
+      </c>
+      <c r="N71" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 600, OS&amp;Y, Flexible Graphite Packing, Flexible/Solid Wedge</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="13" t="inlineStr">
+        <is>
+          <t>CV170</t>
+        </is>
+      </c>
+      <c r="B72" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 9</t>
+        </is>
+      </c>
+      <c r="C72" s="13" t="inlineStr">
+        <is>
+          <t>2"-300#</t>
+        </is>
+      </c>
+      <c r="D72" s="13" t="inlineStr">
+        <is>
+          <t>RF Flange</t>
+        </is>
+      </c>
+      <c r="E72" s="13" t="inlineStr">
+        <is>
+          <t>Swing Check</t>
+        </is>
+      </c>
+      <c r="F72" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A216 WCB</t>
+        </is>
+      </c>
+      <c r="G72" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H72" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I72" s="13" t="inlineStr">
+        <is>
+          <t>20-2"-P-5038-113-3CS11P</t>
+        </is>
+      </c>
+      <c r="J72" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K72" s="13" t="n"/>
+      <c r="L72" s="13" t="n"/>
+      <c r="M72" s="13" t="inlineStr">
+        <is>
+          <t>CSBARH1</t>
+        </is>
+      </c>
+      <c r="N72" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Cover, API 594</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="13" t="inlineStr">
+        <is>
+          <t>V200</t>
+        </is>
+      </c>
+      <c r="B73" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 9</t>
+        </is>
+      </c>
+      <c r="C73" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D73" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E73" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F73" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G73" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H73" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="I73" s="13" t="inlineStr">
+        <is>
+          <t>20-6"-P-5038-200-3CS11P-H</t>
+        </is>
+      </c>
+      <c r="J73" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K73" s="13" t="n"/>
+      <c r="L73" s="13" t="n"/>
+      <c r="M73" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N73" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="13" t="inlineStr">
+        <is>
+          <t>V201</t>
+        </is>
+      </c>
+      <c r="B74" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 9</t>
+        </is>
+      </c>
+      <c r="C74" s="13" t="inlineStr">
+        <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="D74" s="13" t="inlineStr">
+        <is>
+          <t>FNPT</t>
+        </is>
+      </c>
+      <c r="E74" s="13" t="inlineStr">
+        <is>
+          <t>2-Valve Manifold - PG</t>
+        </is>
+      </c>
+      <c r="F74" s="13" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="G74" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H74" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I74" s="13" t="inlineStr">
+        <is>
+          <t>20-6"-P-5038-200-3CS11P-H</t>
+        </is>
+      </c>
+      <c r="J74" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K74" s="13" t="inlineStr">
+        <is>
+          <t>AGCO</t>
+        </is>
+      </c>
+      <c r="L74" s="13" t="inlineStr">
+        <is>
+          <t>PTM-VIS-4 with V6-VIS-4</t>
+        </is>
+      </c>
+      <c r="M74" s="13" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="N74" s="13" t="inlineStr">
+        <is>
+          <t>Teflon packing, metal seat</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="13" t="inlineStr">
+        <is>
+          <t>V202</t>
+        </is>
+      </c>
+      <c r="B75" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 9</t>
+        </is>
+      </c>
+      <c r="C75" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D75" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E75" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F75" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G75" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H75" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="I75" s="13" t="inlineStr">
+        <is>
+          <t>20-6"-P-5038-200-3CS11P-H</t>
+        </is>
+      </c>
+      <c r="J75" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K75" s="13" t="n"/>
+      <c r="L75" s="13" t="n"/>
+      <c r="M75" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N75" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="13" t="inlineStr">
+        <is>
+          <t>V203</t>
+        </is>
+      </c>
+      <c r="B76" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 9</t>
+        </is>
+      </c>
+      <c r="C76" s="13" t="inlineStr">
+        <is>
+          <t>1/2" Class 800</t>
+        </is>
+      </c>
+      <c r="D76" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E76" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F76" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G76" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H76" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="I76" s="13" t="inlineStr">
+        <is>
+          <t>20-6"-P-5038-200-3CS11P-H</t>
+        </is>
+      </c>
+      <c r="J76" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K76" s="13" t="n"/>
+      <c r="L76" s="13" t="n"/>
+      <c r="M76" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N76" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="13" t="inlineStr">
+        <is>
+          <t>V204</t>
+        </is>
+      </c>
+      <c r="B77" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 9</t>
+        </is>
+      </c>
+      <c r="C77" s="13" t="inlineStr">
+        <is>
+          <t>1/2" Class 800</t>
+        </is>
+      </c>
+      <c r="D77" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E77" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F77" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G77" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H77" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="I77" s="13" t="inlineStr">
+        <is>
+          <t>20-6"-P-5038-200-3CS11P-H</t>
+        </is>
+      </c>
+      <c r="J77" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K77" s="13" t="n"/>
+      <c r="L77" s="13" t="n"/>
+      <c r="M77" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N77" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="13" t="inlineStr">
+        <is>
+          <t>V205</t>
+        </is>
+      </c>
+      <c r="B78" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 9</t>
+        </is>
+      </c>
+      <c r="C78" s="13" t="inlineStr">
+        <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="D78" s="13" t="inlineStr">
+        <is>
+          <t>FNPT</t>
+        </is>
+      </c>
+      <c r="E78" s="13" t="inlineStr">
+        <is>
+          <t>3-Valve Manifold - FT</t>
+        </is>
+      </c>
+      <c r="F78" s="13" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="G78" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H78" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I78" s="13" t="inlineStr">
+        <is>
+          <t>Instrumentation / Tubing</t>
+        </is>
+      </c>
+      <c r="J78" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K78" s="13" t="inlineStr">
+        <is>
+          <t>Rosemount</t>
+        </is>
+      </c>
+      <c r="L78" s="13" t="n"/>
+      <c r="M78" s="13" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="N78" s="13" t="inlineStr">
+        <is>
+          <t>Teflon packing, metal seat</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="13" t="inlineStr">
+        <is>
+          <t>V206</t>
+        </is>
+      </c>
+      <c r="B79" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 9</t>
+        </is>
+      </c>
+      <c r="C79" s="13" t="n"/>
+      <c r="D79" s="13" t="n"/>
+      <c r="E79" s="13" t="n"/>
+      <c r="F79" s="13" t="n"/>
+      <c r="G79" s="13" t="n"/>
+      <c r="H79" s="13" t="n"/>
+      <c r="I79" s="13" t="inlineStr">
+        <is>
+          <t>20-6"-P-5038-200-3CS11P-H</t>
+        </is>
+      </c>
+      <c r="J79" s="13" t="n"/>
+      <c r="K79" s="13" t="n"/>
+      <c r="L79" s="13" t="n"/>
+      <c r="M79" s="13" t="n"/>
+      <c r="N79" s="13" t="n"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="13" t="inlineStr">
+        <is>
+          <t>V207</t>
+        </is>
+      </c>
+      <c r="B80" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 9</t>
+        </is>
+      </c>
+      <c r="C80" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D80" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E80" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F80" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G80" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H80" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="I80" s="13" t="inlineStr">
+        <is>
+          <t>20-4"-P-5038-201-3CS11P-H</t>
+        </is>
+      </c>
+      <c r="J80" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K80" s="13" t="n"/>
+      <c r="L80" s="13" t="n"/>
+      <c r="M80" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N80" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="13" t="inlineStr">
+        <is>
+          <t>V208</t>
+        </is>
+      </c>
+      <c r="B81" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 9</t>
+        </is>
+      </c>
+      <c r="C81" s="13" t="inlineStr">
+        <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="D81" s="13" t="inlineStr">
+        <is>
+          <t>FNPT</t>
+        </is>
+      </c>
+      <c r="E81" s="13" t="inlineStr">
+        <is>
+          <t>2-Valve Manifold - PG</t>
+        </is>
+      </c>
+      <c r="F81" s="13" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="G81" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H81" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I81" s="13" t="inlineStr">
+        <is>
+          <t>Instrumentation / Tubing</t>
+        </is>
+      </c>
+      <c r="J81" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K81" s="13" t="inlineStr">
+        <is>
+          <t>AGCO</t>
+        </is>
+      </c>
+      <c r="L81" s="13" t="inlineStr">
+        <is>
+          <t>PTM-VIS-4 with V6-VIS-4</t>
+        </is>
+      </c>
+      <c r="M81" s="13" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="N81" s="13" t="inlineStr">
+        <is>
+          <t>Teflon packing, metal seat</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="13" t="inlineStr">
+        <is>
+          <t>V209</t>
+        </is>
+      </c>
+      <c r="B82" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 9</t>
+        </is>
+      </c>
+      <c r="C82" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D82" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E82" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F82" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G82" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H82" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="I82" s="13" t="inlineStr">
+        <is>
+          <t>20-4"-P-5038-201-3CS11P-H</t>
+        </is>
+      </c>
+      <c r="J82" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K82" s="13" t="n"/>
+      <c r="L82" s="13" t="n"/>
+      <c r="M82" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N82" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="13" t="inlineStr">
+        <is>
+          <t>V210</t>
+        </is>
+      </c>
+      <c r="B83" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 10</t>
+        </is>
+      </c>
+      <c r="C83" s="13" t="inlineStr">
+        <is>
+          <t>2"-300#</t>
+        </is>
+      </c>
+      <c r="D83" s="13" t="inlineStr">
+        <is>
+          <t>RF Flange</t>
+        </is>
+      </c>
+      <c r="E83" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F83" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A216 WCB</t>
+        </is>
+      </c>
+      <c r="G83" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H83" s="13" t="inlineStr">
+        <is>
+          <t>Full Port</t>
+        </is>
+      </c>
+      <c r="I83" s="13" t="inlineStr">
+        <is>
+          <t>20-4"-P-5039-202-3CS11P-H</t>
+        </is>
+      </c>
+      <c r="J83" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K83" s="13" t="n"/>
+      <c r="L83" s="13" t="n"/>
+      <c r="M83" s="13" t="inlineStr">
+        <is>
+          <t>GABARH1F</t>
+        </is>
+      </c>
+      <c r="N83" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 600, OS&amp;Y, Flexible Graphite Packing, Flexible/Solid Wedge</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="13" t="inlineStr">
+        <is>
+          <t>V211</t>
+        </is>
+      </c>
+      <c r="B84" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 10</t>
+        </is>
+      </c>
+      <c r="C84" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D84" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E84" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F84" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G84" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H84" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="I84" s="13" t="inlineStr">
+        <is>
+          <t>20-4"-P-5039-202-3CS11P-H</t>
+        </is>
+      </c>
+      <c r="J84" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K84" s="13" t="n"/>
+      <c r="L84" s="13" t="n"/>
+      <c r="M84" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N84" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="13" t="inlineStr">
+        <is>
+          <t>V212</t>
+        </is>
+      </c>
+      <c r="B85" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 10</t>
+        </is>
+      </c>
+      <c r="C85" s="13" t="inlineStr">
+        <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="D85" s="13" t="inlineStr">
+        <is>
+          <t>FNPT</t>
+        </is>
+      </c>
+      <c r="E85" s="13" t="inlineStr">
+        <is>
+          <t>2-Valve Manifold - PG</t>
+        </is>
+      </c>
+      <c r="F85" s="13" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="G85" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H85" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I85" s="13" t="inlineStr">
+        <is>
+          <t>Instrumentation / Tubing</t>
+        </is>
+      </c>
+      <c r="J85" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K85" s="13" t="inlineStr">
+        <is>
+          <t>AGCO</t>
+        </is>
+      </c>
+      <c r="L85" s="13" t="inlineStr">
+        <is>
+          <t>PTM-VIS-4 with V6-VIS-4</t>
+        </is>
+      </c>
+      <c r="M85" s="13" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="N85" s="13" t="inlineStr">
+        <is>
+          <t>Teflon packing, metal seat</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="13" t="inlineStr">
+        <is>
+          <t>V213</t>
+        </is>
+      </c>
+      <c r="B86" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 10</t>
+        </is>
+      </c>
+      <c r="C86" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D86" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E86" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F86" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G86" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H86" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="I86" s="13" t="inlineStr">
+        <is>
+          <t>20-4"-P-5039-202-3CS11P-H</t>
+        </is>
+      </c>
+      <c r="J86" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K86" s="13" t="n"/>
+      <c r="L86" s="13" t="n"/>
+      <c r="M86" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N86" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="13" t="inlineStr">
+        <is>
+          <t>V214</t>
+        </is>
+      </c>
+      <c r="B87" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 10</t>
+        </is>
+      </c>
+      <c r="C87" s="13" t="n"/>
+      <c r="D87" s="13" t="n"/>
+      <c r="E87" s="13" t="n"/>
+      <c r="F87" s="13" t="n"/>
+      <c r="G87" s="13" t="n"/>
+      <c r="H87" s="13" t="n"/>
+      <c r="I87" s="13" t="inlineStr">
+        <is>
+          <t>20-4"-P-5039-202-3CS11P-H</t>
+        </is>
+      </c>
+      <c r="J87" s="13" t="n"/>
+      <c r="K87" s="13" t="n"/>
+      <c r="L87" s="13" t="n"/>
+      <c r="M87" s="13" t="n"/>
+      <c r="N87" s="13" t="n"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="13" t="inlineStr">
+        <is>
+          <t>V215</t>
+        </is>
+      </c>
+      <c r="B88" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 10</t>
+        </is>
+      </c>
+      <c r="C88" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D88" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E88" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F88" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G88" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H88" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="I88" s="13" t="inlineStr">
+        <is>
+          <t>20-4"-P-5039-203-3CS11P-H</t>
+        </is>
+      </c>
+      <c r="J88" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K88" s="13" t="n"/>
+      <c r="L88" s="13" t="n"/>
+      <c r="M88" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N88" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="13" t="inlineStr">
+        <is>
+          <t>V216</t>
+        </is>
+      </c>
+      <c r="B89" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 10</t>
+        </is>
+      </c>
+      <c r="C89" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D89" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E89" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F89" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G89" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H89" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="I89" s="13" t="inlineStr">
+        <is>
+          <t>20-4"-P-5039-203-3CS11P-H</t>
+        </is>
+      </c>
+      <c r="J89" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K89" s="13" t="n"/>
+      <c r="L89" s="13" t="n"/>
+      <c r="M89" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N89" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="13" t="inlineStr">
+        <is>
+          <t>V217</t>
+        </is>
+      </c>
+      <c r="B90" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 10</t>
+        </is>
+      </c>
+      <c r="C90" s="13" t="inlineStr">
+        <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="D90" s="13" t="inlineStr">
+        <is>
+          <t>FNPT</t>
+        </is>
+      </c>
+      <c r="E90" s="13" t="inlineStr">
+        <is>
+          <t>2-Valve Manifold - PG</t>
+        </is>
+      </c>
+      <c r="F90" s="13" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="G90" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H90" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I90" s="13" t="inlineStr">
+        <is>
+          <t>Instrumentation / Tubing</t>
+        </is>
+      </c>
+      <c r="J90" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K90" s="13" t="inlineStr">
+        <is>
+          <t>AGCO</t>
+        </is>
+      </c>
+      <c r="L90" s="13" t="inlineStr">
+        <is>
+          <t>PTM-VIS-4 with V6-VIS-4</t>
+        </is>
+      </c>
+      <c r="M90" s="13" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="N90" s="13" t="inlineStr">
+        <is>
+          <t>Teflon packing, metal seat</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="13" t="inlineStr">
+        <is>
+          <t>V218</t>
+        </is>
+      </c>
+      <c r="B91" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 10</t>
+        </is>
+      </c>
+      <c r="C91" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D91" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E91" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F91" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G91" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H91" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="I91" s="13" t="inlineStr">
+        <is>
+          <t>20-4"-P-5039-203-3CS11P-H</t>
+        </is>
+      </c>
+      <c r="J91" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K91" s="13" t="n"/>
+      <c r="L91" s="13" t="n"/>
+      <c r="M91" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N91" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="13" t="inlineStr">
+        <is>
+          <t>V219</t>
+        </is>
+      </c>
+      <c r="B92" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 10</t>
+        </is>
+      </c>
+      <c r="C92" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D92" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E92" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F92" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G92" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H92" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="I92" s="13" t="inlineStr">
+        <is>
+          <t>20-4"-P-5039-203-3CS11P-H</t>
+        </is>
+      </c>
+      <c r="J92" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K92" s="13" t="n"/>
+      <c r="L92" s="13" t="n"/>
+      <c r="M92" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N92" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="13" t="inlineStr">
+        <is>
+          <t>V220</t>
+        </is>
+      </c>
+      <c r="B93" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 10</t>
+        </is>
+      </c>
+      <c r="C93" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D93" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E93" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F93" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G93" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H93" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="I93" s="13" t="inlineStr">
+        <is>
+          <t>20-4"-P-5039-203-3CS11P-H</t>
+        </is>
+      </c>
+      <c r="J93" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K93" s="13" t="n"/>
+      <c r="L93" s="13" t="n"/>
+      <c r="M93" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N93" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="13" t="inlineStr">
+        <is>
+          <t>V221</t>
+        </is>
+      </c>
+      <c r="B94" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 10</t>
+        </is>
+      </c>
+      <c r="C94" s="13" t="n"/>
+      <c r="D94" s="13" t="n"/>
+      <c r="E94" s="13" t="n"/>
+      <c r="F94" s="13" t="n"/>
+      <c r="G94" s="13" t="n"/>
+      <c r="H94" s="13" t="n"/>
+      <c r="I94" s="13" t="inlineStr">
+        <is>
+          <t>20-4"-P-5039-203-3CS11P-H</t>
+        </is>
+      </c>
+      <c r="J94" s="13" t="n"/>
+      <c r="K94" s="13" t="n"/>
+      <c r="L94" s="13" t="n"/>
+      <c r="M94" s="13" t="n"/>
+      <c r="N94" s="13" t="n"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="13" t="inlineStr">
+        <is>
+          <t>V222</t>
+        </is>
+      </c>
+      <c r="B95" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 10</t>
+        </is>
+      </c>
+      <c r="C95" s="13" t="n"/>
+      <c r="D95" s="13" t="n"/>
+      <c r="E95" s="13" t="n"/>
+      <c r="F95" s="13" t="n"/>
+      <c r="G95" s="13" t="n"/>
+      <c r="H95" s="13" t="n"/>
+      <c r="I95" s="13" t="inlineStr">
+        <is>
+          <t>20-4"-P-5039-203-3CS11P-H</t>
+        </is>
+      </c>
+      <c r="J95" s="13" t="n"/>
+      <c r="K95" s="13" t="n"/>
+      <c r="L95" s="13" t="n"/>
+      <c r="M95" s="13" t="n"/>
+      <c r="N95" s="13" t="n"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="13" t="inlineStr">
+        <is>
+          <t>V223</t>
+        </is>
+      </c>
+      <c r="B96" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 10</t>
+        </is>
+      </c>
+      <c r="C96" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D96" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E96" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F96" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G96" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H96" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="I96" s="13" t="inlineStr">
+        <is>
+          <t>20-4"-P-5039-203-3CS11P-H</t>
+        </is>
+      </c>
+      <c r="J96" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K96" s="13" t="n"/>
+      <c r="L96" s="13" t="n"/>
+      <c r="M96" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N96" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="13" t="inlineStr">
+        <is>
+          <t>V224</t>
+        </is>
+      </c>
+      <c r="B97" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 10</t>
+        </is>
+      </c>
+      <c r="C97" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D97" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E97" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F97" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G97" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H97" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="I97" s="13" t="inlineStr">
+        <is>
+          <t>20-4"-P-5039-203-3CS11P-H</t>
+        </is>
+      </c>
+      <c r="J97" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K97" s="13" t="n"/>
+      <c r="L97" s="13" t="n"/>
+      <c r="M97" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N97" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="13" t="inlineStr">
+        <is>
+          <t>V225</t>
+        </is>
+      </c>
+      <c r="B98" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 10</t>
+        </is>
+      </c>
+      <c r="C98" s="13" t="inlineStr">
+        <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="D98" s="13" t="inlineStr">
+        <is>
+          <t>FNPT</t>
+        </is>
+      </c>
+      <c r="E98" s="13" t="inlineStr">
+        <is>
+          <t>2-Valve Manifold - PG</t>
+        </is>
+      </c>
+      <c r="F98" s="13" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="G98" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H98" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I98" s="13" t="inlineStr">
+        <is>
+          <t>Instrumentation / Tubing</t>
+        </is>
+      </c>
+      <c r="J98" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K98" s="13" t="inlineStr">
+        <is>
+          <t>AGCO</t>
+        </is>
+      </c>
+      <c r="L98" s="13" t="inlineStr">
+        <is>
+          <t>PTM-VIS-4 with V6-VIS-4</t>
+        </is>
+      </c>
+      <c r="M98" s="13" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="N98" s="13" t="inlineStr">
+        <is>
+          <t>Teflon packing, metal seat</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/workbook1.xlsx
+++ b/workbook1.xlsx
@@ -12854,7 +12854,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N98"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
@@ -13045,7 +13045,7 @@
     <row r="4">
       <c r="A4" s="13" t="inlineStr">
         <is>
-          <t>CV102</t>
+          <t>V104</t>
         </is>
       </c>
       <c r="B4" s="13" t="inlineStr">
@@ -13053,32 +13053,76 @@
           <t>Sheet 1</t>
         </is>
       </c>
-      <c r="C4" s="13" t="n"/>
-      <c r="D4" s="13" t="n"/>
-      <c r="E4" s="13" t="n"/>
-      <c r="F4" s="13" t="n"/>
-      <c r="G4" s="13" t="n"/>
-      <c r="H4" s="13" t="n"/>
+      <c r="C4" s="13" t="inlineStr">
+        <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="D4" s="13" t="inlineStr">
+        <is>
+          <t>FNPT</t>
+        </is>
+      </c>
+      <c r="E4" s="13" t="inlineStr">
+        <is>
+          <t>2-Valve Manifold - PG</t>
+        </is>
+      </c>
+      <c r="F4" s="13" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="G4" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H4" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="I4" s="13" t="inlineStr">
         <is>
-          <t>20-12"-P-5030-100-3CS11P</t>
-        </is>
-      </c>
-      <c r="J4" s="13" t="n"/>
-      <c r="K4" s="13" t="n"/>
-      <c r="L4" s="13" t="n"/>
-      <c r="M4" s="13" t="n"/>
-      <c r="N4" s="13" t="n"/>
+          <t>20-16"-P-5030-101-3CS11P</t>
+        </is>
+      </c>
+      <c r="J4" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K4" s="13" t="inlineStr">
+        <is>
+          <t>AGCO</t>
+        </is>
+      </c>
+      <c r="L4" s="13" t="inlineStr">
+        <is>
+          <t>PTM-VIS-4 with V6-VIS-4</t>
+        </is>
+      </c>
+      <c r="M4" s="13" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="N4" s="13" t="inlineStr">
+        <is>
+          <t>Teflon packing, metal seat</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="13" t="inlineStr">
         <is>
-          <t>V103</t>
+          <t>V105</t>
         </is>
       </c>
       <c r="B5" s="13" t="inlineStr">
         <is>
-          <t>Sheet 1</t>
+          <t>Sheet 2</t>
         </is>
       </c>
       <c r="C5" s="13" t="inlineStr">
@@ -13137,12 +13181,12 @@
     <row r="6">
       <c r="A6" s="13" t="inlineStr">
         <is>
-          <t>V104</t>
+          <t>V107</t>
         </is>
       </c>
       <c r="B6" s="13" t="inlineStr">
         <is>
-          <t>Sheet 1</t>
+          <t>Sheet 2</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
@@ -13157,7 +13201,7 @@
       </c>
       <c r="E6" s="13" t="inlineStr">
         <is>
-          <t>2-Valve Manifold - PG</t>
+          <t>3-Valve Manifold - PDT</t>
         </is>
       </c>
       <c r="F6" s="13" t="inlineStr">
@@ -13192,7 +13236,7 @@
       </c>
       <c r="L6" s="13" t="inlineStr">
         <is>
-          <t>PTM-VIS-4 with V6-VIS-4</t>
+          <t>M1-VIS-4-AM</t>
         </is>
       </c>
       <c r="M6" s="13" t="inlineStr">
@@ -13209,76 +13253,40 @@
     <row r="7">
       <c r="A7" s="13" t="inlineStr">
         <is>
-          <t>V105</t>
+          <t>V116</t>
         </is>
       </c>
       <c r="B7" s="13" t="inlineStr">
         <is>
-          <t>Sheet 2</t>
-        </is>
-      </c>
-      <c r="C7" s="13" t="inlineStr">
-        <is>
-          <t>3/4" Class 800</t>
-        </is>
-      </c>
-      <c r="D7" s="13" t="inlineStr">
-        <is>
-          <t>SW x NPT</t>
-        </is>
-      </c>
-      <c r="E7" s="13" t="inlineStr">
-        <is>
-          <t>Gate</t>
-        </is>
-      </c>
-      <c r="F7" s="13" t="inlineStr">
-        <is>
-          <t>ASTM A105N</t>
-        </is>
-      </c>
-      <c r="G7" s="13" t="inlineStr">
-        <is>
-          <t>Trim # 8</t>
-        </is>
-      </c>
-      <c r="H7" s="13" t="inlineStr">
-        <is>
-          <t>Conventional</t>
-        </is>
-      </c>
+          <t>Sheet 12</t>
+        </is>
+      </c>
+      <c r="C7" s="13" t="n"/>
+      <c r="D7" s="13" t="n"/>
+      <c r="E7" s="13" t="n"/>
+      <c r="F7" s="13" t="n"/>
+      <c r="G7" s="13" t="n"/>
+      <c r="H7" s="13" t="n"/>
       <c r="I7" s="13" t="inlineStr">
         <is>
-          <t>20-16"-P-5030-101-3CS11P</t>
-        </is>
-      </c>
-      <c r="J7" s="13" t="inlineStr">
-        <is>
-          <t>3CS11</t>
-        </is>
-      </c>
+          <t>20-C-5021 Compressor Second Stage</t>
+        </is>
+      </c>
+      <c r="J7" s="13" t="n"/>
       <c r="K7" s="13" t="n"/>
       <c r="L7" s="13" t="n"/>
-      <c r="M7" s="13" t="inlineStr">
-        <is>
-          <t>GASACH1F</t>
-        </is>
-      </c>
-      <c r="N7" s="13" t="inlineStr">
-        <is>
-          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
-        </is>
-      </c>
+      <c r="M7" s="13" t="n"/>
+      <c r="N7" s="13" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="13" t="inlineStr">
         <is>
-          <t>V106</t>
+          <t>V133</t>
         </is>
       </c>
       <c r="B8" s="13" t="inlineStr">
         <is>
-          <t>Sheet 2</t>
+          <t>Sheet 3</t>
         </is>
       </c>
       <c r="C8" s="13" t="inlineStr">
@@ -13313,7 +13321,7 @@
       </c>
       <c r="I8" s="13" t="inlineStr">
         <is>
-          <t>20-16"-P-5030-101-3CS11P</t>
+          <t>20-V-5124 Bulk Oil Seperator</t>
         </is>
       </c>
       <c r="J8" s="13" t="inlineStr">
@@ -13337,12 +13345,12 @@
     <row r="9">
       <c r="A9" s="13" t="inlineStr">
         <is>
-          <t>V107</t>
+          <t>V135</t>
         </is>
       </c>
       <c r="B9" s="13" t="inlineStr">
         <is>
-          <t>Sheet 2</t>
+          <t>Sheet 3</t>
         </is>
       </c>
       <c r="C9" s="13" t="inlineStr">
@@ -13377,7 +13385,7 @@
       </c>
       <c r="I9" s="13" t="inlineStr">
         <is>
-          <t>20-16"-P-5030-101-3CS11P</t>
+          <t>20-V-5124 Bulk Oil Seperator</t>
         </is>
       </c>
       <c r="J9" s="13" t="inlineStr">
@@ -13387,14 +13395,10 @@
       </c>
       <c r="K9" s="13" t="inlineStr">
         <is>
-          <t>AGCO</t>
-        </is>
-      </c>
-      <c r="L9" s="13" t="inlineStr">
-        <is>
-          <t>M1-VIS-4-AM</t>
-        </is>
-      </c>
+          <t>Rosemount</t>
+        </is>
+      </c>
+      <c r="L9" s="13" t="n"/>
       <c r="M9" s="13" t="inlineStr">
         <is>
           <t>Not Applicable</t>
@@ -13409,12 +13413,12 @@
     <row r="10">
       <c r="A10" s="13" t="inlineStr">
         <is>
-          <t>V108</t>
+          <t>V136</t>
         </is>
       </c>
       <c r="B10" s="13" t="inlineStr">
         <is>
-          <t>Sheet 2</t>
+          <t>Sheet 4</t>
         </is>
       </c>
       <c r="C10" s="13" t="inlineStr">
@@ -13449,7 +13453,7 @@
       </c>
       <c r="I10" s="13" t="inlineStr">
         <is>
-          <t>20-16"-P-5031-102-3CS11P-HP</t>
+          <t>20-8"-P-5033-106-3CS11P-HP</t>
         </is>
       </c>
       <c r="J10" s="13" t="inlineStr">
@@ -13473,86 +13477,90 @@
     <row r="11">
       <c r="A11" s="13" t="inlineStr">
         <is>
-          <t>V109</t>
+          <t>V138</t>
         </is>
       </c>
       <c r="B11" s="13" t="inlineStr">
         <is>
-          <t>Sheet 2</t>
+          <t>Sheet 4</t>
         </is>
       </c>
       <c r="C11" s="13" t="inlineStr">
         <is>
-          <t>3/4" Class 800</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="D11" s="13" t="inlineStr">
         <is>
-          <t>SW x NPT</t>
+          <t>FNPT</t>
         </is>
       </c>
       <c r="E11" s="13" t="inlineStr">
         <is>
-          <t>Gate</t>
+          <t>3-Valve Manifold - PDT</t>
         </is>
       </c>
       <c r="F11" s="13" t="inlineStr">
         <is>
-          <t>ASTM A105N</t>
+          <t>Stainless Steel</t>
         </is>
       </c>
       <c r="G11" s="13" t="inlineStr">
         <is>
-          <t>Trim # 8</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H11" s="13" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I11" s="13" t="inlineStr">
         <is>
-          <t>20-16"-P-5031-102-3CS11P-HP</t>
+          <t>Instrumentation / Tubing</t>
         </is>
       </c>
       <c r="J11" s="13" t="inlineStr">
         <is>
-          <t>3CS11</t>
-        </is>
-      </c>
-      <c r="K11" s="13" t="n"/>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K11" s="13" t="inlineStr">
+        <is>
+          <t>Rosemount</t>
+        </is>
+      </c>
       <c r="L11" s="13" t="n"/>
       <c r="M11" s="13" t="inlineStr">
         <is>
-          <t>GASACH1F</t>
+          <t>Not Applicable</t>
         </is>
       </c>
       <c r="N11" s="13" t="inlineStr">
         <is>
-          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+          <t>Teflon packing, metal seat</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="13" t="inlineStr">
         <is>
-          <t>V110</t>
+          <t>V141</t>
         </is>
       </c>
       <c r="B12" s="13" t="inlineStr">
         <is>
-          <t>Sheet 2</t>
+          <t>Sheet 4</t>
         </is>
       </c>
       <c r="C12" s="13" t="inlineStr">
         <is>
-          <t>3/4" Class 800</t>
+          <t>8"-300#</t>
         </is>
       </c>
       <c r="D12" s="13" t="inlineStr">
         <is>
-          <t>SW x NPT</t>
+          <t>RF Flange</t>
         </is>
       </c>
       <c r="E12" s="13" t="inlineStr">
@@ -13562,7 +13570,7 @@
       </c>
       <c r="F12" s="13" t="inlineStr">
         <is>
-          <t>ASTM A105N</t>
+          <t>ASTM A216 WCB</t>
         </is>
       </c>
       <c r="G12" s="13" t="inlineStr">
@@ -13572,12 +13580,12 @@
       </c>
       <c r="H12" s="13" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>Full Port</t>
         </is>
       </c>
       <c r="I12" s="13" t="inlineStr">
         <is>
-          <t>20-16"-P-5031-102-3CS11P-HP</t>
+          <t>20-8"-P-5033-107-3CS11P-HP</t>
         </is>
       </c>
       <c r="J12" s="13" t="inlineStr">
@@ -13589,102 +13597,62 @@
       <c r="L12" s="13" t="n"/>
       <c r="M12" s="13" t="inlineStr">
         <is>
-          <t>GASACH1F</t>
+          <t>GABARH2F</t>
         </is>
       </c>
       <c r="N12" s="13" t="inlineStr">
         <is>
-          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+          <t>Bolted Bonnet, Gear Operated, API 600, OS&amp;Y, Bevel Gear Operator, Flexible Graphite Packing, Flexible/Solid Wedge</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="13" t="inlineStr">
         <is>
-          <t>V111</t>
+          <t>V146</t>
         </is>
       </c>
       <c r="B13" s="13" t="inlineStr">
         <is>
-          <t>Sheet 2</t>
-        </is>
-      </c>
-      <c r="C13" s="13" t="inlineStr">
-        <is>
-          <t>1/2"</t>
-        </is>
-      </c>
-      <c r="D13" s="13" t="inlineStr">
-        <is>
-          <t>FNPT</t>
-        </is>
-      </c>
-      <c r="E13" s="13" t="inlineStr">
-        <is>
-          <t>2-Valve Manifold - PT</t>
-        </is>
-      </c>
-      <c r="F13" s="13" t="inlineStr">
-        <is>
-          <t>Stainless Steel</t>
-        </is>
-      </c>
-      <c r="G13" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H13" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+          <t>Sheet 4</t>
+        </is>
+      </c>
+      <c r="C13" s="13" t="n"/>
+      <c r="D13" s="13" t="n"/>
+      <c r="E13" s="13" t="n"/>
+      <c r="F13" s="13" t="n"/>
+      <c r="G13" s="13" t="n"/>
+      <c r="H13" s="13" t="n"/>
       <c r="I13" s="13" t="inlineStr">
         <is>
-          <t>20-16"-P-5031-102-3CS11P-HP</t>
-        </is>
-      </c>
-      <c r="J13" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K13" s="13" t="inlineStr">
-        <is>
-          <t>Rosemount</t>
-        </is>
-      </c>
+          <t>20-8"-P-5033-107-3CS11P-HP</t>
+        </is>
+      </c>
+      <c r="J13" s="13" t="n"/>
+      <c r="K13" s="13" t="n"/>
       <c r="L13" s="13" t="n"/>
-      <c r="M13" s="13" t="inlineStr">
-        <is>
-          <t>Not Applicable</t>
-        </is>
-      </c>
-      <c r="N13" s="13" t="inlineStr">
-        <is>
-          <t>Teflon packing, metal seat</t>
-        </is>
-      </c>
+      <c r="M13" s="13" t="n"/>
+      <c r="N13" s="13" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="13" t="inlineStr">
         <is>
-          <t>V112</t>
+          <t>V149</t>
         </is>
       </c>
       <c r="B14" s="13" t="inlineStr">
         <is>
-          <t>Sheet 2</t>
+          <t>Sheet 6</t>
         </is>
       </c>
       <c r="C14" s="13" t="inlineStr">
         <is>
-          <t>3/4" Class 800</t>
+          <t>8"-300#</t>
         </is>
       </c>
       <c r="D14" s="13" t="inlineStr">
         <is>
-          <t>SW x NPT</t>
+          <t>RF Flange</t>
         </is>
       </c>
       <c r="E14" s="13" t="inlineStr">
@@ -13694,7 +13662,7 @@
       </c>
       <c r="F14" s="13" t="inlineStr">
         <is>
-          <t>ASTM A105N</t>
+          <t>ASTM A216 WCB</t>
         </is>
       </c>
       <c r="G14" s="13" t="inlineStr">
@@ -13704,12 +13672,12 @@
       </c>
       <c r="H14" s="13" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>Full Port</t>
         </is>
       </c>
       <c r="I14" s="13" t="inlineStr">
         <is>
-          <t>20-16"-P-5031-102-3CS11P-HP</t>
+          <t>20-8"-P-5035-108-3CS11P-HP</t>
         </is>
       </c>
       <c r="J14" s="13" t="inlineStr">
@@ -13721,346 +13689,466 @@
       <c r="L14" s="13" t="n"/>
       <c r="M14" s="13" t="inlineStr">
         <is>
-          <t>GASACH1F</t>
+          <t>GABARH2F</t>
         </is>
       </c>
       <c r="N14" s="13" t="inlineStr">
         <is>
-          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+          <t>Bolted Bonnet, Gear Operated, API 600, OS&amp;Y, Bevel Gear Operator, Flexible Graphite Packing, Flexible/Solid Wedge</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="13" t="inlineStr">
         <is>
-          <t>V113</t>
+          <t>V150</t>
         </is>
       </c>
       <c r="B15" s="13" t="inlineStr">
         <is>
-          <t>Sheet 2</t>
+          <t>Sheet 6</t>
         </is>
       </c>
       <c r="C15" s="13" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/4" Class 800</t>
         </is>
       </c>
       <c r="D15" s="13" t="inlineStr">
         <is>
-          <t>FNPT</t>
+          <t>SW x NPT</t>
         </is>
       </c>
       <c r="E15" s="13" t="inlineStr">
         <is>
-          <t>2-Valve Manifold - PT</t>
+          <t>Gate</t>
         </is>
       </c>
       <c r="F15" s="13" t="inlineStr">
         <is>
-          <t>Stainless Steel</t>
+          <t>ASTM A105N</t>
         </is>
       </c>
       <c r="G15" s="13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Trim # 8</t>
         </is>
       </c>
       <c r="H15" s="13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Conventional</t>
         </is>
       </c>
       <c r="I15" s="13" t="inlineStr">
         <is>
-          <t>20-16"-P-5031-102-3CS11P-HP</t>
+          <t>20-8"-P-5035-108-3CS11P-HP</t>
         </is>
       </c>
       <c r="J15" s="13" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K15" s="13" t="inlineStr">
-        <is>
-          <t>Rosemount</t>
-        </is>
-      </c>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K15" s="13" t="n"/>
       <c r="L15" s="13" t="n"/>
       <c r="M15" s="13" t="inlineStr">
         <is>
-          <t>Not Applicable</t>
+          <t>GASACH1F</t>
         </is>
       </c>
       <c r="N15" s="13" t="inlineStr">
         <is>
-          <t>Teflon packing, metal seat</t>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="13" t="inlineStr">
         <is>
-          <t>V114</t>
+          <t>V152</t>
         </is>
       </c>
       <c r="B16" s="13" t="inlineStr">
         <is>
-          <t>Sheet 2</t>
+          <t>Sheet 6</t>
         </is>
       </c>
       <c r="C16" s="13" t="inlineStr">
         <is>
-          <t>3/4" Class 800</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="D16" s="13" t="inlineStr">
         <is>
-          <t>SW x NPT</t>
+          <t>FNPT</t>
         </is>
       </c>
       <c r="E16" s="13" t="inlineStr">
         <is>
-          <t>Gate</t>
+          <t>2-Valve Manifold - PT</t>
         </is>
       </c>
       <c r="F16" s="13" t="inlineStr">
         <is>
-          <t>ASTM A105N</t>
+          <t>Stainless Steel</t>
         </is>
       </c>
       <c r="G16" s="13" t="inlineStr">
         <is>
-          <t>Trim # 8</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H16" s="13" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I16" s="13" t="inlineStr">
         <is>
-          <t>20-16"-P-5031-102-3CS11P-HP</t>
+          <t>Instrumentation / Tubing</t>
         </is>
       </c>
       <c r="J16" s="13" t="inlineStr">
         <is>
-          <t>3CS11</t>
-        </is>
-      </c>
-      <c r="K16" s="13" t="n"/>
-      <c r="L16" s="13" t="n"/>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K16" s="13" t="inlineStr">
+        <is>
+          <t>AGCO</t>
+        </is>
+      </c>
+      <c r="L16" s="13" t="inlineStr">
+        <is>
+          <t>PTM-VIS-4 with V6-VIS-4</t>
+        </is>
+      </c>
       <c r="M16" s="13" t="inlineStr">
         <is>
-          <t>GASACH1F</t>
+          <t>Not Applicable</t>
         </is>
       </c>
       <c r="N16" s="13" t="inlineStr">
         <is>
-          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+          <t>Teflon packing, metal seat</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="13" t="inlineStr">
         <is>
-          <t>V115</t>
+          <t>V153</t>
         </is>
       </c>
       <c r="B17" s="13" t="inlineStr">
         <is>
-          <t>Sheet 2</t>
-        </is>
-      </c>
-      <c r="C17" s="13" t="inlineStr">
-        <is>
-          <t>1/2"</t>
-        </is>
-      </c>
-      <c r="D17" s="13" t="inlineStr">
-        <is>
-          <t>FNPT</t>
-        </is>
-      </c>
-      <c r="E17" s="13" t="inlineStr">
-        <is>
-          <t>2-Valve Manifold - PT</t>
-        </is>
-      </c>
-      <c r="F17" s="13" t="inlineStr">
-        <is>
-          <t>Stainless Steel</t>
-        </is>
-      </c>
-      <c r="G17" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H17" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+          <t>Sheet 7</t>
+        </is>
+      </c>
+      <c r="C17" s="13" t="n"/>
+      <c r="D17" s="13" t="n"/>
+      <c r="E17" s="13" t="n"/>
+      <c r="F17" s="13" t="n"/>
+      <c r="G17" s="13" t="n"/>
+      <c r="H17" s="13" t="n"/>
       <c r="I17" s="13" t="inlineStr">
         <is>
-          <t>20-16"-P-5031-102-3CS11P-HP</t>
-        </is>
-      </c>
-      <c r="J17" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K17" s="13" t="inlineStr">
-        <is>
-          <t>Rosemount</t>
-        </is>
-      </c>
+          <t>20-2"-P-5036-112-3CS11P-H-TE</t>
+        </is>
+      </c>
+      <c r="J17" s="13" t="n"/>
+      <c r="K17" s="13" t="n"/>
       <c r="L17" s="13" t="n"/>
-      <c r="M17" s="13" t="inlineStr">
-        <is>
-          <t>Not Applicable</t>
-        </is>
-      </c>
-      <c r="N17" s="13" t="inlineStr">
-        <is>
-          <t>Teflon packing, metal seat</t>
-        </is>
-      </c>
+      <c r="M17" s="13" t="n"/>
+      <c r="N17" s="13" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="13" t="inlineStr">
         <is>
-          <t>V116</t>
+          <t>V157</t>
         </is>
       </c>
       <c r="B18" s="13" t="inlineStr">
         <is>
-          <t>Sheet 12</t>
-        </is>
-      </c>
-      <c r="C18" s="13" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="13" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="13" t="n"/>
-      <c r="H18" s="13" t="n"/>
+          <t>Sheet 7</t>
+        </is>
+      </c>
+      <c r="C18" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D18" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E18" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F18" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G18" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H18" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
       <c r="I18" s="13" t="inlineStr">
         <is>
-          <t>20-C-5021 Compressor Second Stage</t>
-        </is>
-      </c>
-      <c r="J18" s="13" t="n"/>
+          <t>20-2"-P-5036-112-3CS11P-H-TE</t>
+        </is>
+      </c>
+      <c r="J18" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
       <c r="K18" s="13" t="n"/>
       <c r="L18" s="13" t="n"/>
-      <c r="M18" s="13" t="n"/>
-      <c r="N18" s="13" t="n"/>
+      <c r="M18" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N18" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="13" t="inlineStr">
         <is>
-          <t>V117</t>
+          <t>V158</t>
         </is>
       </c>
       <c r="B19" s="13" t="inlineStr">
         <is>
-          <t>Sheet 12</t>
-        </is>
-      </c>
-      <c r="C19" s="13" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="13" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="13" t="n"/>
-      <c r="H19" s="13" t="n"/>
+          <t>Sheet 7</t>
+        </is>
+      </c>
+      <c r="C19" s="13" t="inlineStr">
+        <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="D19" s="13" t="inlineStr">
+        <is>
+          <t>FNPT</t>
+        </is>
+      </c>
+      <c r="E19" s="13" t="inlineStr">
+        <is>
+          <t>2-Valve Manifold - PT</t>
+        </is>
+      </c>
+      <c r="F19" s="13" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="G19" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H19" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="I19" s="13" t="inlineStr">
         <is>
-          <t>Instrumentation / Tubing</t>
-        </is>
-      </c>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+          <t>20-2"-P-5036-112-3CS11P-H-TE</t>
+        </is>
+      </c>
+      <c r="J19" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K19" s="13" t="inlineStr">
+        <is>
+          <t>Rosemount</t>
+        </is>
+      </c>
       <c r="L19" s="13" t="n"/>
-      <c r="M19" s="13" t="n"/>
-      <c r="N19" s="13" t="n"/>
+      <c r="M19" s="13" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="N19" s="13" t="inlineStr">
+        <is>
+          <t>Teflon packing, metal seat</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="13" t="inlineStr">
         <is>
-          <t>V118</t>
+          <t>V164</t>
         </is>
       </c>
       <c r="B20" s="13" t="inlineStr">
         <is>
-          <t>Sheet 12</t>
-        </is>
-      </c>
-      <c r="C20" s="13" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="13" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="13" t="n"/>
-      <c r="H20" s="13" t="n"/>
+          <t>Sheet 9</t>
+        </is>
+      </c>
+      <c r="C20" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D20" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E20" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F20" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G20" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H20" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
       <c r="I20" s="13" t="inlineStr">
         <is>
-          <t>20-C-5021 Compressor First Stage</t>
-        </is>
-      </c>
-      <c r="J20" s="13" t="n"/>
+          <t>20-6"-P-5038-114-3CS11P-H-TE</t>
+        </is>
+      </c>
+      <c r="J20" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
       <c r="K20" s="13" t="n"/>
       <c r="L20" s="13" t="n"/>
-      <c r="M20" s="13" t="n"/>
-      <c r="N20" s="13" t="n"/>
+      <c r="M20" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N20" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="13" t="inlineStr">
         <is>
-          <t>V119</t>
+          <t>V165</t>
         </is>
       </c>
       <c r="B21" s="13" t="inlineStr">
         <is>
-          <t>Sheet 12</t>
-        </is>
-      </c>
-      <c r="C21" s="13" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="13" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="13" t="n"/>
-      <c r="H21" s="13" t="n"/>
+          <t>Sheet 9</t>
+        </is>
+      </c>
+      <c r="C21" s="13" t="inlineStr">
+        <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="D21" s="13" t="inlineStr">
+        <is>
+          <t>FNPT</t>
+        </is>
+      </c>
+      <c r="E21" s="13" t="inlineStr">
+        <is>
+          <t>2-Valve Manifold - PG</t>
+        </is>
+      </c>
+      <c r="F21" s="13" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="G21" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H21" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="I21" s="13" t="inlineStr">
         <is>
           <t>Instrumentation / Tubing</t>
         </is>
       </c>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
-      <c r="L21" s="13" t="n"/>
-      <c r="M21" s="13" t="n"/>
-      <c r="N21" s="13" t="n"/>
+      <c r="J21" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K21" s="13" t="inlineStr">
+        <is>
+          <t>AGCO</t>
+        </is>
+      </c>
+      <c r="L21" s="13" t="inlineStr">
+        <is>
+          <t>PTM-VIS-4 with V6-VIS-4</t>
+        </is>
+      </c>
+      <c r="M21" s="13" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="N21" s="13" t="inlineStr">
+        <is>
+          <t>Teflon packing, metal seat</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="13" t="inlineStr">
         <is>
-          <t>V120</t>
+          <t>V169</t>
         </is>
       </c>
       <c r="B22" s="13" t="inlineStr">
         <is>
-          <t>Sheet 2</t>
+          <t>Sheet 9</t>
         </is>
       </c>
       <c r="C22" s="13" t="inlineStr">
         <is>
-          <t>3/4" Class 800</t>
+          <t>6"-300#</t>
         </is>
       </c>
       <c r="D22" s="13" t="inlineStr">
         <is>
-          <t>SW x NPT</t>
+          <t>RF Flange</t>
         </is>
       </c>
       <c r="E22" s="13" t="inlineStr">
@@ -14070,7 +14158,7 @@
       </c>
       <c r="F22" s="13" t="inlineStr">
         <is>
-          <t>ASTM A105N</t>
+          <t>ASTM A216 WCB</t>
         </is>
       </c>
       <c r="G22" s="13" t="inlineStr">
@@ -14080,12 +14168,12 @@
       </c>
       <c r="H22" s="13" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>Full Port</t>
         </is>
       </c>
       <c r="I22" s="13" t="inlineStr">
         <is>
-          <t>20-8"-P-5031-104-3CS11P-HP</t>
+          <t>20-6"-P-5038-114-3CS11P-H-TE</t>
         </is>
       </c>
       <c r="J22" s="13" t="inlineStr">
@@ -14097,156 +14185,116 @@
       <c r="L22" s="13" t="n"/>
       <c r="M22" s="13" t="inlineStr">
         <is>
-          <t>GASACH1F</t>
+          <t>GABARH1F</t>
         </is>
       </c>
       <c r="N22" s="13" t="inlineStr">
         <is>
-          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+          <t>Bolted Bonnet, API 600, OS&amp;Y, Flexible Graphite Packing, Flexible/Solid Wedge</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="13" t="inlineStr">
         <is>
-          <t>V121</t>
+          <t>V206</t>
         </is>
       </c>
       <c r="B23" s="13" t="inlineStr">
         <is>
-          <t>Sheet 2</t>
-        </is>
-      </c>
-      <c r="C23" s="13" t="inlineStr">
-        <is>
-          <t>3/4" Class 800</t>
-        </is>
-      </c>
-      <c r="D23" s="13" t="inlineStr">
-        <is>
-          <t>SW x NPT</t>
-        </is>
-      </c>
-      <c r="E23" s="13" t="inlineStr">
-        <is>
-          <t>Gate</t>
-        </is>
-      </c>
-      <c r="F23" s="13" t="inlineStr">
-        <is>
-          <t>ASTM A105N</t>
-        </is>
-      </c>
-      <c r="G23" s="13" t="inlineStr">
-        <is>
-          <t>Trim # 8</t>
-        </is>
-      </c>
-      <c r="H23" s="13" t="inlineStr">
-        <is>
-          <t>Conventional</t>
-        </is>
-      </c>
+          <t>Sheet 9</t>
+        </is>
+      </c>
+      <c r="C23" s="13" t="n"/>
+      <c r="D23" s="13" t="n"/>
+      <c r="E23" s="13" t="n"/>
+      <c r="F23" s="13" t="n"/>
+      <c r="G23" s="13" t="n"/>
+      <c r="H23" s="13" t="n"/>
       <c r="I23" s="13" t="inlineStr">
         <is>
-          <t>20-8"-P-5031-104-3CS11P-HP</t>
-        </is>
-      </c>
-      <c r="J23" s="13" t="inlineStr">
-        <is>
-          <t>3CS11</t>
-        </is>
-      </c>
+          <t>20-6"-P-5038-200-3CS11P-H</t>
+        </is>
+      </c>
+      <c r="J23" s="13" t="n"/>
       <c r="K23" s="13" t="n"/>
       <c r="L23" s="13" t="n"/>
-      <c r="M23" s="13" t="inlineStr">
-        <is>
-          <t>GASACH1F</t>
-        </is>
-      </c>
-      <c r="N23" s="13" t="inlineStr">
-        <is>
-          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
-        </is>
-      </c>
+      <c r="M23" s="13" t="n"/>
+      <c r="N23" s="13" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="13" t="inlineStr">
         <is>
-          <t>V122</t>
+          <t>V210</t>
         </is>
       </c>
       <c r="B24" s="13" t="inlineStr">
         <is>
-          <t>Sheet 2</t>
+          <t>Sheet 10</t>
         </is>
       </c>
       <c r="C24" s="13" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>2"-300#</t>
         </is>
       </c>
       <c r="D24" s="13" t="inlineStr">
         <is>
-          <t>FNPT</t>
+          <t>RF Flange</t>
         </is>
       </c>
       <c r="E24" s="13" t="inlineStr">
         <is>
-          <t>3-Valve Manifold - PDT</t>
+          <t>Gate</t>
         </is>
       </c>
       <c r="F24" s="13" t="inlineStr">
         <is>
-          <t>Stainless Steel</t>
+          <t>ASTM A216 WCB</t>
         </is>
       </c>
       <c r="G24" s="13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Trim # 8</t>
         </is>
       </c>
       <c r="H24" s="13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Full Port</t>
         </is>
       </c>
       <c r="I24" s="13" t="inlineStr">
         <is>
-          <t>20-8"-P-5031-104-3CS11P-HP</t>
+          <t>20-4"-P-5039-202-3CS11P-H</t>
         </is>
       </c>
       <c r="J24" s="13" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K24" s="13" t="inlineStr">
-        <is>
-          <t>Rosemount</t>
-        </is>
-      </c>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K24" s="13" t="n"/>
       <c r="L24" s="13" t="n"/>
       <c r="M24" s="13" t="inlineStr">
         <is>
-          <t>Not Applicable</t>
+          <t>GABARH1F</t>
         </is>
       </c>
       <c r="N24" s="13" t="inlineStr">
         <is>
-          <t>Teflon packing, metal seat</t>
+          <t>Bolted Bonnet, API 600, OS&amp;Y, Flexible Graphite Packing, Flexible/Solid Wedge</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="13" t="inlineStr">
         <is>
-          <t>V123</t>
+          <t>V211</t>
         </is>
       </c>
       <c r="B25" s="13" t="inlineStr">
         <is>
-          <t>Sheet 2</t>
+          <t>Sheet 10</t>
         </is>
       </c>
       <c r="C25" s="13" t="inlineStr">
@@ -14281,7 +14329,7 @@
       </c>
       <c r="I25" s="13" t="inlineStr">
         <is>
-          <t>20-8"-P-5031-104-3CS11P-HP</t>
+          <t>20-4"-P-5039-202-3CS11P-H</t>
         </is>
       </c>
       <c r="J25" s="13" t="inlineStr">
@@ -14305,12 +14353,12 @@
     <row r="26">
       <c r="A26" s="13" t="inlineStr">
         <is>
-          <t>V124</t>
+          <t>V212</t>
         </is>
       </c>
       <c r="B26" s="13" t="inlineStr">
         <is>
-          <t>Sheet 2</t>
+          <t>Sheet 10</t>
         </is>
       </c>
       <c r="C26" s="13" t="inlineStr">
@@ -14325,7 +14373,7 @@
       </c>
       <c r="E26" s="13" t="inlineStr">
         <is>
-          <t>3-Valve Manifold - PDT</t>
+          <t>2-Valve Manifold - PG</t>
         </is>
       </c>
       <c r="F26" s="13" t="inlineStr">
@@ -14345,7 +14393,7 @@
       </c>
       <c r="I26" s="13" t="inlineStr">
         <is>
-          <t>20-8"-P-5031-104-3CS11P-HP</t>
+          <t>Instrumentation / Tubing</t>
         </is>
       </c>
       <c r="J26" s="13" t="inlineStr">
@@ -14355,10 +14403,14 @@
       </c>
       <c r="K26" s="13" t="inlineStr">
         <is>
-          <t>Rosemount</t>
-        </is>
-      </c>
-      <c r="L26" s="13" t="n"/>
+          <t>AGCO</t>
+        </is>
+      </c>
+      <c r="L26" s="13" t="inlineStr">
+        <is>
+          <t>PTM-VIS-4 with V6-VIS-4</t>
+        </is>
+      </c>
       <c r="M26" s="13" t="inlineStr">
         <is>
           <t>Not Applicable</t>
@@ -14373,4282 +14425,30 @@
     <row r="27">
       <c r="A27" s="13" t="inlineStr">
         <is>
-          <t>V125</t>
+          <t>V214</t>
         </is>
       </c>
       <c r="B27" s="13" t="inlineStr">
         <is>
-          <t>Sheet 2</t>
-        </is>
-      </c>
-      <c r="C27" s="13" t="inlineStr">
-        <is>
-          <t>3/4" Class 800</t>
-        </is>
-      </c>
-      <c r="D27" s="13" t="inlineStr">
-        <is>
-          <t>SW x NPT</t>
-        </is>
-      </c>
-      <c r="E27" s="13" t="inlineStr">
-        <is>
-          <t>Gate</t>
-        </is>
-      </c>
-      <c r="F27" s="13" t="inlineStr">
-        <is>
-          <t>ASTM A105N</t>
-        </is>
-      </c>
-      <c r="G27" s="13" t="inlineStr">
-        <is>
-          <t>Trim # 8</t>
-        </is>
-      </c>
-      <c r="H27" s="13" t="inlineStr">
-        <is>
-          <t>Conventional</t>
-        </is>
-      </c>
+          <t>Sheet 10</t>
+        </is>
+      </c>
+      <c r="C27" s="13" t="n"/>
+      <c r="D27" s="13" t="n"/>
+      <c r="E27" s="13" t="n"/>
+      <c r="F27" s="13" t="n"/>
+      <c r="G27" s="13" t="n"/>
+      <c r="H27" s="13" t="n"/>
       <c r="I27" s="13" t="inlineStr">
         <is>
-          <t>20-8"-P-5031-104-3CS11P-HP</t>
-        </is>
-      </c>
-      <c r="J27" s="13" t="inlineStr">
-        <is>
-          <t>3CS11</t>
-        </is>
-      </c>
+          <t>20-4"-P-5039-202-3CS11P-H</t>
+        </is>
+      </c>
+      <c r="J27" s="13" t="n"/>
       <c r="K27" s="13" t="n"/>
       <c r="L27" s="13" t="n"/>
-      <c r="M27" s="13" t="inlineStr">
-        <is>
-          <t>GASACH1F</t>
-        </is>
-      </c>
-      <c r="N27" s="13" t="inlineStr">
-        <is>
-          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="13" t="inlineStr">
-        <is>
-          <t>V126</t>
-        </is>
-      </c>
-      <c r="B28" s="13" t="inlineStr">
-        <is>
-          <t>Sheet 2</t>
-        </is>
-      </c>
-      <c r="C28" s="13" t="inlineStr">
-        <is>
-          <t>1/2"</t>
-        </is>
-      </c>
-      <c r="D28" s="13" t="inlineStr">
-        <is>
-          <t>FNPT</t>
-        </is>
-      </c>
-      <c r="E28" s="13" t="inlineStr">
-        <is>
-          <t>3-Valve Manifold - PDT</t>
-        </is>
-      </c>
-      <c r="F28" s="13" t="inlineStr">
-        <is>
-          <t>Stainless Steel</t>
-        </is>
-      </c>
-      <c r="G28" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H28" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I28" s="13" t="inlineStr">
-        <is>
-          <t>20-8"-P-5031-104-3CS11P-HP</t>
-        </is>
-      </c>
-      <c r="J28" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K28" s="13" t="inlineStr">
-        <is>
-          <t>Rosemount</t>
-        </is>
-      </c>
-      <c r="L28" s="13" t="n"/>
-      <c r="M28" s="13" t="inlineStr">
-        <is>
-          <t>Not Applicable</t>
-        </is>
-      </c>
-      <c r="N28" s="13" t="inlineStr">
-        <is>
-          <t>Teflon packing, metal seat</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="13" t="inlineStr">
-        <is>
-          <t>V127</t>
-        </is>
-      </c>
-      <c r="B29" s="13" t="inlineStr">
-        <is>
-          <t>Sheet 2</t>
-        </is>
-      </c>
-      <c r="C29" s="13" t="inlineStr">
-        <is>
-          <t>3/4" Class 800</t>
-        </is>
-      </c>
-      <c r="D29" s="13" t="inlineStr">
-        <is>
-          <t>SW x NPT</t>
-        </is>
-      </c>
-      <c r="E29" s="13" t="inlineStr">
-        <is>
-          <t>Gate</t>
-        </is>
-      </c>
-      <c r="F29" s="13" t="inlineStr">
-        <is>
-          <t>ASTM A105N</t>
-        </is>
-      </c>
-      <c r="G29" s="13" t="inlineStr">
-        <is>
-          <t>Trim # 8</t>
-        </is>
-      </c>
-      <c r="H29" s="13" t="inlineStr">
-        <is>
-          <t>Conventional</t>
-        </is>
-      </c>
-      <c r="I29" s="13" t="inlineStr">
-        <is>
-          <t>20-8"-P-5031-104-3CS11P-HP</t>
-        </is>
-      </c>
-      <c r="J29" s="13" t="inlineStr">
-        <is>
-          <t>3CS11</t>
-        </is>
-      </c>
-      <c r="K29" s="13" t="n"/>
-      <c r="L29" s="13" t="n"/>
-      <c r="M29" s="13" t="inlineStr">
-        <is>
-          <t>GASACH1F</t>
-        </is>
-      </c>
-      <c r="N29" s="13" t="inlineStr">
-        <is>
-          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="13" t="inlineStr">
-        <is>
-          <t>V128</t>
-        </is>
-      </c>
-      <c r="B30" s="13" t="inlineStr">
-        <is>
-          <t>Sheet 2</t>
-        </is>
-      </c>
-      <c r="C30" s="13" t="inlineStr">
-        <is>
-          <t>1/2"</t>
-        </is>
-      </c>
-      <c r="D30" s="13" t="inlineStr">
-        <is>
-          <t>FNPT</t>
-        </is>
-      </c>
-      <c r="E30" s="13" t="inlineStr">
-        <is>
-          <t>2-Valve Manifold - PT</t>
-        </is>
-      </c>
-      <c r="F30" s="13" t="inlineStr">
-        <is>
-          <t>Stainless Steel</t>
-        </is>
-      </c>
-      <c r="G30" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H30" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I30" s="13" t="inlineStr">
-        <is>
-          <t>20-8"-P-5031-104-3CS11P-HP</t>
-        </is>
-      </c>
-      <c r="J30" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K30" s="13" t="inlineStr">
-        <is>
-          <t>Rosemount</t>
-        </is>
-      </c>
-      <c r="L30" s="13" t="n"/>
-      <c r="M30" s="13" t="inlineStr">
-        <is>
-          <t>Not Applicable</t>
-        </is>
-      </c>
-      <c r="N30" s="13" t="inlineStr">
-        <is>
-          <t>Teflon packing, metal seat</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="13" t="inlineStr">
-        <is>
-          <t>V129</t>
-        </is>
-      </c>
-      <c r="B31" s="13" t="inlineStr">
-        <is>
-          <t>Sheet 2</t>
-        </is>
-      </c>
-      <c r="C31" s="13" t="inlineStr">
-        <is>
-          <t>3/4" Class 800</t>
-        </is>
-      </c>
-      <c r="D31" s="13" t="inlineStr">
-        <is>
-          <t>SW x NPT</t>
-        </is>
-      </c>
-      <c r="E31" s="13" t="inlineStr">
-        <is>
-          <t>Gate</t>
-        </is>
-      </c>
-      <c r="F31" s="13" t="inlineStr">
-        <is>
-          <t>ASTM A105N</t>
-        </is>
-      </c>
-      <c r="G31" s="13" t="inlineStr">
-        <is>
-          <t>Trim # 8</t>
-        </is>
-      </c>
-      <c r="H31" s="13" t="inlineStr">
-        <is>
-          <t>Conventional</t>
-        </is>
-      </c>
-      <c r="I31" s="13" t="inlineStr">
-        <is>
-          <t>20-8"-P-5031-104-3CS11P-HP</t>
-        </is>
-      </c>
-      <c r="J31" s="13" t="inlineStr">
-        <is>
-          <t>3CS11</t>
-        </is>
-      </c>
-      <c r="K31" s="13" t="n"/>
-      <c r="L31" s="13" t="n"/>
-      <c r="M31" s="13" t="inlineStr">
-        <is>
-          <t>GASACH1F</t>
-        </is>
-      </c>
-      <c r="N31" s="13" t="inlineStr">
-        <is>
-          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="13" t="inlineStr">
-        <is>
-          <t>V130</t>
-        </is>
-      </c>
-      <c r="B32" s="13" t="inlineStr">
-        <is>
-          <t>Sheet 2</t>
-        </is>
-      </c>
-      <c r="C32" s="13" t="inlineStr">
-        <is>
-          <t>1/2"</t>
-        </is>
-      </c>
-      <c r="D32" s="13" t="inlineStr">
-        <is>
-          <t>FNPT</t>
-        </is>
-      </c>
-      <c r="E32" s="13" t="inlineStr">
-        <is>
-          <t>2-Valve Manifold - PT</t>
-        </is>
-      </c>
-      <c r="F32" s="13" t="inlineStr">
-        <is>
-          <t>Stainless Steel</t>
-        </is>
-      </c>
-      <c r="G32" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H32" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I32" s="13" t="inlineStr">
-        <is>
-          <t>20-8"-P-5031-104-3CS11P-HP</t>
-        </is>
-      </c>
-      <c r="J32" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K32" s="13" t="inlineStr">
-        <is>
-          <t>Rosemount</t>
-        </is>
-      </c>
-      <c r="L32" s="13" t="n"/>
-      <c r="M32" s="13" t="inlineStr">
-        <is>
-          <t>Not Applicable</t>
-        </is>
-      </c>
-      <c r="N32" s="13" t="inlineStr">
-        <is>
-          <t>Teflon packing, metal seat</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="13" t="inlineStr">
-        <is>
-          <t>V131</t>
-        </is>
-      </c>
-      <c r="B33" s="13" t="inlineStr">
-        <is>
-          <t>Sheet 2</t>
-        </is>
-      </c>
-      <c r="C33" s="13" t="inlineStr">
-        <is>
-          <t>3/4" Class 800</t>
-        </is>
-      </c>
-      <c r="D33" s="13" t="inlineStr">
-        <is>
-          <t>SW x NPT</t>
-        </is>
-      </c>
-      <c r="E33" s="13" t="inlineStr">
-        <is>
-          <t>Gate</t>
-        </is>
-      </c>
-      <c r="F33" s="13" t="inlineStr">
-        <is>
-          <t>ASTM A105N</t>
-        </is>
-      </c>
-      <c r="G33" s="13" t="inlineStr">
-        <is>
-          <t>Trim # 8</t>
-        </is>
-      </c>
-      <c r="H33" s="13" t="inlineStr">
-        <is>
-          <t>Conventional</t>
-        </is>
-      </c>
-      <c r="I33" s="13" t="inlineStr">
-        <is>
-          <t>20-8"-P-5031-104-3CS11P-HP</t>
-        </is>
-      </c>
-      <c r="J33" s="13" t="inlineStr">
-        <is>
-          <t>3CS11</t>
-        </is>
-      </c>
-      <c r="K33" s="13" t="n"/>
-      <c r="L33" s="13" t="n"/>
-      <c r="M33" s="13" t="inlineStr">
-        <is>
-          <t>GASACH1F</t>
-        </is>
-      </c>
-      <c r="N33" s="13" t="inlineStr">
-        <is>
-          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="13" t="inlineStr">
-        <is>
-          <t>V132</t>
-        </is>
-      </c>
-      <c r="B34" s="13" t="inlineStr">
-        <is>
-          <t>Sheet 2</t>
-        </is>
-      </c>
-      <c r="C34" s="13" t="inlineStr">
-        <is>
-          <t>1/2"</t>
-        </is>
-      </c>
-      <c r="D34" s="13" t="inlineStr">
-        <is>
-          <t>FNPT</t>
-        </is>
-      </c>
-      <c r="E34" s="13" t="inlineStr">
-        <is>
-          <t>2-Valve Manifold - PT</t>
-        </is>
-      </c>
-      <c r="F34" s="13" t="inlineStr">
-        <is>
-          <t>Stainless Steel</t>
-        </is>
-      </c>
-      <c r="G34" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H34" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I34" s="13" t="inlineStr">
-        <is>
-          <t>20-8"-P-5031-104-3CS11P-HP</t>
-        </is>
-      </c>
-      <c r="J34" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K34" s="13" t="inlineStr">
-        <is>
-          <t>Rosemount</t>
-        </is>
-      </c>
-      <c r="L34" s="13" t="n"/>
-      <c r="M34" s="13" t="inlineStr">
-        <is>
-          <t>Not Applicable</t>
-        </is>
-      </c>
-      <c r="N34" s="13" t="inlineStr">
-        <is>
-          <t>Teflon packing, metal seat</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="13" t="inlineStr">
-        <is>
-          <t>V133</t>
-        </is>
-      </c>
-      <c r="B35" s="13" t="inlineStr">
-        <is>
-          <t>Sheet 3</t>
-        </is>
-      </c>
-      <c r="C35" s="13" t="inlineStr">
-        <is>
-          <t>3/4" Class 800</t>
-        </is>
-      </c>
-      <c r="D35" s="13" t="inlineStr">
-        <is>
-          <t>SW x NPT</t>
-        </is>
-      </c>
-      <c r="E35" s="13" t="inlineStr">
-        <is>
-          <t>Gate</t>
-        </is>
-      </c>
-      <c r="F35" s="13" t="inlineStr">
-        <is>
-          <t>ASTM A105N</t>
-        </is>
-      </c>
-      <c r="G35" s="13" t="inlineStr">
-        <is>
-          <t>Trim # 8</t>
-        </is>
-      </c>
-      <c r="H35" s="13" t="inlineStr">
-        <is>
-          <t>Conventional</t>
-        </is>
-      </c>
-      <c r="I35" s="13" t="inlineStr">
-        <is>
-          <t>20-V-5124 Bulk Oil Seperator</t>
-        </is>
-      </c>
-      <c r="J35" s="13" t="inlineStr">
-        <is>
-          <t>3CS11</t>
-        </is>
-      </c>
-      <c r="K35" s="13" t="n"/>
-      <c r="L35" s="13" t="n"/>
-      <c r="M35" s="13" t="inlineStr">
-        <is>
-          <t>GASACH1F</t>
-        </is>
-      </c>
-      <c r="N35" s="13" t="inlineStr">
-        <is>
-          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="13" t="inlineStr">
-        <is>
-          <t>V134</t>
-        </is>
-      </c>
-      <c r="B36" s="13" t="inlineStr">
-        <is>
-          <t>Sheet 3</t>
-        </is>
-      </c>
-      <c r="C36" s="13" t="inlineStr">
-        <is>
-          <t>3/4" Class 800</t>
-        </is>
-      </c>
-      <c r="D36" s="13" t="inlineStr">
-        <is>
-          <t>SW x NPT</t>
-        </is>
-      </c>
-      <c r="E36" s="13" t="inlineStr">
-        <is>
-          <t>Gate</t>
-        </is>
-      </c>
-      <c r="F36" s="13" t="inlineStr">
-        <is>
-          <t>ASTM A105N</t>
-        </is>
-      </c>
-      <c r="G36" s="13" t="inlineStr">
-        <is>
-          <t>Trim # 8</t>
-        </is>
-      </c>
-      <c r="H36" s="13" t="inlineStr">
-        <is>
-          <t>Conventional</t>
-        </is>
-      </c>
-      <c r="I36" s="13" t="inlineStr">
-        <is>
-          <t>20-V-5124 Bulk Oil Seperator</t>
-        </is>
-      </c>
-      <c r="J36" s="13" t="inlineStr">
-        <is>
-          <t>3CS11</t>
-        </is>
-      </c>
-      <c r="K36" s="13" t="n"/>
-      <c r="L36" s="13" t="n"/>
-      <c r="M36" s="13" t="inlineStr">
-        <is>
-          <t>GASACH1F</t>
-        </is>
-      </c>
-      <c r="N36" s="13" t="inlineStr">
-        <is>
-          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="13" t="inlineStr">
-        <is>
-          <t>V135</t>
-        </is>
-      </c>
-      <c r="B37" s="13" t="inlineStr">
-        <is>
-          <t>Sheet 3</t>
-        </is>
-      </c>
-      <c r="C37" s="13" t="inlineStr">
-        <is>
-          <t>1/2"</t>
-        </is>
-      </c>
-      <c r="D37" s="13" t="inlineStr">
-        <is>
-          <t>FNPT</t>
-        </is>
-      </c>
-      <c r="E37" s="13" t="inlineStr">
-        <is>
-          <t>3-Valve Manifold - PDT</t>
-        </is>
-      </c>
-      <c r="F37" s="13" t="inlineStr">
-        <is>
-          <t>Stainless Steel</t>
-        </is>
-      </c>
-      <c r="G37" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H37" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I37" s="13" t="inlineStr">
-        <is>
-          <t>20-V-5124 Bulk Oil Seperator</t>
-        </is>
-      </c>
-      <c r="J37" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K37" s="13" t="inlineStr">
-        <is>
-          <t>Rosemount</t>
-        </is>
-      </c>
-      <c r="L37" s="13" t="n"/>
-      <c r="M37" s="13" t="inlineStr">
-        <is>
-          <t>Not Applicable</t>
-        </is>
-      </c>
-      <c r="N37" s="13" t="inlineStr">
-        <is>
-          <t>Teflon packing, metal seat</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="13" t="inlineStr">
-        <is>
-          <t>V136</t>
-        </is>
-      </c>
-      <c r="B38" s="13" t="inlineStr">
-        <is>
-          <t>Sheet 4</t>
-        </is>
-      </c>
-      <c r="C38" s="13" t="inlineStr">
-        <is>
-          <t>3/4" Class 800</t>
-        </is>
-      </c>
-      <c r="D38" s="13" t="inlineStr">
-        <is>
-          <t>SW x NPT</t>
-        </is>
-      </c>
-      <c r="E38" s="13" t="inlineStr">
-        <is>
-          <t>Gate</t>
-        </is>
-      </c>
-      <c r="F38" s="13" t="inlineStr">
-        <is>
-          <t>ASTM A105N</t>
-        </is>
-      </c>
-      <c r="G38" s="13" t="inlineStr">
-        <is>
-          <t>Trim # 8</t>
-        </is>
-      </c>
-      <c r="H38" s="13" t="inlineStr">
-        <is>
-          <t>Conventional</t>
-        </is>
-      </c>
-      <c r="I38" s="13" t="inlineStr">
-        <is>
-          <t>20-8"-P-5033-106-3CS11P-HP</t>
-        </is>
-      </c>
-      <c r="J38" s="13" t="inlineStr">
-        <is>
-          <t>3CS11</t>
-        </is>
-      </c>
-      <c r="K38" s="13" t="n"/>
-      <c r="L38" s="13" t="n"/>
-      <c r="M38" s="13" t="inlineStr">
-        <is>
-          <t>GASACH1F</t>
-        </is>
-      </c>
-      <c r="N38" s="13" t="inlineStr">
-        <is>
-          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="13" t="inlineStr">
-        <is>
-          <t>V137</t>
-        </is>
-      </c>
-      <c r="B39" s="13" t="inlineStr">
-        <is>
-          <t>Sheet 4</t>
-        </is>
-      </c>
-      <c r="C39" s="13" t="inlineStr">
-        <is>
-          <t>3/4" Class 800</t>
-        </is>
-      </c>
-      <c r="D39" s="13" t="inlineStr">
-        <is>
-          <t>SW x NPT</t>
-        </is>
-      </c>
-      <c r="E39" s="13" t="inlineStr">
-        <is>
-          <t>Gate</t>
-        </is>
-      </c>
-      <c r="F39" s="13" t="inlineStr">
-        <is>
-          <t>ASTM A105N</t>
-        </is>
-      </c>
-      <c r="G39" s="13" t="inlineStr">
-        <is>
-          <t>Trim # 8</t>
-        </is>
-      </c>
-      <c r="H39" s="13" t="inlineStr">
-        <is>
-          <t>Conventional</t>
-        </is>
-      </c>
-      <c r="I39" s="13" t="inlineStr">
-        <is>
-          <t>20-8"-P-5033-107-3CS11P-HP</t>
-        </is>
-      </c>
-      <c r="J39" s="13" t="inlineStr">
-        <is>
-          <t>3CS11</t>
-        </is>
-      </c>
-      <c r="K39" s="13" t="n"/>
-      <c r="L39" s="13" t="n"/>
-      <c r="M39" s="13" t="inlineStr">
-        <is>
-          <t>GASACH1F</t>
-        </is>
-      </c>
-      <c r="N39" s="13" t="inlineStr">
-        <is>
-          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="13" t="inlineStr">
-        <is>
-          <t>V138</t>
-        </is>
-      </c>
-      <c r="B40" s="13" t="inlineStr">
-        <is>
-          <t>Sheet 4</t>
-        </is>
-      </c>
-      <c r="C40" s="13" t="inlineStr">
-        <is>
-          <t>1/2"</t>
-        </is>
-      </c>
-      <c r="D40" s="13" t="inlineStr">
-        <is>
-          <t>FNPT</t>
-        </is>
-      </c>
-      <c r="E40" s="13" t="inlineStr">
-        <is>
-          <t>3-Valve Manifold - PDT</t>
-        </is>
-      </c>
-      <c r="F40" s="13" t="inlineStr">
-        <is>
-          <t>Stainless Steel</t>
-        </is>
-      </c>
-      <c r="G40" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H40" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I40" s="13" t="inlineStr">
-        <is>
-          <t>Instrumentation / Tubing</t>
-        </is>
-      </c>
-      <c r="J40" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K40" s="13" t="inlineStr">
-        <is>
-          <t>Rosemount</t>
-        </is>
-      </c>
-      <c r="L40" s="13" t="n"/>
-      <c r="M40" s="13" t="inlineStr">
-        <is>
-          <t>Not Applicable</t>
-        </is>
-      </c>
-      <c r="N40" s="13" t="inlineStr">
-        <is>
-          <t>Teflon packing, metal seat</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="13" t="inlineStr">
-        <is>
-          <t>V139</t>
-        </is>
-      </c>
-      <c r="B41" s="13" t="inlineStr">
-        <is>
-          <t>Sheet 4</t>
-        </is>
-      </c>
-      <c r="C41" s="13" t="inlineStr">
-        <is>
-          <t>3/4" Class 800</t>
-        </is>
-      </c>
-      <c r="D41" s="13" t="inlineStr">
-        <is>
-          <t>SW x NPT</t>
-        </is>
-      </c>
-      <c r="E41" s="13" t="inlineStr">
-        <is>
-          <t>Gate</t>
-        </is>
-      </c>
-      <c r="F41" s="13" t="inlineStr">
-        <is>
-          <t>ASTM A105N</t>
-        </is>
-      </c>
-      <c r="G41" s="13" t="inlineStr">
-        <is>
-          <t>Trim # 8</t>
-        </is>
-      </c>
-      <c r="H41" s="13" t="inlineStr">
-        <is>
-          <t>Conventional</t>
-        </is>
-      </c>
-      <c r="I41" s="13" t="inlineStr">
-        <is>
-          <t>20-8"-P-5033-107-3CS11P-HP</t>
-        </is>
-      </c>
-      <c r="J41" s="13" t="inlineStr">
-        <is>
-          <t>3CS11</t>
-        </is>
-      </c>
-      <c r="K41" s="13" t="n"/>
-      <c r="L41" s="13" t="n"/>
-      <c r="M41" s="13" t="inlineStr">
-        <is>
-          <t>GASACH1F</t>
-        </is>
-      </c>
-      <c r="N41" s="13" t="inlineStr">
-        <is>
-          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="13" t="inlineStr">
-        <is>
-          <t>V140</t>
-        </is>
-      </c>
-      <c r="B42" s="13" t="inlineStr">
-        <is>
-          <t>Sheet 4</t>
-        </is>
-      </c>
-      <c r="C42" s="13" t="inlineStr">
-        <is>
-          <t>1/2"</t>
-        </is>
-      </c>
-      <c r="D42" s="13" t="inlineStr">
-        <is>
-          <t>FNPT</t>
-        </is>
-      </c>
-      <c r="E42" s="13" t="inlineStr">
-        <is>
-          <t>2-Valve Manifold - PG</t>
-        </is>
-      </c>
-      <c r="F42" s="13" t="inlineStr">
-        <is>
-          <t>Stainless Steel</t>
-        </is>
-      </c>
-      <c r="G42" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H42" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I42" s="13" t="inlineStr">
-        <is>
-          <t>Instrumentation / Tubing</t>
-        </is>
-      </c>
-      <c r="J42" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K42" s="13" t="inlineStr">
-        <is>
-          <t>AGCO</t>
-        </is>
-      </c>
-      <c r="L42" s="13" t="inlineStr">
-        <is>
-          <t>PTM-VIS-4 with V6-VIS-4</t>
-        </is>
-      </c>
-      <c r="M42" s="13" t="inlineStr">
-        <is>
-          <t>Not Applicable</t>
-        </is>
-      </c>
-      <c r="N42" s="13" t="inlineStr">
-        <is>
-          <t>Teflon packing, metal seat</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="13" t="inlineStr">
-        <is>
-          <t>V141</t>
-        </is>
-      </c>
-      <c r="B43" s="13" t="inlineStr">
-        <is>
-          <t>Sheet 4</t>
-        </is>
-      </c>
-      <c r="C43" s="13" t="inlineStr">
-        <is>
-          <t>8"-300#</t>
-        </is>
-      </c>
-      <c r="D43" s="13" t="inlineStr">
-        <is>
-          <t>RF Flange</t>
-        </is>
-      </c>
-      <c r="E43" s="13" t="inlineStr">
-        <is>
-          <t>Gate</t>
-        </is>
-      </c>
-      <c r="F43" s="13" t="inlineStr">
-        <is>
-          <t>ASTM A216 WCB</t>
-        </is>
-      </c>
-      <c r="G43" s="13" t="inlineStr">
-        <is>
-          <t>Trim # 8</t>
-        </is>
-      </c>
-      <c r="H43" s="13" t="inlineStr">
-        <is>
-          <t>Full Port</t>
-        </is>
-      </c>
-      <c r="I43" s="13" t="inlineStr">
-        <is>
-          <t>20-8"-P-5033-107-3CS11P-HP</t>
-        </is>
-      </c>
-      <c r="J43" s="13" t="inlineStr">
-        <is>
-          <t>3CS11</t>
-        </is>
-      </c>
-      <c r="K43" s="13" t="n"/>
-      <c r="L43" s="13" t="n"/>
-      <c r="M43" s="13" t="inlineStr">
-        <is>
-          <t>GABARH2F</t>
-        </is>
-      </c>
-      <c r="N43" s="13" t="inlineStr">
-        <is>
-          <t>Bolted Bonnet, Gear Operated, API 600, OS&amp;Y, Bevel Gear Operator, Flexible Graphite Packing, Flexible/Solid Wedge</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="13" t="inlineStr">
-        <is>
-          <t>V142</t>
-        </is>
-      </c>
-      <c r="B44" s="13" t="inlineStr">
-        <is>
-          <t>Sheet 4</t>
-        </is>
-      </c>
-      <c r="C44" s="13" t="inlineStr">
-        <is>
-          <t>3/4" Class 800</t>
-        </is>
-      </c>
-      <c r="D44" s="13" t="inlineStr">
-        <is>
-          <t>SW x NPT</t>
-        </is>
-      </c>
-      <c r="E44" s="13" t="inlineStr">
-        <is>
-          <t>Gate</t>
-        </is>
-      </c>
-      <c r="F44" s="13" t="inlineStr">
-        <is>
-          <t>ASTM A105N</t>
-        </is>
-      </c>
-      <c r="G44" s="13" t="inlineStr">
-        <is>
-          <t>Trim # 8</t>
-        </is>
-      </c>
-      <c r="H44" s="13" t="inlineStr">
-        <is>
-          <t>Conventional</t>
-        </is>
-      </c>
-      <c r="I44" s="13" t="inlineStr">
-        <is>
-          <t>20-8"-P-5033-107-3CS11P-HP</t>
-        </is>
-      </c>
-      <c r="J44" s="13" t="inlineStr">
-        <is>
-          <t>3CS11</t>
-        </is>
-      </c>
-      <c r="K44" s="13" t="n"/>
-      <c r="L44" s="13" t="n"/>
-      <c r="M44" s="13" t="inlineStr">
-        <is>
-          <t>GASACH1F</t>
-        </is>
-      </c>
-      <c r="N44" s="13" t="inlineStr">
-        <is>
-          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="13" t="inlineStr">
-        <is>
-          <t>V143</t>
-        </is>
-      </c>
-      <c r="B45" s="13" t="inlineStr">
-        <is>
-          <t>Sheet 4</t>
-        </is>
-      </c>
-      <c r="C45" s="13" t="inlineStr">
-        <is>
-          <t>3/4" Class 800</t>
-        </is>
-      </c>
-      <c r="D45" s="13" t="inlineStr">
-        <is>
-          <t>SW x NPT</t>
-        </is>
-      </c>
-      <c r="E45" s="13" t="inlineStr">
-        <is>
-          <t>Gate</t>
-        </is>
-      </c>
-      <c r="F45" s="13" t="inlineStr">
-        <is>
-          <t>ASTM A105N</t>
-        </is>
-      </c>
-      <c r="G45" s="13" t="inlineStr">
-        <is>
-          <t>Trim # 8</t>
-        </is>
-      </c>
-      <c r="H45" s="13" t="inlineStr">
-        <is>
-          <t>Conventional</t>
-        </is>
-      </c>
-      <c r="I45" s="13" t="inlineStr">
-        <is>
-          <t>20-8"-P-5033-107-3CS11P-HP</t>
-        </is>
-      </c>
-      <c r="J45" s="13" t="inlineStr">
-        <is>
-          <t>3CS11</t>
-        </is>
-      </c>
-      <c r="K45" s="13" t="n"/>
-      <c r="L45" s="13" t="n"/>
-      <c r="M45" s="13" t="inlineStr">
-        <is>
-          <t>GASACH1F</t>
-        </is>
-      </c>
-      <c r="N45" s="13" t="inlineStr">
-        <is>
-          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="13" t="inlineStr">
-        <is>
-          <t>V144</t>
-        </is>
-      </c>
-      <c r="B46" s="13" t="inlineStr">
-        <is>
-          <t>Sheet 4</t>
-        </is>
-      </c>
-      <c r="C46" s="13" t="inlineStr">
-        <is>
-          <t>3/4" Class 800</t>
-        </is>
-      </c>
-      <c r="D46" s="13" t="inlineStr">
-        <is>
-          <t>SW x NPT</t>
-        </is>
-      </c>
-      <c r="E46" s="13" t="inlineStr">
-        <is>
-          <t>Gate</t>
-        </is>
-      </c>
-      <c r="F46" s="13" t="inlineStr">
-        <is>
-          <t>ASTM A105N</t>
-        </is>
-      </c>
-      <c r="G46" s="13" t="inlineStr">
-        <is>
-          <t>Trim # 8</t>
-        </is>
-      </c>
-      <c r="H46" s="13" t="inlineStr">
-        <is>
-          <t>Conventional</t>
-        </is>
-      </c>
-      <c r="I46" s="13" t="inlineStr">
-        <is>
-          <t>20-8"-P-5033-107-3CS11P-HP</t>
-        </is>
-      </c>
-      <c r="J46" s="13" t="inlineStr">
-        <is>
-          <t>3CS11</t>
-        </is>
-      </c>
-      <c r="K46" s="13" t="n"/>
-      <c r="L46" s="13" t="n"/>
-      <c r="M46" s="13" t="inlineStr">
-        <is>
-          <t>GASACH1F</t>
-        </is>
-      </c>
-      <c r="N46" s="13" t="inlineStr">
-        <is>
-          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="13" t="inlineStr">
-        <is>
-          <t>V145</t>
-        </is>
-      </c>
-      <c r="B47" s="13" t="inlineStr">
-        <is>
-          <t>Sheet 4</t>
-        </is>
-      </c>
-      <c r="C47" s="13" t="inlineStr">
-        <is>
-          <t>8"-300#</t>
-        </is>
-      </c>
-      <c r="D47" s="13" t="inlineStr">
-        <is>
-          <t>RF Flange</t>
-        </is>
-      </c>
-      <c r="E47" s="13" t="inlineStr">
-        <is>
-          <t>Gate</t>
-        </is>
-      </c>
-      <c r="F47" s="13" t="inlineStr">
-        <is>
-          <t>ASTM A216 WCB</t>
-        </is>
-      </c>
-      <c r="G47" s="13" t="inlineStr">
-        <is>
-          <t>Trim # 8</t>
-        </is>
-      </c>
-      <c r="H47" s="13" t="inlineStr">
-        <is>
-          <t>Full Port</t>
-        </is>
-      </c>
-      <c r="I47" s="13" t="inlineStr">
-        <is>
-          <t>20-8"-P-5033-107-3CS11P-HP</t>
-        </is>
-      </c>
-      <c r="J47" s="13" t="inlineStr">
-        <is>
-          <t>3CS11</t>
-        </is>
-      </c>
-      <c r="K47" s="13" t="n"/>
-      <c r="L47" s="13" t="n"/>
-      <c r="M47" s="13" t="inlineStr">
-        <is>
-          <t>GABARH2F</t>
-        </is>
-      </c>
-      <c r="N47" s="13" t="inlineStr">
-        <is>
-          <t>Bolted Bonnet, Gear Operated, API 600, OS&amp;Y, Bevel Gear Operator, Flexible Graphite Packing, Flexible/Solid Wedge</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="13" t="inlineStr">
-        <is>
-          <t>V146</t>
-        </is>
-      </c>
-      <c r="B48" s="13" t="inlineStr">
-        <is>
-          <t>Sheet 4</t>
-        </is>
-      </c>
-      <c r="C48" s="13" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="13" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="13" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="13" t="inlineStr">
-        <is>
-          <t>20-8"-P-5033-107-3CS11P-HP</t>
-        </is>
-      </c>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
-      <c r="L48" s="13" t="n"/>
-      <c r="M48" s="13" t="n"/>
-      <c r="N48" s="13" t="n"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="13" t="inlineStr">
-        <is>
-          <t>CV147</t>
-        </is>
-      </c>
-      <c r="B49" s="13" t="inlineStr">
-        <is>
-          <t>Sheet 4</t>
-        </is>
-      </c>
-      <c r="C49" s="13" t="inlineStr">
-        <is>
-          <t>8"-300#</t>
-        </is>
-      </c>
-      <c r="D49" s="13" t="inlineStr">
-        <is>
-          <t>RF Flange</t>
-        </is>
-      </c>
-      <c r="E49" s="13" t="inlineStr">
-        <is>
-          <t>Swing Check</t>
-        </is>
-      </c>
-      <c r="F49" s="13" t="inlineStr">
-        <is>
-          <t>ASTM A216 WCB</t>
-        </is>
-      </c>
-      <c r="G49" s="13" t="inlineStr">
-        <is>
-          <t>Trim # 8</t>
-        </is>
-      </c>
-      <c r="H49" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I49" s="13" t="inlineStr">
-        <is>
-          <t>20-8"-P-5033-107-3CS11P-HP</t>
-        </is>
-      </c>
-      <c r="J49" s="13" t="inlineStr">
-        <is>
-          <t>3CS11</t>
-        </is>
-      </c>
-      <c r="K49" s="13" t="n"/>
-      <c r="L49" s="13" t="n"/>
-      <c r="M49" s="13" t="inlineStr">
-        <is>
-          <t>CSBARH1</t>
-        </is>
-      </c>
-      <c r="N49" s="13" t="inlineStr">
-        <is>
-          <t>Bolted Cover, API 594</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="13" t="inlineStr">
-        <is>
-          <t>V148</t>
-        </is>
-      </c>
-      <c r="B50" s="13" t="inlineStr">
-        <is>
-          <t>Sheet 4</t>
-        </is>
-      </c>
-      <c r="C50" s="13" t="inlineStr">
-        <is>
-          <t>3/4" Class 800</t>
-        </is>
-      </c>
-      <c r="D50" s="13" t="inlineStr">
-        <is>
-          <t>SW x NPT</t>
-        </is>
-      </c>
-      <c r="E50" s="13" t="inlineStr">
-        <is>
-          <t>Gate</t>
-        </is>
-      </c>
-      <c r="F50" s="13" t="inlineStr">
-        <is>
-          <t>ASTM A105N</t>
-        </is>
-      </c>
-      <c r="G50" s="13" t="inlineStr">
-        <is>
-          <t>Trim # 8</t>
-        </is>
-      </c>
-      <c r="H50" s="13" t="inlineStr">
-        <is>
-          <t>Conventional</t>
-        </is>
-      </c>
-      <c r="I50" s="13" t="inlineStr">
-        <is>
-          <t>20-8"-P-5033-107-3CS11P-HP</t>
-        </is>
-      </c>
-      <c r="J50" s="13" t="inlineStr">
-        <is>
-          <t>3CS11</t>
-        </is>
-      </c>
-      <c r="K50" s="13" t="n"/>
-      <c r="L50" s="13" t="n"/>
-      <c r="M50" s="13" t="inlineStr">
-        <is>
-          <t>GASACH1F</t>
-        </is>
-      </c>
-      <c r="N50" s="13" t="inlineStr">
-        <is>
-          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="13" t="inlineStr">
-        <is>
-          <t>V149</t>
-        </is>
-      </c>
-      <c r="B51" s="13" t="inlineStr">
-        <is>
-          <t>Sheet 6</t>
-        </is>
-      </c>
-      <c r="C51" s="13" t="inlineStr">
-        <is>
-          <t>8"-300#</t>
-        </is>
-      </c>
-      <c r="D51" s="13" t="inlineStr">
-        <is>
-          <t>RF Flange</t>
-        </is>
-      </c>
-      <c r="E51" s="13" t="inlineStr">
-        <is>
-          <t>Gate</t>
-        </is>
-      </c>
-      <c r="F51" s="13" t="inlineStr">
-        <is>
-          <t>ASTM A216 WCB</t>
-        </is>
-      </c>
-      <c r="G51" s="13" t="inlineStr">
-        <is>
-          <t>Trim # 8</t>
-        </is>
-      </c>
-      <c r="H51" s="13" t="inlineStr">
-        <is>
-          <t>Full Port</t>
-        </is>
-      </c>
-      <c r="I51" s="13" t="inlineStr">
-        <is>
-          <t>20-8"-P-5035-108-3CS11P-HP</t>
-        </is>
-      </c>
-      <c r="J51" s="13" t="inlineStr">
-        <is>
-          <t>3CS11</t>
-        </is>
-      </c>
-      <c r="K51" s="13" t="n"/>
-      <c r="L51" s="13" t="n"/>
-      <c r="M51" s="13" t="inlineStr">
-        <is>
-          <t>GABARH2F</t>
-        </is>
-      </c>
-      <c r="N51" s="13" t="inlineStr">
-        <is>
-          <t>Bolted Bonnet, Gear Operated, API 600, OS&amp;Y, Bevel Gear Operator, Flexible Graphite Packing, Flexible/Solid Wedge</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="13" t="inlineStr">
-        <is>
-          <t>V150</t>
-        </is>
-      </c>
-      <c r="B52" s="13" t="inlineStr">
-        <is>
-          <t>Sheet 6</t>
-        </is>
-      </c>
-      <c r="C52" s="13" t="inlineStr">
-        <is>
-          <t>3/4" Class 800</t>
-        </is>
-      </c>
-      <c r="D52" s="13" t="inlineStr">
-        <is>
-          <t>SW x NPT</t>
-        </is>
-      </c>
-      <c r="E52" s="13" t="inlineStr">
-        <is>
-          <t>Gate</t>
-        </is>
-      </c>
-      <c r="F52" s="13" t="inlineStr">
-        <is>
-          <t>ASTM A105N</t>
-        </is>
-      </c>
-      <c r="G52" s="13" t="inlineStr">
-        <is>
-          <t>Trim # 8</t>
-        </is>
-      </c>
-      <c r="H52" s="13" t="inlineStr">
-        <is>
-          <t>Conventional</t>
-        </is>
-      </c>
-      <c r="I52" s="13" t="inlineStr">
-        <is>
-          <t>20-8"-P-5035-108-3CS11P-HP</t>
-        </is>
-      </c>
-      <c r="J52" s="13" t="inlineStr">
-        <is>
-          <t>3CS11</t>
-        </is>
-      </c>
-      <c r="K52" s="13" t="n"/>
-      <c r="L52" s="13" t="n"/>
-      <c r="M52" s="13" t="inlineStr">
-        <is>
-          <t>GASACH1F</t>
-        </is>
-      </c>
-      <c r="N52" s="13" t="inlineStr">
-        <is>
-          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="13" t="inlineStr">
-        <is>
-          <t>V151</t>
-        </is>
-      </c>
-      <c r="B53" s="13" t="inlineStr">
-        <is>
-          <t>Sheet 6</t>
-        </is>
-      </c>
-      <c r="C53" s="13" t="inlineStr">
-        <is>
-          <t>3/4" Class 800</t>
-        </is>
-      </c>
-      <c r="D53" s="13" t="inlineStr">
-        <is>
-          <t>SW x NPT</t>
-        </is>
-      </c>
-      <c r="E53" s="13" t="inlineStr">
-        <is>
-          <t>Gate</t>
-        </is>
-      </c>
-      <c r="F53" s="13" t="inlineStr">
-        <is>
-          <t>ASTM A105N</t>
-        </is>
-      </c>
-      <c r="G53" s="13" t="inlineStr">
-        <is>
-          <t>Trim # 8</t>
-        </is>
-      </c>
-      <c r="H53" s="13" t="inlineStr">
-        <is>
-          <t>Conventional</t>
-        </is>
-      </c>
-      <c r="I53" s="13" t="inlineStr">
-        <is>
-          <t>20-8"-P-5035-108-3CS11P-HP</t>
-        </is>
-      </c>
-      <c r="J53" s="13" t="inlineStr">
-        <is>
-          <t>3CS11</t>
-        </is>
-      </c>
-      <c r="K53" s="13" t="n"/>
-      <c r="L53" s="13" t="n"/>
-      <c r="M53" s="13" t="inlineStr">
-        <is>
-          <t>GASACH1F</t>
-        </is>
-      </c>
-      <c r="N53" s="13" t="inlineStr">
-        <is>
-          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="13" t="inlineStr">
-        <is>
-          <t>V152</t>
-        </is>
-      </c>
-      <c r="B54" s="13" t="inlineStr">
-        <is>
-          <t>Sheet 6</t>
-        </is>
-      </c>
-      <c r="C54" s="13" t="inlineStr">
-        <is>
-          <t>1/2"</t>
-        </is>
-      </c>
-      <c r="D54" s="13" t="inlineStr">
-        <is>
-          <t>FNPT</t>
-        </is>
-      </c>
-      <c r="E54" s="13" t="inlineStr">
-        <is>
-          <t>2-Valve Manifold - PT</t>
-        </is>
-      </c>
-      <c r="F54" s="13" t="inlineStr">
-        <is>
-          <t>Stainless Steel</t>
-        </is>
-      </c>
-      <c r="G54" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H54" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I54" s="13" t="inlineStr">
-        <is>
-          <t>Instrumentation / Tubing</t>
-        </is>
-      </c>
-      <c r="J54" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K54" s="13" t="inlineStr">
-        <is>
-          <t>AGCO</t>
-        </is>
-      </c>
-      <c r="L54" s="13" t="inlineStr">
-        <is>
-          <t>PTM-VIS-4 with V6-VIS-4</t>
-        </is>
-      </c>
-      <c r="M54" s="13" t="inlineStr">
-        <is>
-          <t>Not Applicable</t>
-        </is>
-      </c>
-      <c r="N54" s="13" t="inlineStr">
-        <is>
-          <t>Teflon packing, metal seat</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="13" t="inlineStr">
-        <is>
-          <t>V153</t>
-        </is>
-      </c>
-      <c r="B55" s="13" t="inlineStr">
-        <is>
-          <t>Sheet 7</t>
-        </is>
-      </c>
-      <c r="C55" s="13" t="n"/>
-      <c r="D55" s="13" t="n"/>
-      <c r="E55" s="13" t="n"/>
-      <c r="F55" s="13" t="n"/>
-      <c r="G55" s="13" t="n"/>
-      <c r="H55" s="13" t="n"/>
-      <c r="I55" s="13" t="inlineStr">
-        <is>
-          <t>20-2"-P-5036-112-3CS11P-H-TE</t>
-        </is>
-      </c>
-      <c r="J55" s="13" t="n"/>
-      <c r="K55" s="13" t="n"/>
-      <c r="L55" s="13" t="n"/>
-      <c r="M55" s="13" t="n"/>
-      <c r="N55" s="13" t="n"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="13" t="inlineStr">
-        <is>
-          <t>V154</t>
-        </is>
-      </c>
-      <c r="B56" s="13" t="inlineStr">
-        <is>
-          <t>Sheet 7</t>
-        </is>
-      </c>
-      <c r="C56" s="13" t="n"/>
-      <c r="D56" s="13" t="n"/>
-      <c r="E56" s="13" t="n"/>
-      <c r="F56" s="13" t="n"/>
-      <c r="G56" s="13" t="n"/>
-      <c r="H56" s="13" t="n"/>
-      <c r="I56" s="13" t="inlineStr">
-        <is>
-          <t>20-2"-P-5036-112-3CS11P-H-TE</t>
-        </is>
-      </c>
-      <c r="J56" s="13" t="n"/>
-      <c r="K56" s="13" t="n"/>
-      <c r="L56" s="13" t="n"/>
-      <c r="M56" s="13" t="n"/>
-      <c r="N56" s="13" t="n"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="13" t="inlineStr">
-        <is>
-          <t>V155</t>
-        </is>
-      </c>
-      <c r="B57" s="13" t="inlineStr">
-        <is>
-          <t>Sheet 7</t>
-        </is>
-      </c>
-      <c r="C57" s="13" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="13" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="13" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="13" t="inlineStr">
-        <is>
-          <t>20-2"-P-5036-112-3CS11P-H-TE</t>
-        </is>
-      </c>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
-      <c r="L57" s="13" t="n"/>
-      <c r="M57" s="13" t="n"/>
-      <c r="N57" s="13" t="n"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="13" t="inlineStr">
-        <is>
-          <t>V156</t>
-        </is>
-      </c>
-      <c r="B58" s="13" t="inlineStr">
-        <is>
-          <t>Sheet 7</t>
-        </is>
-      </c>
-      <c r="C58" s="13" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="13" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="13" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="13" t="inlineStr">
-        <is>
-          <t>20-2"-P-5036-112-3CS11P-H-TE</t>
-        </is>
-      </c>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
-      <c r="L58" s="13" t="n"/>
-      <c r="M58" s="13" t="n"/>
-      <c r="N58" s="13" t="n"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="13" t="inlineStr">
-        <is>
-          <t>V157</t>
-        </is>
-      </c>
-      <c r="B59" s="13" t="inlineStr">
-        <is>
-          <t>Sheet 7</t>
-        </is>
-      </c>
-      <c r="C59" s="13" t="inlineStr">
-        <is>
-          <t>3/4" Class 800</t>
-        </is>
-      </c>
-      <c r="D59" s="13" t="inlineStr">
-        <is>
-          <t>SW x NPT</t>
-        </is>
-      </c>
-      <c r="E59" s="13" t="inlineStr">
-        <is>
-          <t>Gate</t>
-        </is>
-      </c>
-      <c r="F59" s="13" t="inlineStr">
-        <is>
-          <t>ASTM A105N</t>
-        </is>
-      </c>
-      <c r="G59" s="13" t="inlineStr">
-        <is>
-          <t>Trim # 8</t>
-        </is>
-      </c>
-      <c r="H59" s="13" t="inlineStr">
-        <is>
-          <t>Conventional</t>
-        </is>
-      </c>
-      <c r="I59" s="13" t="inlineStr">
-        <is>
-          <t>20-2"-P-5036-112-3CS11P-H-TE</t>
-        </is>
-      </c>
-      <c r="J59" s="13" t="inlineStr">
-        <is>
-          <t>3CS11</t>
-        </is>
-      </c>
-      <c r="K59" s="13" t="n"/>
-      <c r="L59" s="13" t="n"/>
-      <c r="M59" s="13" t="inlineStr">
-        <is>
-          <t>GASACH1F</t>
-        </is>
-      </c>
-      <c r="N59" s="13" t="inlineStr">
-        <is>
-          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="13" t="inlineStr">
-        <is>
-          <t>V158</t>
-        </is>
-      </c>
-      <c r="B60" s="13" t="inlineStr">
-        <is>
-          <t>Sheet 7</t>
-        </is>
-      </c>
-      <c r="C60" s="13" t="inlineStr">
-        <is>
-          <t>1/2"</t>
-        </is>
-      </c>
-      <c r="D60" s="13" t="inlineStr">
-        <is>
-          <t>FNPT</t>
-        </is>
-      </c>
-      <c r="E60" s="13" t="inlineStr">
-        <is>
-          <t>2-Valve Manifold - PT</t>
-        </is>
-      </c>
-      <c r="F60" s="13" t="inlineStr">
-        <is>
-          <t>Stainless Steel</t>
-        </is>
-      </c>
-      <c r="G60" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H60" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I60" s="13" t="inlineStr">
-        <is>
-          <t>20-2"-P-5036-112-3CS11P-H-TE</t>
-        </is>
-      </c>
-      <c r="J60" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K60" s="13" t="inlineStr">
-        <is>
-          <t>Rosemount</t>
-        </is>
-      </c>
-      <c r="L60" s="13" t="n"/>
-      <c r="M60" s="13" t="inlineStr">
-        <is>
-          <t>Not Applicable</t>
-        </is>
-      </c>
-      <c r="N60" s="13" t="inlineStr">
-        <is>
-          <t>Teflon packing, metal seat</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="13" t="inlineStr">
-        <is>
-          <t>V159</t>
-        </is>
-      </c>
-      <c r="B61" s="13" t="inlineStr">
-        <is>
-          <t>Sheet 7</t>
-        </is>
-      </c>
-      <c r="C61" s="13" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="13" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="13" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="13" t="inlineStr">
-        <is>
-          <t>20-2"-P-5036-112-3CS11P-H-TE</t>
-        </is>
-      </c>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
-      <c r="L61" s="13" t="n"/>
-      <c r="M61" s="13" t="n"/>
-      <c r="N61" s="13" t="n"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="13" t="inlineStr">
-        <is>
-          <t>V160</t>
-        </is>
-      </c>
-      <c r="B62" s="13" t="inlineStr">
-        <is>
-          <t>Sheet 7</t>
-        </is>
-      </c>
-      <c r="C62" s="13" t="inlineStr">
-        <is>
-          <t>3/4" Class 800</t>
-        </is>
-      </c>
-      <c r="D62" s="13" t="inlineStr">
-        <is>
-          <t>SW x NPT</t>
-        </is>
-      </c>
-      <c r="E62" s="13" t="inlineStr">
-        <is>
-          <t>Gate</t>
-        </is>
-      </c>
-      <c r="F62" s="13" t="inlineStr">
-        <is>
-          <t>ASTM A105N</t>
-        </is>
-      </c>
-      <c r="G62" s="13" t="inlineStr">
-        <is>
-          <t>Trim # 8</t>
-        </is>
-      </c>
-      <c r="H62" s="13" t="inlineStr">
-        <is>
-          <t>Conventional</t>
-        </is>
-      </c>
-      <c r="I62" s="13" t="inlineStr">
-        <is>
-          <t>20-2"-P-5036-112-3CS11P-H-TE</t>
-        </is>
-      </c>
-      <c r="J62" s="13" t="inlineStr">
-        <is>
-          <t>3CS11</t>
-        </is>
-      </c>
-      <c r="K62" s="13" t="n"/>
-      <c r="L62" s="13" t="n"/>
-      <c r="M62" s="13" t="inlineStr">
-        <is>
-          <t>GASACH1F</t>
-        </is>
-      </c>
-      <c r="N62" s="13" t="inlineStr">
-        <is>
-          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="13" t="inlineStr">
-        <is>
-          <t>V161</t>
-        </is>
-      </c>
-      <c r="B63" s="13" t="inlineStr">
-        <is>
-          <t>Sheet 7</t>
-        </is>
-      </c>
-      <c r="C63" s="13" t="inlineStr">
-        <is>
-          <t>3/4" Class 800</t>
-        </is>
-      </c>
-      <c r="D63" s="13" t="inlineStr">
-        <is>
-          <t>SW x NPT</t>
-        </is>
-      </c>
-      <c r="E63" s="13" t="inlineStr">
-        <is>
-          <t>Gate</t>
-        </is>
-      </c>
-      <c r="F63" s="13" t="inlineStr">
-        <is>
-          <t>ASTM A105N</t>
-        </is>
-      </c>
-      <c r="G63" s="13" t="inlineStr">
-        <is>
-          <t>Trim # 8</t>
-        </is>
-      </c>
-      <c r="H63" s="13" t="inlineStr">
-        <is>
-          <t>Conventional</t>
-        </is>
-      </c>
-      <c r="I63" s="13" t="inlineStr">
-        <is>
-          <t>20-2"-P-5036-113-3CS11P</t>
-        </is>
-      </c>
-      <c r="J63" s="13" t="inlineStr">
-        <is>
-          <t>3CS11</t>
-        </is>
-      </c>
-      <c r="K63" s="13" t="n"/>
-      <c r="L63" s="13" t="n"/>
-      <c r="M63" s="13" t="inlineStr">
-        <is>
-          <t>GASACH1F</t>
-        </is>
-      </c>
-      <c r="N63" s="13" t="inlineStr">
-        <is>
-          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="13" t="inlineStr">
-        <is>
-          <t>V162</t>
-        </is>
-      </c>
-      <c r="B64" s="13" t="inlineStr">
-        <is>
-          <t>Sheet 7</t>
-        </is>
-      </c>
-      <c r="C64" s="13" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="13" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="13" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="13" t="inlineStr">
-        <is>
-          <t>20-2"-P-5036-113-3CS11P</t>
-        </is>
-      </c>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
-      <c r="L64" s="13" t="n"/>
-      <c r="M64" s="13" t="n"/>
-      <c r="N64" s="13" t="n"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="13" t="inlineStr">
-        <is>
-          <t>V163</t>
-        </is>
-      </c>
-      <c r="B65" s="13" t="inlineStr">
-        <is>
-          <t>Sheet 7</t>
-        </is>
-      </c>
-      <c r="C65" s="13" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="13" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="13" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="13" t="inlineStr">
-        <is>
-          <t>20-2"-P-5036-112-3CS11P-H-TE</t>
-        </is>
-      </c>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
-      <c r="L65" s="13" t="n"/>
-      <c r="M65" s="13" t="n"/>
-      <c r="N65" s="13" t="n"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="13" t="inlineStr">
-        <is>
-          <t>V164</t>
-        </is>
-      </c>
-      <c r="B66" s="13" t="inlineStr">
-        <is>
-          <t>Sheet 9</t>
-        </is>
-      </c>
-      <c r="C66" s="13" t="inlineStr">
-        <is>
-          <t>3/4" Class 800</t>
-        </is>
-      </c>
-      <c r="D66" s="13" t="inlineStr">
-        <is>
-          <t>SW x NPT</t>
-        </is>
-      </c>
-      <c r="E66" s="13" t="inlineStr">
-        <is>
-          <t>Gate</t>
-        </is>
-      </c>
-      <c r="F66" s="13" t="inlineStr">
-        <is>
-          <t>ASTM A105N</t>
-        </is>
-      </c>
-      <c r="G66" s="13" t="inlineStr">
-        <is>
-          <t>Trim # 8</t>
-        </is>
-      </c>
-      <c r="H66" s="13" t="inlineStr">
-        <is>
-          <t>Conventional</t>
-        </is>
-      </c>
-      <c r="I66" s="13" t="inlineStr">
-        <is>
-          <t>20-6"-P-5038-114-3CS11P-H-TE</t>
-        </is>
-      </c>
-      <c r="J66" s="13" t="inlineStr">
-        <is>
-          <t>3CS11</t>
-        </is>
-      </c>
-      <c r="K66" s="13" t="n"/>
-      <c r="L66" s="13" t="n"/>
-      <c r="M66" s="13" t="inlineStr">
-        <is>
-          <t>GASACH1F</t>
-        </is>
-      </c>
-      <c r="N66" s="13" t="inlineStr">
-        <is>
-          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="13" t="inlineStr">
-        <is>
-          <t>V165</t>
-        </is>
-      </c>
-      <c r="B67" s="13" t="inlineStr">
-        <is>
-          <t>Sheet 9</t>
-        </is>
-      </c>
-      <c r="C67" s="13" t="inlineStr">
-        <is>
-          <t>1/2"</t>
-        </is>
-      </c>
-      <c r="D67" s="13" t="inlineStr">
-        <is>
-          <t>FNPT</t>
-        </is>
-      </c>
-      <c r="E67" s="13" t="inlineStr">
-        <is>
-          <t>2-Valve Manifold - PG</t>
-        </is>
-      </c>
-      <c r="F67" s="13" t="inlineStr">
-        <is>
-          <t>Stainless Steel</t>
-        </is>
-      </c>
-      <c r="G67" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H67" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I67" s="13" t="inlineStr">
-        <is>
-          <t>Instrumentation / Tubing</t>
-        </is>
-      </c>
-      <c r="J67" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K67" s="13" t="inlineStr">
-        <is>
-          <t>AGCO</t>
-        </is>
-      </c>
-      <c r="L67" s="13" t="inlineStr">
-        <is>
-          <t>PTM-VIS-4 with V6-VIS-4</t>
-        </is>
-      </c>
-      <c r="M67" s="13" t="inlineStr">
-        <is>
-          <t>Not Applicable</t>
-        </is>
-      </c>
-      <c r="N67" s="13" t="inlineStr">
-        <is>
-          <t>Teflon packing, metal seat</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="13" t="inlineStr">
-        <is>
-          <t>V166</t>
-        </is>
-      </c>
-      <c r="B68" s="13" t="inlineStr">
-        <is>
-          <t>Sheet 9</t>
-        </is>
-      </c>
-      <c r="C68" s="13" t="inlineStr">
-        <is>
-          <t>3/4" Class 800</t>
-        </is>
-      </c>
-      <c r="D68" s="13" t="inlineStr">
-        <is>
-          <t>SW x NPT</t>
-        </is>
-      </c>
-      <c r="E68" s="13" t="inlineStr">
-        <is>
-          <t>Gate</t>
-        </is>
-      </c>
-      <c r="F68" s="13" t="inlineStr">
-        <is>
-          <t>ASTM A105N</t>
-        </is>
-      </c>
-      <c r="G68" s="13" t="inlineStr">
-        <is>
-          <t>Trim # 8</t>
-        </is>
-      </c>
-      <c r="H68" s="13" t="inlineStr">
-        <is>
-          <t>Conventional</t>
-        </is>
-      </c>
-      <c r="I68" s="13" t="inlineStr">
-        <is>
-          <t>20-6"-P-5038-114-3CS11P-H-TE</t>
-        </is>
-      </c>
-      <c r="J68" s="13" t="inlineStr">
-        <is>
-          <t>3CS11</t>
-        </is>
-      </c>
-      <c r="K68" s="13" t="n"/>
-      <c r="L68" s="13" t="n"/>
-      <c r="M68" s="13" t="inlineStr">
-        <is>
-          <t>GASACH1F</t>
-        </is>
-      </c>
-      <c r="N68" s="13" t="inlineStr">
-        <is>
-          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="13" t="inlineStr">
-        <is>
-          <t>V167</t>
-        </is>
-      </c>
-      <c r="B69" s="13" t="inlineStr">
-        <is>
-          <t>Sheet 9</t>
-        </is>
-      </c>
-      <c r="C69" s="13" t="inlineStr">
-        <is>
-          <t>1/2"</t>
-        </is>
-      </c>
-      <c r="D69" s="13" t="inlineStr">
-        <is>
-          <t>FNPT</t>
-        </is>
-      </c>
-      <c r="E69" s="13" t="inlineStr">
-        <is>
-          <t>2-Valve Manifold - PT</t>
-        </is>
-      </c>
-      <c r="F69" s="13" t="inlineStr">
-        <is>
-          <t>Stainless Steel</t>
-        </is>
-      </c>
-      <c r="G69" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H69" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I69" s="13" t="inlineStr">
-        <is>
-          <t>Instrumentation / Tubing</t>
-        </is>
-      </c>
-      <c r="J69" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K69" s="13" t="inlineStr">
-        <is>
-          <t>AGCO</t>
-        </is>
-      </c>
-      <c r="L69" s="13" t="inlineStr">
-        <is>
-          <t>PTM-VIS-4 with V6-VIS-4</t>
-        </is>
-      </c>
-      <c r="M69" s="13" t="inlineStr">
-        <is>
-          <t>Not Applicable</t>
-        </is>
-      </c>
-      <c r="N69" s="13" t="inlineStr">
-        <is>
-          <t>Teflon packing, metal seat</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="13" t="inlineStr">
-        <is>
-          <t>V168</t>
-        </is>
-      </c>
-      <c r="B70" s="13" t="inlineStr">
-        <is>
-          <t>Sheet 9</t>
-        </is>
-      </c>
-      <c r="C70" s="13" t="inlineStr">
-        <is>
-          <t>3/4" Class 800</t>
-        </is>
-      </c>
-      <c r="D70" s="13" t="inlineStr">
-        <is>
-          <t>SW x NPT</t>
-        </is>
-      </c>
-      <c r="E70" s="13" t="inlineStr">
-        <is>
-          <t>Gate</t>
-        </is>
-      </c>
-      <c r="F70" s="13" t="inlineStr">
-        <is>
-          <t>ASTM A105N</t>
-        </is>
-      </c>
-      <c r="G70" s="13" t="inlineStr">
-        <is>
-          <t>Trim # 8</t>
-        </is>
-      </c>
-      <c r="H70" s="13" t="inlineStr">
-        <is>
-          <t>Conventional</t>
-        </is>
-      </c>
-      <c r="I70" s="13" t="inlineStr">
-        <is>
-          <t>20-6"-P-5038-114-3CS11P-H-TE</t>
-        </is>
-      </c>
-      <c r="J70" s="13" t="inlineStr">
-        <is>
-          <t>3CS11</t>
-        </is>
-      </c>
-      <c r="K70" s="13" t="n"/>
-      <c r="L70" s="13" t="n"/>
-      <c r="M70" s="13" t="inlineStr">
-        <is>
-          <t>GASACH1F</t>
-        </is>
-      </c>
-      <c r="N70" s="13" t="inlineStr">
-        <is>
-          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="13" t="inlineStr">
-        <is>
-          <t>V169</t>
-        </is>
-      </c>
-      <c r="B71" s="13" t="inlineStr">
-        <is>
-          <t>Sheet 9</t>
-        </is>
-      </c>
-      <c r="C71" s="13" t="inlineStr">
-        <is>
-          <t>6"-300#</t>
-        </is>
-      </c>
-      <c r="D71" s="13" t="inlineStr">
-        <is>
-          <t>RF Flange</t>
-        </is>
-      </c>
-      <c r="E71" s="13" t="inlineStr">
-        <is>
-          <t>Gate</t>
-        </is>
-      </c>
-      <c r="F71" s="13" t="inlineStr">
-        <is>
-          <t>ASTM A216 WCB</t>
-        </is>
-      </c>
-      <c r="G71" s="13" t="inlineStr">
-        <is>
-          <t>Trim # 8</t>
-        </is>
-      </c>
-      <c r="H71" s="13" t="inlineStr">
-        <is>
-          <t>Full Port</t>
-        </is>
-      </c>
-      <c r="I71" s="13" t="inlineStr">
-        <is>
-          <t>20-6"-P-5038-114-3CS11P-H-TE</t>
-        </is>
-      </c>
-      <c r="J71" s="13" t="inlineStr">
-        <is>
-          <t>3CS11</t>
-        </is>
-      </c>
-      <c r="K71" s="13" t="n"/>
-      <c r="L71" s="13" t="n"/>
-      <c r="M71" s="13" t="inlineStr">
-        <is>
-          <t>GABARH1F</t>
-        </is>
-      </c>
-      <c r="N71" s="13" t="inlineStr">
-        <is>
-          <t>Bolted Bonnet, API 600, OS&amp;Y, Flexible Graphite Packing, Flexible/Solid Wedge</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="13" t="inlineStr">
-        <is>
-          <t>CV170</t>
-        </is>
-      </c>
-      <c r="B72" s="13" t="inlineStr">
-        <is>
-          <t>Sheet 9</t>
-        </is>
-      </c>
-      <c r="C72" s="13" t="inlineStr">
-        <is>
-          <t>2"-300#</t>
-        </is>
-      </c>
-      <c r="D72" s="13" t="inlineStr">
-        <is>
-          <t>RF Flange</t>
-        </is>
-      </c>
-      <c r="E72" s="13" t="inlineStr">
-        <is>
-          <t>Swing Check</t>
-        </is>
-      </c>
-      <c r="F72" s="13" t="inlineStr">
-        <is>
-          <t>ASTM A216 WCB</t>
-        </is>
-      </c>
-      <c r="G72" s="13" t="inlineStr">
-        <is>
-          <t>Trim # 8</t>
-        </is>
-      </c>
-      <c r="H72" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I72" s="13" t="inlineStr">
-        <is>
-          <t>20-2"-P-5038-113-3CS11P</t>
-        </is>
-      </c>
-      <c r="J72" s="13" t="inlineStr">
-        <is>
-          <t>3CS11</t>
-        </is>
-      </c>
-      <c r="K72" s="13" t="n"/>
-      <c r="L72" s="13" t="n"/>
-      <c r="M72" s="13" t="inlineStr">
-        <is>
-          <t>CSBARH1</t>
-        </is>
-      </c>
-      <c r="N72" s="13" t="inlineStr">
-        <is>
-          <t>Bolted Cover, API 594</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="13" t="inlineStr">
-        <is>
-          <t>V200</t>
-        </is>
-      </c>
-      <c r="B73" s="13" t="inlineStr">
-        <is>
-          <t>Sheet 9</t>
-        </is>
-      </c>
-      <c r="C73" s="13" t="inlineStr">
-        <is>
-          <t>3/4" Class 800</t>
-        </is>
-      </c>
-      <c r="D73" s="13" t="inlineStr">
-        <is>
-          <t>SW x NPT</t>
-        </is>
-      </c>
-      <c r="E73" s="13" t="inlineStr">
-        <is>
-          <t>Gate</t>
-        </is>
-      </c>
-      <c r="F73" s="13" t="inlineStr">
-        <is>
-          <t>ASTM A105N</t>
-        </is>
-      </c>
-      <c r="G73" s="13" t="inlineStr">
-        <is>
-          <t>Trim # 8</t>
-        </is>
-      </c>
-      <c r="H73" s="13" t="inlineStr">
-        <is>
-          <t>Conventional</t>
-        </is>
-      </c>
-      <c r="I73" s="13" t="inlineStr">
-        <is>
-          <t>20-6"-P-5038-200-3CS11P-H</t>
-        </is>
-      </c>
-      <c r="J73" s="13" t="inlineStr">
-        <is>
-          <t>3CS11</t>
-        </is>
-      </c>
-      <c r="K73" s="13" t="n"/>
-      <c r="L73" s="13" t="n"/>
-      <c r="M73" s="13" t="inlineStr">
-        <is>
-          <t>GASACH1F</t>
-        </is>
-      </c>
-      <c r="N73" s="13" t="inlineStr">
-        <is>
-          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="13" t="inlineStr">
-        <is>
-          <t>V201</t>
-        </is>
-      </c>
-      <c r="B74" s="13" t="inlineStr">
-        <is>
-          <t>Sheet 9</t>
-        </is>
-      </c>
-      <c r="C74" s="13" t="inlineStr">
-        <is>
-          <t>1/2"</t>
-        </is>
-      </c>
-      <c r="D74" s="13" t="inlineStr">
-        <is>
-          <t>FNPT</t>
-        </is>
-      </c>
-      <c r="E74" s="13" t="inlineStr">
-        <is>
-          <t>2-Valve Manifold - PG</t>
-        </is>
-      </c>
-      <c r="F74" s="13" t="inlineStr">
-        <is>
-          <t>Stainless Steel</t>
-        </is>
-      </c>
-      <c r="G74" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H74" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I74" s="13" t="inlineStr">
-        <is>
-          <t>20-6"-P-5038-200-3CS11P-H</t>
-        </is>
-      </c>
-      <c r="J74" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K74" s="13" t="inlineStr">
-        <is>
-          <t>AGCO</t>
-        </is>
-      </c>
-      <c r="L74" s="13" t="inlineStr">
-        <is>
-          <t>PTM-VIS-4 with V6-VIS-4</t>
-        </is>
-      </c>
-      <c r="M74" s="13" t="inlineStr">
-        <is>
-          <t>Not Applicable</t>
-        </is>
-      </c>
-      <c r="N74" s="13" t="inlineStr">
-        <is>
-          <t>Teflon packing, metal seat</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="13" t="inlineStr">
-        <is>
-          <t>V202</t>
-        </is>
-      </c>
-      <c r="B75" s="13" t="inlineStr">
-        <is>
-          <t>Sheet 9</t>
-        </is>
-      </c>
-      <c r="C75" s="13" t="inlineStr">
-        <is>
-          <t>3/4" Class 800</t>
-        </is>
-      </c>
-      <c r="D75" s="13" t="inlineStr">
-        <is>
-          <t>SW x NPT</t>
-        </is>
-      </c>
-      <c r="E75" s="13" t="inlineStr">
-        <is>
-          <t>Gate</t>
-        </is>
-      </c>
-      <c r="F75" s="13" t="inlineStr">
-        <is>
-          <t>ASTM A105N</t>
-        </is>
-      </c>
-      <c r="G75" s="13" t="inlineStr">
-        <is>
-          <t>Trim # 8</t>
-        </is>
-      </c>
-      <c r="H75" s="13" t="inlineStr">
-        <is>
-          <t>Conventional</t>
-        </is>
-      </c>
-      <c r="I75" s="13" t="inlineStr">
-        <is>
-          <t>20-6"-P-5038-200-3CS11P-H</t>
-        </is>
-      </c>
-      <c r="J75" s="13" t="inlineStr">
-        <is>
-          <t>3CS11</t>
-        </is>
-      </c>
-      <c r="K75" s="13" t="n"/>
-      <c r="L75" s="13" t="n"/>
-      <c r="M75" s="13" t="inlineStr">
-        <is>
-          <t>GASACH1F</t>
-        </is>
-      </c>
-      <c r="N75" s="13" t="inlineStr">
-        <is>
-          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="13" t="inlineStr">
-        <is>
-          <t>V203</t>
-        </is>
-      </c>
-      <c r="B76" s="13" t="inlineStr">
-        <is>
-          <t>Sheet 9</t>
-        </is>
-      </c>
-      <c r="C76" s="13" t="inlineStr">
-        <is>
-          <t>1/2" Class 800</t>
-        </is>
-      </c>
-      <c r="D76" s="13" t="inlineStr">
-        <is>
-          <t>SW x NPT</t>
-        </is>
-      </c>
-      <c r="E76" s="13" t="inlineStr">
-        <is>
-          <t>Gate</t>
-        </is>
-      </c>
-      <c r="F76" s="13" t="inlineStr">
-        <is>
-          <t>ASTM A105N</t>
-        </is>
-      </c>
-      <c r="G76" s="13" t="inlineStr">
-        <is>
-          <t>Trim # 8</t>
-        </is>
-      </c>
-      <c r="H76" s="13" t="inlineStr">
-        <is>
-          <t>Conventional</t>
-        </is>
-      </c>
-      <c r="I76" s="13" t="inlineStr">
-        <is>
-          <t>20-6"-P-5038-200-3CS11P-H</t>
-        </is>
-      </c>
-      <c r="J76" s="13" t="inlineStr">
-        <is>
-          <t>3CS11</t>
-        </is>
-      </c>
-      <c r="K76" s="13" t="n"/>
-      <c r="L76" s="13" t="n"/>
-      <c r="M76" s="13" t="inlineStr">
-        <is>
-          <t>GASACH1F</t>
-        </is>
-      </c>
-      <c r="N76" s="13" t="inlineStr">
-        <is>
-          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="13" t="inlineStr">
-        <is>
-          <t>V204</t>
-        </is>
-      </c>
-      <c r="B77" s="13" t="inlineStr">
-        <is>
-          <t>Sheet 9</t>
-        </is>
-      </c>
-      <c r="C77" s="13" t="inlineStr">
-        <is>
-          <t>1/2" Class 800</t>
-        </is>
-      </c>
-      <c r="D77" s="13" t="inlineStr">
-        <is>
-          <t>SW x NPT</t>
-        </is>
-      </c>
-      <c r="E77" s="13" t="inlineStr">
-        <is>
-          <t>Gate</t>
-        </is>
-      </c>
-      <c r="F77" s="13" t="inlineStr">
-        <is>
-          <t>ASTM A105N</t>
-        </is>
-      </c>
-      <c r="G77" s="13" t="inlineStr">
-        <is>
-          <t>Trim # 8</t>
-        </is>
-      </c>
-      <c r="H77" s="13" t="inlineStr">
-        <is>
-          <t>Conventional</t>
-        </is>
-      </c>
-      <c r="I77" s="13" t="inlineStr">
-        <is>
-          <t>20-6"-P-5038-200-3CS11P-H</t>
-        </is>
-      </c>
-      <c r="J77" s="13" t="inlineStr">
-        <is>
-          <t>3CS11</t>
-        </is>
-      </c>
-      <c r="K77" s="13" t="n"/>
-      <c r="L77" s="13" t="n"/>
-      <c r="M77" s="13" t="inlineStr">
-        <is>
-          <t>GASACH1F</t>
-        </is>
-      </c>
-      <c r="N77" s="13" t="inlineStr">
-        <is>
-          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="13" t="inlineStr">
-        <is>
-          <t>V205</t>
-        </is>
-      </c>
-      <c r="B78" s="13" t="inlineStr">
-        <is>
-          <t>Sheet 9</t>
-        </is>
-      </c>
-      <c r="C78" s="13" t="inlineStr">
-        <is>
-          <t>1/2"</t>
-        </is>
-      </c>
-      <c r="D78" s="13" t="inlineStr">
-        <is>
-          <t>FNPT</t>
-        </is>
-      </c>
-      <c r="E78" s="13" t="inlineStr">
-        <is>
-          <t>3-Valve Manifold - FT</t>
-        </is>
-      </c>
-      <c r="F78" s="13" t="inlineStr">
-        <is>
-          <t>Stainless Steel</t>
-        </is>
-      </c>
-      <c r="G78" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H78" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I78" s="13" t="inlineStr">
-        <is>
-          <t>Instrumentation / Tubing</t>
-        </is>
-      </c>
-      <c r="J78" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K78" s="13" t="inlineStr">
-        <is>
-          <t>Rosemount</t>
-        </is>
-      </c>
-      <c r="L78" s="13" t="n"/>
-      <c r="M78" s="13" t="inlineStr">
-        <is>
-          <t>Not Applicable</t>
-        </is>
-      </c>
-      <c r="N78" s="13" t="inlineStr">
-        <is>
-          <t>Teflon packing, metal seat</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="13" t="inlineStr">
-        <is>
-          <t>V206</t>
-        </is>
-      </c>
-      <c r="B79" s="13" t="inlineStr">
-        <is>
-          <t>Sheet 9</t>
-        </is>
-      </c>
-      <c r="C79" s="13" t="n"/>
-      <c r="D79" s="13" t="n"/>
-      <c r="E79" s="13" t="n"/>
-      <c r="F79" s="13" t="n"/>
-      <c r="G79" s="13" t="n"/>
-      <c r="H79" s="13" t="n"/>
-      <c r="I79" s="13" t="inlineStr">
-        <is>
-          <t>20-6"-P-5038-200-3CS11P-H</t>
-        </is>
-      </c>
-      <c r="J79" s="13" t="n"/>
-      <c r="K79" s="13" t="n"/>
-      <c r="L79" s="13" t="n"/>
-      <c r="M79" s="13" t="n"/>
-      <c r="N79" s="13" t="n"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="13" t="inlineStr">
-        <is>
-          <t>V207</t>
-        </is>
-      </c>
-      <c r="B80" s="13" t="inlineStr">
-        <is>
-          <t>Sheet 9</t>
-        </is>
-      </c>
-      <c r="C80" s="13" t="inlineStr">
-        <is>
-          <t>3/4" Class 800</t>
-        </is>
-      </c>
-      <c r="D80" s="13" t="inlineStr">
-        <is>
-          <t>SW x NPT</t>
-        </is>
-      </c>
-      <c r="E80" s="13" t="inlineStr">
-        <is>
-          <t>Gate</t>
-        </is>
-      </c>
-      <c r="F80" s="13" t="inlineStr">
-        <is>
-          <t>ASTM A105N</t>
-        </is>
-      </c>
-      <c r="G80" s="13" t="inlineStr">
-        <is>
-          <t>Trim # 8</t>
-        </is>
-      </c>
-      <c r="H80" s="13" t="inlineStr">
-        <is>
-          <t>Conventional</t>
-        </is>
-      </c>
-      <c r="I80" s="13" t="inlineStr">
-        <is>
-          <t>20-4"-P-5038-201-3CS11P-H</t>
-        </is>
-      </c>
-      <c r="J80" s="13" t="inlineStr">
-        <is>
-          <t>3CS11</t>
-        </is>
-      </c>
-      <c r="K80" s="13" t="n"/>
-      <c r="L80" s="13" t="n"/>
-      <c r="M80" s="13" t="inlineStr">
-        <is>
-          <t>GASACH1F</t>
-        </is>
-      </c>
-      <c r="N80" s="13" t="inlineStr">
-        <is>
-          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="13" t="inlineStr">
-        <is>
-          <t>V208</t>
-        </is>
-      </c>
-      <c r="B81" s="13" t="inlineStr">
-        <is>
-          <t>Sheet 9</t>
-        </is>
-      </c>
-      <c r="C81" s="13" t="inlineStr">
-        <is>
-          <t>1/2"</t>
-        </is>
-      </c>
-      <c r="D81" s="13" t="inlineStr">
-        <is>
-          <t>FNPT</t>
-        </is>
-      </c>
-      <c r="E81" s="13" t="inlineStr">
-        <is>
-          <t>2-Valve Manifold - PG</t>
-        </is>
-      </c>
-      <c r="F81" s="13" t="inlineStr">
-        <is>
-          <t>Stainless Steel</t>
-        </is>
-      </c>
-      <c r="G81" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H81" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I81" s="13" t="inlineStr">
-        <is>
-          <t>Instrumentation / Tubing</t>
-        </is>
-      </c>
-      <c r="J81" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K81" s="13" t="inlineStr">
-        <is>
-          <t>AGCO</t>
-        </is>
-      </c>
-      <c r="L81" s="13" t="inlineStr">
-        <is>
-          <t>PTM-VIS-4 with V6-VIS-4</t>
-        </is>
-      </c>
-      <c r="M81" s="13" t="inlineStr">
-        <is>
-          <t>Not Applicable</t>
-        </is>
-      </c>
-      <c r="N81" s="13" t="inlineStr">
-        <is>
-          <t>Teflon packing, metal seat</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="13" t="inlineStr">
-        <is>
-          <t>V209</t>
-        </is>
-      </c>
-      <c r="B82" s="13" t="inlineStr">
-        <is>
-          <t>Sheet 9</t>
-        </is>
-      </c>
-      <c r="C82" s="13" t="inlineStr">
-        <is>
-          <t>3/4" Class 800</t>
-        </is>
-      </c>
-      <c r="D82" s="13" t="inlineStr">
-        <is>
-          <t>SW x NPT</t>
-        </is>
-      </c>
-      <c r="E82" s="13" t="inlineStr">
-        <is>
-          <t>Gate</t>
-        </is>
-      </c>
-      <c r="F82" s="13" t="inlineStr">
-        <is>
-          <t>ASTM A105N</t>
-        </is>
-      </c>
-      <c r="G82" s="13" t="inlineStr">
-        <is>
-          <t>Trim # 8</t>
-        </is>
-      </c>
-      <c r="H82" s="13" t="inlineStr">
-        <is>
-          <t>Conventional</t>
-        </is>
-      </c>
-      <c r="I82" s="13" t="inlineStr">
-        <is>
-          <t>20-4"-P-5038-201-3CS11P-H</t>
-        </is>
-      </c>
-      <c r="J82" s="13" t="inlineStr">
-        <is>
-          <t>3CS11</t>
-        </is>
-      </c>
-      <c r="K82" s="13" t="n"/>
-      <c r="L82" s="13" t="n"/>
-      <c r="M82" s="13" t="inlineStr">
-        <is>
-          <t>GASACH1F</t>
-        </is>
-      </c>
-      <c r="N82" s="13" t="inlineStr">
-        <is>
-          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="13" t="inlineStr">
-        <is>
-          <t>V210</t>
-        </is>
-      </c>
-      <c r="B83" s="13" t="inlineStr">
-        <is>
-          <t>Sheet 10</t>
-        </is>
-      </c>
-      <c r="C83" s="13" t="inlineStr">
-        <is>
-          <t>2"-300#</t>
-        </is>
-      </c>
-      <c r="D83" s="13" t="inlineStr">
-        <is>
-          <t>RF Flange</t>
-        </is>
-      </c>
-      <c r="E83" s="13" t="inlineStr">
-        <is>
-          <t>Gate</t>
-        </is>
-      </c>
-      <c r="F83" s="13" t="inlineStr">
-        <is>
-          <t>ASTM A216 WCB</t>
-        </is>
-      </c>
-      <c r="G83" s="13" t="inlineStr">
-        <is>
-          <t>Trim # 8</t>
-        </is>
-      </c>
-      <c r="H83" s="13" t="inlineStr">
-        <is>
-          <t>Full Port</t>
-        </is>
-      </c>
-      <c r="I83" s="13" t="inlineStr">
-        <is>
-          <t>20-4"-P-5039-202-3CS11P-H</t>
-        </is>
-      </c>
-      <c r="J83" s="13" t="inlineStr">
-        <is>
-          <t>3CS11</t>
-        </is>
-      </c>
-      <c r="K83" s="13" t="n"/>
-      <c r="L83" s="13" t="n"/>
-      <c r="M83" s="13" t="inlineStr">
-        <is>
-          <t>GABARH1F</t>
-        </is>
-      </c>
-      <c r="N83" s="13" t="inlineStr">
-        <is>
-          <t>Bolted Bonnet, API 600, OS&amp;Y, Flexible Graphite Packing, Flexible/Solid Wedge</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="13" t="inlineStr">
-        <is>
-          <t>V211</t>
-        </is>
-      </c>
-      <c r="B84" s="13" t="inlineStr">
-        <is>
-          <t>Sheet 10</t>
-        </is>
-      </c>
-      <c r="C84" s="13" t="inlineStr">
-        <is>
-          <t>3/4" Class 800</t>
-        </is>
-      </c>
-      <c r="D84" s="13" t="inlineStr">
-        <is>
-          <t>SW x NPT</t>
-        </is>
-      </c>
-      <c r="E84" s="13" t="inlineStr">
-        <is>
-          <t>Gate</t>
-        </is>
-      </c>
-      <c r="F84" s="13" t="inlineStr">
-        <is>
-          <t>ASTM A105N</t>
-        </is>
-      </c>
-      <c r="G84" s="13" t="inlineStr">
-        <is>
-          <t>Trim # 8</t>
-        </is>
-      </c>
-      <c r="H84" s="13" t="inlineStr">
-        <is>
-          <t>Conventional</t>
-        </is>
-      </c>
-      <c r="I84" s="13" t="inlineStr">
-        <is>
-          <t>20-4"-P-5039-202-3CS11P-H</t>
-        </is>
-      </c>
-      <c r="J84" s="13" t="inlineStr">
-        <is>
-          <t>3CS11</t>
-        </is>
-      </c>
-      <c r="K84" s="13" t="n"/>
-      <c r="L84" s="13" t="n"/>
-      <c r="M84" s="13" t="inlineStr">
-        <is>
-          <t>GASACH1F</t>
-        </is>
-      </c>
-      <c r="N84" s="13" t="inlineStr">
-        <is>
-          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="13" t="inlineStr">
-        <is>
-          <t>V212</t>
-        </is>
-      </c>
-      <c r="B85" s="13" t="inlineStr">
-        <is>
-          <t>Sheet 10</t>
-        </is>
-      </c>
-      <c r="C85" s="13" t="inlineStr">
-        <is>
-          <t>1/2"</t>
-        </is>
-      </c>
-      <c r="D85" s="13" t="inlineStr">
-        <is>
-          <t>FNPT</t>
-        </is>
-      </c>
-      <c r="E85" s="13" t="inlineStr">
-        <is>
-          <t>2-Valve Manifold - PG</t>
-        </is>
-      </c>
-      <c r="F85" s="13" t="inlineStr">
-        <is>
-          <t>Stainless Steel</t>
-        </is>
-      </c>
-      <c r="G85" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H85" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I85" s="13" t="inlineStr">
-        <is>
-          <t>Instrumentation / Tubing</t>
-        </is>
-      </c>
-      <c r="J85" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K85" s="13" t="inlineStr">
-        <is>
-          <t>AGCO</t>
-        </is>
-      </c>
-      <c r="L85" s="13" t="inlineStr">
-        <is>
-          <t>PTM-VIS-4 with V6-VIS-4</t>
-        </is>
-      </c>
-      <c r="M85" s="13" t="inlineStr">
-        <is>
-          <t>Not Applicable</t>
-        </is>
-      </c>
-      <c r="N85" s="13" t="inlineStr">
-        <is>
-          <t>Teflon packing, metal seat</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="13" t="inlineStr">
-        <is>
-          <t>V213</t>
-        </is>
-      </c>
-      <c r="B86" s="13" t="inlineStr">
-        <is>
-          <t>Sheet 10</t>
-        </is>
-      </c>
-      <c r="C86" s="13" t="inlineStr">
-        <is>
-          <t>3/4" Class 800</t>
-        </is>
-      </c>
-      <c r="D86" s="13" t="inlineStr">
-        <is>
-          <t>SW x NPT</t>
-        </is>
-      </c>
-      <c r="E86" s="13" t="inlineStr">
-        <is>
-          <t>Gate</t>
-        </is>
-      </c>
-      <c r="F86" s="13" t="inlineStr">
-        <is>
-          <t>ASTM A105N</t>
-        </is>
-      </c>
-      <c r="G86" s="13" t="inlineStr">
-        <is>
-          <t>Trim # 8</t>
-        </is>
-      </c>
-      <c r="H86" s="13" t="inlineStr">
-        <is>
-          <t>Conventional</t>
-        </is>
-      </c>
-      <c r="I86" s="13" t="inlineStr">
-        <is>
-          <t>20-4"-P-5039-202-3CS11P-H</t>
-        </is>
-      </c>
-      <c r="J86" s="13" t="inlineStr">
-        <is>
-          <t>3CS11</t>
-        </is>
-      </c>
-      <c r="K86" s="13" t="n"/>
-      <c r="L86" s="13" t="n"/>
-      <c r="M86" s="13" t="inlineStr">
-        <is>
-          <t>GASACH1F</t>
-        </is>
-      </c>
-      <c r="N86" s="13" t="inlineStr">
-        <is>
-          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="13" t="inlineStr">
-        <is>
-          <t>V214</t>
-        </is>
-      </c>
-      <c r="B87" s="13" t="inlineStr">
-        <is>
-          <t>Sheet 10</t>
-        </is>
-      </c>
-      <c r="C87" s="13" t="n"/>
-      <c r="D87" s="13" t="n"/>
-      <c r="E87" s="13" t="n"/>
-      <c r="F87" s="13" t="n"/>
-      <c r="G87" s="13" t="n"/>
-      <c r="H87" s="13" t="n"/>
-      <c r="I87" s="13" t="inlineStr">
-        <is>
-          <t>20-4"-P-5039-202-3CS11P-H</t>
-        </is>
-      </c>
-      <c r="J87" s="13" t="n"/>
-      <c r="K87" s="13" t="n"/>
-      <c r="L87" s="13" t="n"/>
-      <c r="M87" s="13" t="n"/>
-      <c r="N87" s="13" t="n"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="13" t="inlineStr">
-        <is>
-          <t>V215</t>
-        </is>
-      </c>
-      <c r="B88" s="13" t="inlineStr">
-        <is>
-          <t>Sheet 10</t>
-        </is>
-      </c>
-      <c r="C88" s="13" t="inlineStr">
-        <is>
-          <t>3/4" Class 800</t>
-        </is>
-      </c>
-      <c r="D88" s="13" t="inlineStr">
-        <is>
-          <t>SW x NPT</t>
-        </is>
-      </c>
-      <c r="E88" s="13" t="inlineStr">
-        <is>
-          <t>Gate</t>
-        </is>
-      </c>
-      <c r="F88" s="13" t="inlineStr">
-        <is>
-          <t>ASTM A105N</t>
-        </is>
-      </c>
-      <c r="G88" s="13" t="inlineStr">
-        <is>
-          <t>Trim # 8</t>
-        </is>
-      </c>
-      <c r="H88" s="13" t="inlineStr">
-        <is>
-          <t>Conventional</t>
-        </is>
-      </c>
-      <c r="I88" s="13" t="inlineStr">
-        <is>
-          <t>20-4"-P-5039-203-3CS11P-H</t>
-        </is>
-      </c>
-      <c r="J88" s="13" t="inlineStr">
-        <is>
-          <t>3CS11</t>
-        </is>
-      </c>
-      <c r="K88" s="13" t="n"/>
-      <c r="L88" s="13" t="n"/>
-      <c r="M88" s="13" t="inlineStr">
-        <is>
-          <t>GASACH1F</t>
-        </is>
-      </c>
-      <c r="N88" s="13" t="inlineStr">
-        <is>
-          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="13" t="inlineStr">
-        <is>
-          <t>V216</t>
-        </is>
-      </c>
-      <c r="B89" s="13" t="inlineStr">
-        <is>
-          <t>Sheet 10</t>
-        </is>
-      </c>
-      <c r="C89" s="13" t="inlineStr">
-        <is>
-          <t>3/4" Class 800</t>
-        </is>
-      </c>
-      <c r="D89" s="13" t="inlineStr">
-        <is>
-          <t>SW x NPT</t>
-        </is>
-      </c>
-      <c r="E89" s="13" t="inlineStr">
-        <is>
-          <t>Gate</t>
-        </is>
-      </c>
-      <c r="F89" s="13" t="inlineStr">
-        <is>
-          <t>ASTM A105N</t>
-        </is>
-      </c>
-      <c r="G89" s="13" t="inlineStr">
-        <is>
-          <t>Trim # 8</t>
-        </is>
-      </c>
-      <c r="H89" s="13" t="inlineStr">
-        <is>
-          <t>Conventional</t>
-        </is>
-      </c>
-      <c r="I89" s="13" t="inlineStr">
-        <is>
-          <t>20-4"-P-5039-203-3CS11P-H</t>
-        </is>
-      </c>
-      <c r="J89" s="13" t="inlineStr">
-        <is>
-          <t>3CS11</t>
-        </is>
-      </c>
-      <c r="K89" s="13" t="n"/>
-      <c r="L89" s="13" t="n"/>
-      <c r="M89" s="13" t="inlineStr">
-        <is>
-          <t>GASACH1F</t>
-        </is>
-      </c>
-      <c r="N89" s="13" t="inlineStr">
-        <is>
-          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="13" t="inlineStr">
-        <is>
-          <t>V217</t>
-        </is>
-      </c>
-      <c r="B90" s="13" t="inlineStr">
-        <is>
-          <t>Sheet 10</t>
-        </is>
-      </c>
-      <c r="C90" s="13" t="inlineStr">
-        <is>
-          <t>1/2"</t>
-        </is>
-      </c>
-      <c r="D90" s="13" t="inlineStr">
-        <is>
-          <t>FNPT</t>
-        </is>
-      </c>
-      <c r="E90" s="13" t="inlineStr">
-        <is>
-          <t>2-Valve Manifold - PG</t>
-        </is>
-      </c>
-      <c r="F90" s="13" t="inlineStr">
-        <is>
-          <t>Stainless Steel</t>
-        </is>
-      </c>
-      <c r="G90" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H90" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I90" s="13" t="inlineStr">
-        <is>
-          <t>Instrumentation / Tubing</t>
-        </is>
-      </c>
-      <c r="J90" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K90" s="13" t="inlineStr">
-        <is>
-          <t>AGCO</t>
-        </is>
-      </c>
-      <c r="L90" s="13" t="inlineStr">
-        <is>
-          <t>PTM-VIS-4 with V6-VIS-4</t>
-        </is>
-      </c>
-      <c r="M90" s="13" t="inlineStr">
-        <is>
-          <t>Not Applicable</t>
-        </is>
-      </c>
-      <c r="N90" s="13" t="inlineStr">
-        <is>
-          <t>Teflon packing, metal seat</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="13" t="inlineStr">
-        <is>
-          <t>V218</t>
-        </is>
-      </c>
-      <c r="B91" s="13" t="inlineStr">
-        <is>
-          <t>Sheet 10</t>
-        </is>
-      </c>
-      <c r="C91" s="13" t="inlineStr">
-        <is>
-          <t>3/4" Class 800</t>
-        </is>
-      </c>
-      <c r="D91" s="13" t="inlineStr">
-        <is>
-          <t>SW x NPT</t>
-        </is>
-      </c>
-      <c r="E91" s="13" t="inlineStr">
-        <is>
-          <t>Gate</t>
-        </is>
-      </c>
-      <c r="F91" s="13" t="inlineStr">
-        <is>
-          <t>ASTM A105N</t>
-        </is>
-      </c>
-      <c r="G91" s="13" t="inlineStr">
-        <is>
-          <t>Trim # 8</t>
-        </is>
-      </c>
-      <c r="H91" s="13" t="inlineStr">
-        <is>
-          <t>Conventional</t>
-        </is>
-      </c>
-      <c r="I91" s="13" t="inlineStr">
-        <is>
-          <t>20-4"-P-5039-203-3CS11P-H</t>
-        </is>
-      </c>
-      <c r="J91" s="13" t="inlineStr">
-        <is>
-          <t>3CS11</t>
-        </is>
-      </c>
-      <c r="K91" s="13" t="n"/>
-      <c r="L91" s="13" t="n"/>
-      <c r="M91" s="13" t="inlineStr">
-        <is>
-          <t>GASACH1F</t>
-        </is>
-      </c>
-      <c r="N91" s="13" t="inlineStr">
-        <is>
-          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="13" t="inlineStr">
-        <is>
-          <t>V219</t>
-        </is>
-      </c>
-      <c r="B92" s="13" t="inlineStr">
-        <is>
-          <t>Sheet 10</t>
-        </is>
-      </c>
-      <c r="C92" s="13" t="inlineStr">
-        <is>
-          <t>3/4" Class 800</t>
-        </is>
-      </c>
-      <c r="D92" s="13" t="inlineStr">
-        <is>
-          <t>SW x NPT</t>
-        </is>
-      </c>
-      <c r="E92" s="13" t="inlineStr">
-        <is>
-          <t>Gate</t>
-        </is>
-      </c>
-      <c r="F92" s="13" t="inlineStr">
-        <is>
-          <t>ASTM A105N</t>
-        </is>
-      </c>
-      <c r="G92" s="13" t="inlineStr">
-        <is>
-          <t>Trim # 8</t>
-        </is>
-      </c>
-      <c r="H92" s="13" t="inlineStr">
-        <is>
-          <t>Conventional</t>
-        </is>
-      </c>
-      <c r="I92" s="13" t="inlineStr">
-        <is>
-          <t>20-4"-P-5039-203-3CS11P-H</t>
-        </is>
-      </c>
-      <c r="J92" s="13" t="inlineStr">
-        <is>
-          <t>3CS11</t>
-        </is>
-      </c>
-      <c r="K92" s="13" t="n"/>
-      <c r="L92" s="13" t="n"/>
-      <c r="M92" s="13" t="inlineStr">
-        <is>
-          <t>GASACH1F</t>
-        </is>
-      </c>
-      <c r="N92" s="13" t="inlineStr">
-        <is>
-          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="13" t="inlineStr">
-        <is>
-          <t>V220</t>
-        </is>
-      </c>
-      <c r="B93" s="13" t="inlineStr">
-        <is>
-          <t>Sheet 10</t>
-        </is>
-      </c>
-      <c r="C93" s="13" t="inlineStr">
-        <is>
-          <t>3/4" Class 800</t>
-        </is>
-      </c>
-      <c r="D93" s="13" t="inlineStr">
-        <is>
-          <t>SW x NPT</t>
-        </is>
-      </c>
-      <c r="E93" s="13" t="inlineStr">
-        <is>
-          <t>Gate</t>
-        </is>
-      </c>
-      <c r="F93" s="13" t="inlineStr">
-        <is>
-          <t>ASTM A105N</t>
-        </is>
-      </c>
-      <c r="G93" s="13" t="inlineStr">
-        <is>
-          <t>Trim # 8</t>
-        </is>
-      </c>
-      <c r="H93" s="13" t="inlineStr">
-        <is>
-          <t>Conventional</t>
-        </is>
-      </c>
-      <c r="I93" s="13" t="inlineStr">
-        <is>
-          <t>20-4"-P-5039-203-3CS11P-H</t>
-        </is>
-      </c>
-      <c r="J93" s="13" t="inlineStr">
-        <is>
-          <t>3CS11</t>
-        </is>
-      </c>
-      <c r="K93" s="13" t="n"/>
-      <c r="L93" s="13" t="n"/>
-      <c r="M93" s="13" t="inlineStr">
-        <is>
-          <t>GASACH1F</t>
-        </is>
-      </c>
-      <c r="N93" s="13" t="inlineStr">
-        <is>
-          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="13" t="inlineStr">
-        <is>
-          <t>V221</t>
-        </is>
-      </c>
-      <c r="B94" s="13" t="inlineStr">
-        <is>
-          <t>Sheet 10</t>
-        </is>
-      </c>
-      <c r="C94" s="13" t="n"/>
-      <c r="D94" s="13" t="n"/>
-      <c r="E94" s="13" t="n"/>
-      <c r="F94" s="13" t="n"/>
-      <c r="G94" s="13" t="n"/>
-      <c r="H94" s="13" t="n"/>
-      <c r="I94" s="13" t="inlineStr">
-        <is>
-          <t>20-4"-P-5039-203-3CS11P-H</t>
-        </is>
-      </c>
-      <c r="J94" s="13" t="n"/>
-      <c r="K94" s="13" t="n"/>
-      <c r="L94" s="13" t="n"/>
-      <c r="M94" s="13" t="n"/>
-      <c r="N94" s="13" t="n"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="13" t="inlineStr">
-        <is>
-          <t>V222</t>
-        </is>
-      </c>
-      <c r="B95" s="13" t="inlineStr">
-        <is>
-          <t>Sheet 10</t>
-        </is>
-      </c>
-      <c r="C95" s="13" t="n"/>
-      <c r="D95" s="13" t="n"/>
-      <c r="E95" s="13" t="n"/>
-      <c r="F95" s="13" t="n"/>
-      <c r="G95" s="13" t="n"/>
-      <c r="H95" s="13" t="n"/>
-      <c r="I95" s="13" t="inlineStr">
-        <is>
-          <t>20-4"-P-5039-203-3CS11P-H</t>
-        </is>
-      </c>
-      <c r="J95" s="13" t="n"/>
-      <c r="K95" s="13" t="n"/>
-      <c r="L95" s="13" t="n"/>
-      <c r="M95" s="13" t="n"/>
-      <c r="N95" s="13" t="n"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="13" t="inlineStr">
-        <is>
-          <t>V223</t>
-        </is>
-      </c>
-      <c r="B96" s="13" t="inlineStr">
-        <is>
-          <t>Sheet 10</t>
-        </is>
-      </c>
-      <c r="C96" s="13" t="inlineStr">
-        <is>
-          <t>3/4" Class 800</t>
-        </is>
-      </c>
-      <c r="D96" s="13" t="inlineStr">
-        <is>
-          <t>SW x NPT</t>
-        </is>
-      </c>
-      <c r="E96" s="13" t="inlineStr">
-        <is>
-          <t>Gate</t>
-        </is>
-      </c>
-      <c r="F96" s="13" t="inlineStr">
-        <is>
-          <t>ASTM A105N</t>
-        </is>
-      </c>
-      <c r="G96" s="13" t="inlineStr">
-        <is>
-          <t>Trim # 8</t>
-        </is>
-      </c>
-      <c r="H96" s="13" t="inlineStr">
-        <is>
-          <t>Conventional</t>
-        </is>
-      </c>
-      <c r="I96" s="13" t="inlineStr">
-        <is>
-          <t>20-4"-P-5039-203-3CS11P-H</t>
-        </is>
-      </c>
-      <c r="J96" s="13" t="inlineStr">
-        <is>
-          <t>3CS11</t>
-        </is>
-      </c>
-      <c r="K96" s="13" t="n"/>
-      <c r="L96" s="13" t="n"/>
-      <c r="M96" s="13" t="inlineStr">
-        <is>
-          <t>GASACH1F</t>
-        </is>
-      </c>
-      <c r="N96" s="13" t="inlineStr">
-        <is>
-          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="13" t="inlineStr">
-        <is>
-          <t>V224</t>
-        </is>
-      </c>
-      <c r="B97" s="13" t="inlineStr">
-        <is>
-          <t>Sheet 10</t>
-        </is>
-      </c>
-      <c r="C97" s="13" t="inlineStr">
-        <is>
-          <t>3/4" Class 800</t>
-        </is>
-      </c>
-      <c r="D97" s="13" t="inlineStr">
-        <is>
-          <t>SW x NPT</t>
-        </is>
-      </c>
-      <c r="E97" s="13" t="inlineStr">
-        <is>
-          <t>Gate</t>
-        </is>
-      </c>
-      <c r="F97" s="13" t="inlineStr">
-        <is>
-          <t>ASTM A105N</t>
-        </is>
-      </c>
-      <c r="G97" s="13" t="inlineStr">
-        <is>
-          <t>Trim # 8</t>
-        </is>
-      </c>
-      <c r="H97" s="13" t="inlineStr">
-        <is>
-          <t>Conventional</t>
-        </is>
-      </c>
-      <c r="I97" s="13" t="inlineStr">
-        <is>
-          <t>20-4"-P-5039-203-3CS11P-H</t>
-        </is>
-      </c>
-      <c r="J97" s="13" t="inlineStr">
-        <is>
-          <t>3CS11</t>
-        </is>
-      </c>
-      <c r="K97" s="13" t="n"/>
-      <c r="L97" s="13" t="n"/>
-      <c r="M97" s="13" t="inlineStr">
-        <is>
-          <t>GASACH1F</t>
-        </is>
-      </c>
-      <c r="N97" s="13" t="inlineStr">
-        <is>
-          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="13" t="inlineStr">
-        <is>
-          <t>V225</t>
-        </is>
-      </c>
-      <c r="B98" s="13" t="inlineStr">
-        <is>
-          <t>Sheet 10</t>
-        </is>
-      </c>
-      <c r="C98" s="13" t="inlineStr">
-        <is>
-          <t>1/2"</t>
-        </is>
-      </c>
-      <c r="D98" s="13" t="inlineStr">
-        <is>
-          <t>FNPT</t>
-        </is>
-      </c>
-      <c r="E98" s="13" t="inlineStr">
-        <is>
-          <t>2-Valve Manifold - PG</t>
-        </is>
-      </c>
-      <c r="F98" s="13" t="inlineStr">
-        <is>
-          <t>Stainless Steel</t>
-        </is>
-      </c>
-      <c r="G98" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H98" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I98" s="13" t="inlineStr">
-        <is>
-          <t>Instrumentation / Tubing</t>
-        </is>
-      </c>
-      <c r="J98" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K98" s="13" t="inlineStr">
-        <is>
-          <t>AGCO</t>
-        </is>
-      </c>
-      <c r="L98" s="13" t="inlineStr">
-        <is>
-          <t>PTM-VIS-4 with V6-VIS-4</t>
-        </is>
-      </c>
-      <c r="M98" s="13" t="inlineStr">
-        <is>
-          <t>Not Applicable</t>
-        </is>
-      </c>
-      <c r="N98" s="13" t="inlineStr">
-        <is>
-          <t>Teflon packing, metal seat</t>
-        </is>
-      </c>
+      <c r="M27" s="13" t="n"/>
+      <c r="N27" s="13" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/workbook1.xlsx
+++ b/workbook1.xlsx
@@ -3,11 +3,12 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3540" yWindow="760" windowWidth="26700" windowHeight="18880" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="24540" yWindow="1120" windowWidth="26700" windowHeight="18880" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Input Sheet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Output Sheet" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -12854,10 +12855,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -12866,11 +12867,11 @@
     <col width="22.8" customWidth="1" min="2" max="2"/>
     <col width="20.4" customWidth="1" min="3" max="4"/>
     <col width="20.4" customWidth="1" min="4" max="4"/>
-    <col width="28.8" customWidth="1" min="5" max="5"/>
+    <col width="27.6" customWidth="1" min="5" max="5"/>
     <col width="20.4" customWidth="1" min="6" max="6"/>
     <col width="12" customWidth="1" min="7" max="7"/>
     <col width="16.8" customWidth="1" min="8" max="8"/>
-    <col width="42" customWidth="1" min="9" max="9"/>
+    <col width="33.6" customWidth="1" min="9" max="9"/>
     <col width="22.8" customWidth="1" min="10" max="10"/>
     <col width="16.8" customWidth="1" min="11" max="11"/>
     <col width="30" customWidth="1" min="12" max="12"/>
@@ -13117,22 +13118,22 @@
     <row r="5">
       <c r="A5" s="13" t="inlineStr">
         <is>
-          <t>V105</t>
+          <t>V141</t>
         </is>
       </c>
       <c r="B5" s="13" t="inlineStr">
         <is>
-          <t>Sheet 2</t>
+          <t>Sheet 4</t>
         </is>
       </c>
       <c r="C5" s="13" t="inlineStr">
         <is>
-          <t>3/4" Class 800</t>
+          <t>8"-300#</t>
         </is>
       </c>
       <c r="D5" s="13" t="inlineStr">
         <is>
-          <t>SW x NPT</t>
+          <t>RF Flange</t>
         </is>
       </c>
       <c r="E5" s="13" t="inlineStr">
@@ -13142,7 +13143,7 @@
       </c>
       <c r="F5" s="13" t="inlineStr">
         <is>
-          <t>ASTM A105N</t>
+          <t>ASTM A216 WCB</t>
         </is>
       </c>
       <c r="G5" s="13" t="inlineStr">
@@ -13152,12 +13153,12 @@
       </c>
       <c r="H5" s="13" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>Full Port</t>
         </is>
       </c>
       <c r="I5" s="13" t="inlineStr">
         <is>
-          <t>20-16"-P-5030-101-3CS11P</t>
+          <t>20-8"-P-5033-107-3CS11P-HP</t>
         </is>
       </c>
       <c r="J5" s="13" t="inlineStr">
@@ -13169,6 +13170,297 @@
       <c r="L5" s="13" t="n"/>
       <c r="M5" s="13" t="inlineStr">
         <is>
+          <t>GABARH2F</t>
+        </is>
+      </c>
+      <c r="N5" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, Gear Operated, API 600, OS&amp;Y, Bevel Gear Operator, Flexible Graphite Packing, Flexible/Solid Wedge</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N98"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15.6" customWidth="1" min="1" max="1"/>
+    <col width="22.8" customWidth="1" min="2" max="2"/>
+    <col width="20.4" customWidth="1" min="3" max="3"/>
+    <col width="20.4" customWidth="1" min="4" max="4"/>
+    <col width="27.6" customWidth="1" min="5" max="5"/>
+    <col width="20.4" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="16.8" customWidth="1" min="8" max="8"/>
+    <col width="33.6" customWidth="1" min="9" max="9"/>
+    <col width="22.8" customWidth="1" min="10" max="10"/>
+    <col width="16.8" customWidth="1" min="11" max="11"/>
+    <col width="30" customWidth="1" min="12" max="12"/>
+    <col width="19.2" customWidth="1" min="13" max="13"/>
+    <col width="138" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tag Number</t>
+        </is>
+      </c>
+      <c r="B1" s="15" t="inlineStr">
+        <is>
+          <t>P&amp;ID Sheet Number</t>
+        </is>
+      </c>
+      <c r="C1" s="15" t="inlineStr">
+        <is>
+          <t>Size and Rating</t>
+        </is>
+      </c>
+      <c r="D1" s="15" t="inlineStr">
+        <is>
+          <t>Connection Type</t>
+        </is>
+      </c>
+      <c r="E1" s="15" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="F1" s="15" t="inlineStr">
+        <is>
+          <t>Body Material</t>
+        </is>
+      </c>
+      <c r="G1" s="15" t="inlineStr">
+        <is>
+          <t>Trim</t>
+        </is>
+      </c>
+      <c r="H1" s="15" t="inlineStr">
+        <is>
+          <t>Port</t>
+        </is>
+      </c>
+      <c r="I1" s="15" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
+      <c r="J1" s="15" t="inlineStr">
+        <is>
+          <t>Client Pipe Class</t>
+        </is>
+      </c>
+      <c r="K1" s="15" t="inlineStr">
+        <is>
+          <t>Manufacturer</t>
+        </is>
+      </c>
+      <c r="L1" s="15" t="inlineStr">
+        <is>
+          <t>Model</t>
+        </is>
+      </c>
+      <c r="M1" s="15" t="inlineStr">
+        <is>
+          <t>Pipe Schedule</t>
+        </is>
+      </c>
+      <c r="N1" s="15" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="13" t="inlineStr">
+        <is>
+          <t>V100</t>
+        </is>
+      </c>
+      <c r="B2" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 1</t>
+        </is>
+      </c>
+      <c r="C2" s="13" t="n"/>
+      <c r="D2" s="13" t="n"/>
+      <c r="E2" s="13" t="n"/>
+      <c r="F2" s="13" t="n"/>
+      <c r="G2" s="13" t="n"/>
+      <c r="H2" s="13" t="n"/>
+      <c r="I2" s="13" t="inlineStr">
+        <is>
+          <t>20-12"-P-5030-100-3CS11P</t>
+        </is>
+      </c>
+      <c r="J2" s="13" t="n"/>
+      <c r="K2" s="13" t="n"/>
+      <c r="L2" s="13" t="n"/>
+      <c r="M2" s="13" t="n"/>
+      <c r="N2" s="13" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="13" t="inlineStr">
+        <is>
+          <t>V101</t>
+        </is>
+      </c>
+      <c r="B3" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 1</t>
+        </is>
+      </c>
+      <c r="C3" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D3" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E3" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F3" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G3" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H3" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="I3" s="13" t="inlineStr">
+        <is>
+          <t>20-12"-P-5030-100-3CS11P</t>
+        </is>
+      </c>
+      <c r="J3" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K3" s="13" t="n"/>
+      <c r="L3" s="13" t="n"/>
+      <c r="M3" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N3" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="13" t="inlineStr">
+        <is>
+          <t>CV102</t>
+        </is>
+      </c>
+      <c r="B4" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 1</t>
+        </is>
+      </c>
+      <c r="C4" s="13" t="n"/>
+      <c r="D4" s="13" t="n"/>
+      <c r="E4" s="13" t="n"/>
+      <c r="F4" s="13" t="n"/>
+      <c r="G4" s="13" t="n"/>
+      <c r="H4" s="13" t="n"/>
+      <c r="I4" s="13" t="inlineStr">
+        <is>
+          <t>20-12"-P-5030-100-3CS11P</t>
+        </is>
+      </c>
+      <c r="J4" s="13" t="n"/>
+      <c r="K4" s="13" t="n"/>
+      <c r="L4" s="13" t="n"/>
+      <c r="M4" s="13" t="n"/>
+      <c r="N4" s="13" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="13" t="inlineStr">
+        <is>
+          <t>V103</t>
+        </is>
+      </c>
+      <c r="B5" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 1</t>
+        </is>
+      </c>
+      <c r="C5" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D5" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E5" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F5" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G5" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H5" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="I5" s="13" t="inlineStr">
+        <is>
+          <t>20-12"-P-5030-100-3CS11P</t>
+        </is>
+      </c>
+      <c r="J5" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K5" s="13" t="n"/>
+      <c r="L5" s="13" t="n"/>
+      <c r="M5" s="13" t="inlineStr">
+        <is>
           <t>GASACH1F</t>
         </is>
       </c>
@@ -13181,12 +13473,12 @@
     <row r="6">
       <c r="A6" s="13" t="inlineStr">
         <is>
-          <t>V107</t>
+          <t>V104</t>
         </is>
       </c>
       <c r="B6" s="13" t="inlineStr">
         <is>
-          <t>Sheet 2</t>
+          <t>Sheet 1</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
@@ -13201,7 +13493,7 @@
       </c>
       <c r="E6" s="13" t="inlineStr">
         <is>
-          <t>3-Valve Manifold - PDT</t>
+          <t>2-Valve Manifold - PG</t>
         </is>
       </c>
       <c r="F6" s="13" t="inlineStr">
@@ -13236,7 +13528,7 @@
       </c>
       <c r="L6" s="13" t="inlineStr">
         <is>
-          <t>M1-VIS-4-AM</t>
+          <t>PTM-VIS-4 with V6-VIS-4</t>
         </is>
       </c>
       <c r="M6" s="13" t="inlineStr">
@@ -13253,40 +13545,76 @@
     <row r="7">
       <c r="A7" s="13" t="inlineStr">
         <is>
-          <t>V116</t>
+          <t>V105</t>
         </is>
       </c>
       <c r="B7" s="13" t="inlineStr">
         <is>
-          <t>Sheet 12</t>
-        </is>
-      </c>
-      <c r="C7" s="13" t="n"/>
-      <c r="D7" s="13" t="n"/>
-      <c r="E7" s="13" t="n"/>
-      <c r="F7" s="13" t="n"/>
-      <c r="G7" s="13" t="n"/>
-      <c r="H7" s="13" t="n"/>
+          <t>Sheet 2</t>
+        </is>
+      </c>
+      <c r="C7" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D7" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E7" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F7" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G7" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H7" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
       <c r="I7" s="13" t="inlineStr">
         <is>
-          <t>20-C-5021 Compressor Second Stage</t>
-        </is>
-      </c>
-      <c r="J7" s="13" t="n"/>
+          <t>20-12"-P-5030-100-3CS11P</t>
+        </is>
+      </c>
+      <c r="J7" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
       <c r="K7" s="13" t="n"/>
       <c r="L7" s="13" t="n"/>
-      <c r="M7" s="13" t="n"/>
-      <c r="N7" s="13" t="n"/>
+      <c r="M7" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N7" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="13" t="inlineStr">
         <is>
-          <t>V133</t>
+          <t>V106</t>
         </is>
       </c>
       <c r="B8" s="13" t="inlineStr">
         <is>
-          <t>Sheet 3</t>
+          <t>Sheet 2</t>
         </is>
       </c>
       <c r="C8" s="13" t="inlineStr">
@@ -13321,7 +13649,7 @@
       </c>
       <c r="I8" s="13" t="inlineStr">
         <is>
-          <t>20-V-5124 Bulk Oil Seperator</t>
+          <t>20-12"-P-5030-100-3CS11P</t>
         </is>
       </c>
       <c r="J8" s="13" t="inlineStr">
@@ -13345,12 +13673,12 @@
     <row r="9">
       <c r="A9" s="13" t="inlineStr">
         <is>
-          <t>V135</t>
+          <t>V107</t>
         </is>
       </c>
       <c r="B9" s="13" t="inlineStr">
         <is>
-          <t>Sheet 3</t>
+          <t>Sheet 2</t>
         </is>
       </c>
       <c r="C9" s="13" t="inlineStr">
@@ -13365,7 +13693,7 @@
       </c>
       <c r="E9" s="13" t="inlineStr">
         <is>
-          <t>3-Valve Manifold - PDT</t>
+          <t>2-Valve Manifold - PG</t>
         </is>
       </c>
       <c r="F9" s="13" t="inlineStr">
@@ -13385,7 +13713,7 @@
       </c>
       <c r="I9" s="13" t="inlineStr">
         <is>
-          <t>20-V-5124 Bulk Oil Seperator</t>
+          <t>20-16"-P-5030-101-3CS11P</t>
         </is>
       </c>
       <c r="J9" s="13" t="inlineStr">
@@ -13395,10 +13723,14 @@
       </c>
       <c r="K9" s="13" t="inlineStr">
         <is>
-          <t>Rosemount</t>
-        </is>
-      </c>
-      <c r="L9" s="13" t="n"/>
+          <t>AGCO</t>
+        </is>
+      </c>
+      <c r="L9" s="13" t="inlineStr">
+        <is>
+          <t>PTM-VIS-4 with V6-VIS-4</t>
+        </is>
+      </c>
       <c r="M9" s="13" t="inlineStr">
         <is>
           <t>Not Applicable</t>
@@ -13413,12 +13745,12 @@
     <row r="10">
       <c r="A10" s="13" t="inlineStr">
         <is>
-          <t>V136</t>
+          <t>V108</t>
         </is>
       </c>
       <c r="B10" s="13" t="inlineStr">
         <is>
-          <t>Sheet 4</t>
+          <t>Sheet 2</t>
         </is>
       </c>
       <c r="C10" s="13" t="inlineStr">
@@ -13453,7 +13785,7 @@
       </c>
       <c r="I10" s="13" t="inlineStr">
         <is>
-          <t>20-8"-P-5033-106-3CS11P-HP</t>
+          <t>20-12"-P-5030-100-3CS11P</t>
         </is>
       </c>
       <c r="J10" s="13" t="inlineStr">
@@ -13477,90 +13809,86 @@
     <row r="11">
       <c r="A11" s="13" t="inlineStr">
         <is>
-          <t>V138</t>
+          <t>V109</t>
         </is>
       </c>
       <c r="B11" s="13" t="inlineStr">
         <is>
-          <t>Sheet 4</t>
+          <t>Sheet 2</t>
         </is>
       </c>
       <c r="C11" s="13" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/4" Class 800</t>
         </is>
       </c>
       <c r="D11" s="13" t="inlineStr">
         <is>
-          <t>FNPT</t>
+          <t>SW x NPT</t>
         </is>
       </c>
       <c r="E11" s="13" t="inlineStr">
         <is>
-          <t>3-Valve Manifold - PDT</t>
+          <t>Gate</t>
         </is>
       </c>
       <c r="F11" s="13" t="inlineStr">
         <is>
-          <t>Stainless Steel</t>
+          <t>ASTM A105N</t>
         </is>
       </c>
       <c r="G11" s="13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Trim # 8</t>
         </is>
       </c>
       <c r="H11" s="13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Conventional</t>
         </is>
       </c>
       <c r="I11" s="13" t="inlineStr">
         <is>
-          <t>Instrumentation / Tubing</t>
+          <t>20-12"-P-5030-100-3CS11P</t>
         </is>
       </c>
       <c r="J11" s="13" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K11" s="13" t="inlineStr">
-        <is>
-          <t>Rosemount</t>
-        </is>
-      </c>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K11" s="13" t="n"/>
       <c r="L11" s="13" t="n"/>
       <c r="M11" s="13" t="inlineStr">
         <is>
-          <t>Not Applicable</t>
+          <t>GASACH1F</t>
         </is>
       </c>
       <c r="N11" s="13" t="inlineStr">
         <is>
-          <t>Teflon packing, metal seat</t>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="13" t="inlineStr">
         <is>
-          <t>V141</t>
+          <t>V110</t>
         </is>
       </c>
       <c r="B12" s="13" t="inlineStr">
         <is>
-          <t>Sheet 4</t>
+          <t>Sheet 2</t>
         </is>
       </c>
       <c r="C12" s="13" t="inlineStr">
         <is>
-          <t>8"-300#</t>
+          <t>3/4" Class 800</t>
         </is>
       </c>
       <c r="D12" s="13" t="inlineStr">
         <is>
-          <t>RF Flange</t>
+          <t>SW x NPT</t>
         </is>
       </c>
       <c r="E12" s="13" t="inlineStr">
@@ -13570,7 +13898,7 @@
       </c>
       <c r="F12" s="13" t="inlineStr">
         <is>
-          <t>ASTM A216 WCB</t>
+          <t>ASTM A105N</t>
         </is>
       </c>
       <c r="G12" s="13" t="inlineStr">
@@ -13580,12 +13908,12 @@
       </c>
       <c r="H12" s="13" t="inlineStr">
         <is>
-          <t>Full Port</t>
+          <t>Conventional</t>
         </is>
       </c>
       <c r="I12" s="13" t="inlineStr">
         <is>
-          <t>20-8"-P-5033-107-3CS11P-HP</t>
+          <t>20-12"-P-5030-100-3CS11P</t>
         </is>
       </c>
       <c r="J12" s="13" t="inlineStr">
@@ -13597,62 +13925,106 @@
       <c r="L12" s="13" t="n"/>
       <c r="M12" s="13" t="inlineStr">
         <is>
-          <t>GABARH2F</t>
+          <t>GASACH1F</t>
         </is>
       </c>
       <c r="N12" s="13" t="inlineStr">
         <is>
-          <t>Bolted Bonnet, Gear Operated, API 600, OS&amp;Y, Bevel Gear Operator, Flexible Graphite Packing, Flexible/Solid Wedge</t>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="13" t="inlineStr">
         <is>
-          <t>V146</t>
+          <t>V111</t>
         </is>
       </c>
       <c r="B13" s="13" t="inlineStr">
         <is>
-          <t>Sheet 4</t>
-        </is>
-      </c>
-      <c r="C13" s="13" t="n"/>
-      <c r="D13" s="13" t="n"/>
-      <c r="E13" s="13" t="n"/>
-      <c r="F13" s="13" t="n"/>
-      <c r="G13" s="13" t="n"/>
-      <c r="H13" s="13" t="n"/>
+          <t>Sheet 2</t>
+        </is>
+      </c>
+      <c r="C13" s="13" t="inlineStr">
+        <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="D13" s="13" t="inlineStr">
+        <is>
+          <t>FNPT</t>
+        </is>
+      </c>
+      <c r="E13" s="13" t="inlineStr">
+        <is>
+          <t>2-Valve Manifold - PG</t>
+        </is>
+      </c>
+      <c r="F13" s="13" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="G13" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H13" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="I13" s="13" t="inlineStr">
         <is>
-          <t>20-8"-P-5033-107-3CS11P-HP</t>
-        </is>
-      </c>
-      <c r="J13" s="13" t="n"/>
-      <c r="K13" s="13" t="n"/>
-      <c r="L13" s="13" t="n"/>
-      <c r="M13" s="13" t="n"/>
-      <c r="N13" s="13" t="n"/>
+          <t>20-16"-P-5030-101-3CS11P</t>
+        </is>
+      </c>
+      <c r="J13" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K13" s="13" t="inlineStr">
+        <is>
+          <t>AGCO</t>
+        </is>
+      </c>
+      <c r="L13" s="13" t="inlineStr">
+        <is>
+          <t>PTM-VIS-4 with V6-VIS-4</t>
+        </is>
+      </c>
+      <c r="M13" s="13" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="N13" s="13" t="inlineStr">
+        <is>
+          <t>Teflon packing, metal seat</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="13" t="inlineStr">
         <is>
-          <t>V149</t>
+          <t>V112</t>
         </is>
       </c>
       <c r="B14" s="13" t="inlineStr">
         <is>
-          <t>Sheet 6</t>
+          <t>Sheet 2</t>
         </is>
       </c>
       <c r="C14" s="13" t="inlineStr">
         <is>
-          <t>8"-300#</t>
+          <t>3/4" Class 800</t>
         </is>
       </c>
       <c r="D14" s="13" t="inlineStr">
         <is>
-          <t>RF Flange</t>
+          <t>SW x NPT</t>
         </is>
       </c>
       <c r="E14" s="13" t="inlineStr">
@@ -13662,7 +14034,7 @@
       </c>
       <c r="F14" s="13" t="inlineStr">
         <is>
-          <t>ASTM A216 WCB</t>
+          <t>ASTM A105N</t>
         </is>
       </c>
       <c r="G14" s="13" t="inlineStr">
@@ -13672,12 +14044,12 @@
       </c>
       <c r="H14" s="13" t="inlineStr">
         <is>
-          <t>Full Port</t>
+          <t>Conventional</t>
         </is>
       </c>
       <c r="I14" s="13" t="inlineStr">
         <is>
-          <t>20-8"-P-5035-108-3CS11P-HP</t>
+          <t>20-12"-P-5030-100-3CS11P</t>
         </is>
       </c>
       <c r="J14" s="13" t="inlineStr">
@@ -13689,466 +14061,354 @@
       <c r="L14" s="13" t="n"/>
       <c r="M14" s="13" t="inlineStr">
         <is>
-          <t>GABARH2F</t>
+          <t>GASACH1F</t>
         </is>
       </c>
       <c r="N14" s="13" t="inlineStr">
         <is>
-          <t>Bolted Bonnet, Gear Operated, API 600, OS&amp;Y, Bevel Gear Operator, Flexible Graphite Packing, Flexible/Solid Wedge</t>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="13" t="inlineStr">
         <is>
-          <t>V150</t>
+          <t>V113</t>
         </is>
       </c>
       <c r="B15" s="13" t="inlineStr">
         <is>
-          <t>Sheet 6</t>
+          <t>Sheet 2</t>
         </is>
       </c>
       <c r="C15" s="13" t="inlineStr">
         <is>
-          <t>3/4" Class 800</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="D15" s="13" t="inlineStr">
         <is>
-          <t>SW x NPT</t>
+          <t>FNPT</t>
         </is>
       </c>
       <c r="E15" s="13" t="inlineStr">
         <is>
-          <t>Gate</t>
+          <t>2-Valve Manifold - PG</t>
         </is>
       </c>
       <c r="F15" s="13" t="inlineStr">
         <is>
-          <t>ASTM A105N</t>
+          <t>Stainless Steel</t>
         </is>
       </c>
       <c r="G15" s="13" t="inlineStr">
         <is>
-          <t>Trim # 8</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H15" s="13" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I15" s="13" t="inlineStr">
         <is>
-          <t>20-8"-P-5035-108-3CS11P-HP</t>
+          <t>20-16"-P-5030-101-3CS11P</t>
         </is>
       </c>
       <c r="J15" s="13" t="inlineStr">
         <is>
-          <t>3CS11</t>
-        </is>
-      </c>
-      <c r="K15" s="13" t="n"/>
-      <c r="L15" s="13" t="n"/>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K15" s="13" t="inlineStr">
+        <is>
+          <t>AGCO</t>
+        </is>
+      </c>
+      <c r="L15" s="13" t="inlineStr">
+        <is>
+          <t>PTM-VIS-4 with V6-VIS-4</t>
+        </is>
+      </c>
       <c r="M15" s="13" t="inlineStr">
         <is>
-          <t>GASACH1F</t>
+          <t>Not Applicable</t>
         </is>
       </c>
       <c r="N15" s="13" t="inlineStr">
         <is>
-          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+          <t>Teflon packing, metal seat</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="13" t="inlineStr">
         <is>
-          <t>V152</t>
+          <t>V114</t>
         </is>
       </c>
       <c r="B16" s="13" t="inlineStr">
         <is>
-          <t>Sheet 6</t>
+          <t>Sheet 2</t>
         </is>
       </c>
       <c r="C16" s="13" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/4" Class 800</t>
         </is>
       </c>
       <c r="D16" s="13" t="inlineStr">
         <is>
-          <t>FNPT</t>
+          <t>SW x NPT</t>
         </is>
       </c>
       <c r="E16" s="13" t="inlineStr">
         <is>
-          <t>2-Valve Manifold - PT</t>
+          <t>Gate</t>
         </is>
       </c>
       <c r="F16" s="13" t="inlineStr">
         <is>
-          <t>Stainless Steel</t>
+          <t>ASTM A105N</t>
         </is>
       </c>
       <c r="G16" s="13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Trim # 8</t>
         </is>
       </c>
       <c r="H16" s="13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Conventional</t>
         </is>
       </c>
       <c r="I16" s="13" t="inlineStr">
         <is>
-          <t>Instrumentation / Tubing</t>
+          <t>20-12"-P-5030-100-3CS11P</t>
         </is>
       </c>
       <c r="J16" s="13" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K16" s="13" t="inlineStr">
-        <is>
-          <t>AGCO</t>
-        </is>
-      </c>
-      <c r="L16" s="13" t="inlineStr">
-        <is>
-          <t>PTM-VIS-4 with V6-VIS-4</t>
-        </is>
-      </c>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K16" s="13" t="n"/>
+      <c r="L16" s="13" t="n"/>
       <c r="M16" s="13" t="inlineStr">
         <is>
-          <t>Not Applicable</t>
+          <t>GASACH1F</t>
         </is>
       </c>
       <c r="N16" s="13" t="inlineStr">
         <is>
-          <t>Teflon packing, metal seat</t>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="13" t="inlineStr">
         <is>
-          <t>V153</t>
+          <t>V115</t>
         </is>
       </c>
       <c r="B17" s="13" t="inlineStr">
         <is>
-          <t>Sheet 7</t>
-        </is>
-      </c>
-      <c r="C17" s="13" t="n"/>
-      <c r="D17" s="13" t="n"/>
-      <c r="E17" s="13" t="n"/>
-      <c r="F17" s="13" t="n"/>
-      <c r="G17" s="13" t="n"/>
-      <c r="H17" s="13" t="n"/>
+          <t>Sheet 2</t>
+        </is>
+      </c>
+      <c r="C17" s="13" t="inlineStr">
+        <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="D17" s="13" t="inlineStr">
+        <is>
+          <t>FNPT</t>
+        </is>
+      </c>
+      <c r="E17" s="13" t="inlineStr">
+        <is>
+          <t>2-Valve Manifold - PG</t>
+        </is>
+      </c>
+      <c r="F17" s="13" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="G17" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H17" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="I17" s="13" t="inlineStr">
         <is>
-          <t>20-2"-P-5036-112-3CS11P-H-TE</t>
-        </is>
-      </c>
-      <c r="J17" s="13" t="n"/>
-      <c r="K17" s="13" t="n"/>
-      <c r="L17" s="13" t="n"/>
-      <c r="M17" s="13" t="n"/>
-      <c r="N17" s="13" t="n"/>
+          <t>20-16"-P-5030-101-3CS11P</t>
+        </is>
+      </c>
+      <c r="J17" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K17" s="13" t="inlineStr">
+        <is>
+          <t>AGCO</t>
+        </is>
+      </c>
+      <c r="L17" s="13" t="inlineStr">
+        <is>
+          <t>PTM-VIS-4 with V6-VIS-4</t>
+        </is>
+      </c>
+      <c r="M17" s="13" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="N17" s="13" t="inlineStr">
+        <is>
+          <t>Teflon packing, metal seat</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="13" t="inlineStr">
         <is>
-          <t>V157</t>
+          <t>V116</t>
         </is>
       </c>
       <c r="B18" s="13" t="inlineStr">
         <is>
-          <t>Sheet 7</t>
-        </is>
-      </c>
-      <c r="C18" s="13" t="inlineStr">
-        <is>
-          <t>3/4" Class 800</t>
-        </is>
-      </c>
-      <c r="D18" s="13" t="inlineStr">
-        <is>
-          <t>SW x NPT</t>
-        </is>
-      </c>
-      <c r="E18" s="13" t="inlineStr">
-        <is>
-          <t>Gate</t>
-        </is>
-      </c>
-      <c r="F18" s="13" t="inlineStr">
-        <is>
-          <t>ASTM A105N</t>
-        </is>
-      </c>
-      <c r="G18" s="13" t="inlineStr">
-        <is>
-          <t>Trim # 8</t>
-        </is>
-      </c>
-      <c r="H18" s="13" t="inlineStr">
-        <is>
-          <t>Conventional</t>
-        </is>
-      </c>
+          <t>Sheet 12</t>
+        </is>
+      </c>
+      <c r="C18" s="13" t="n"/>
+      <c r="D18" s="13" t="n"/>
+      <c r="E18" s="13" t="n"/>
+      <c r="F18" s="13" t="n"/>
+      <c r="G18" s="13" t="n"/>
+      <c r="H18" s="13" t="n"/>
       <c r="I18" s="13" t="inlineStr">
         <is>
-          <t>20-2"-P-5036-112-3CS11P-H-TE</t>
-        </is>
-      </c>
-      <c r="J18" s="13" t="inlineStr">
-        <is>
-          <t>3CS11</t>
-        </is>
-      </c>
+          <t>20-12"-P-5030-100-3CS11P</t>
+        </is>
+      </c>
+      <c r="J18" s="13" t="n"/>
       <c r="K18" s="13" t="n"/>
       <c r="L18" s="13" t="n"/>
-      <c r="M18" s="13" t="inlineStr">
-        <is>
-          <t>GASACH1F</t>
-        </is>
-      </c>
-      <c r="N18" s="13" t="inlineStr">
-        <is>
-          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
-        </is>
-      </c>
+      <c r="M18" s="13" t="n"/>
+      <c r="N18" s="13" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="13" t="inlineStr">
         <is>
-          <t>V158</t>
+          <t>V117</t>
         </is>
       </c>
       <c r="B19" s="13" t="inlineStr">
         <is>
-          <t>Sheet 7</t>
-        </is>
-      </c>
-      <c r="C19" s="13" t="inlineStr">
-        <is>
-          <t>1/2"</t>
-        </is>
-      </c>
-      <c r="D19" s="13" t="inlineStr">
-        <is>
-          <t>FNPT</t>
-        </is>
-      </c>
-      <c r="E19" s="13" t="inlineStr">
-        <is>
-          <t>2-Valve Manifold - PT</t>
-        </is>
-      </c>
-      <c r="F19" s="13" t="inlineStr">
-        <is>
-          <t>Stainless Steel</t>
-        </is>
-      </c>
-      <c r="G19" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H19" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+          <t>Sheet 12</t>
+        </is>
+      </c>
+      <c r="C19" s="13" t="n"/>
+      <c r="D19" s="13" t="n"/>
+      <c r="E19" s="13" t="n"/>
+      <c r="F19" s="13" t="n"/>
+      <c r="G19" s="13" t="n"/>
+      <c r="H19" s="13" t="n"/>
       <c r="I19" s="13" t="inlineStr">
         <is>
-          <t>20-2"-P-5036-112-3CS11P-H-TE</t>
-        </is>
-      </c>
-      <c r="J19" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K19" s="13" t="inlineStr">
-        <is>
-          <t>Rosemount</t>
-        </is>
-      </c>
+          <t>20-12"-P-5030-100-3CS11P</t>
+        </is>
+      </c>
+      <c r="J19" s="13" t="n"/>
+      <c r="K19" s="13" t="n"/>
       <c r="L19" s="13" t="n"/>
-      <c r="M19" s="13" t="inlineStr">
-        <is>
-          <t>Not Applicable</t>
-        </is>
-      </c>
-      <c r="N19" s="13" t="inlineStr">
-        <is>
-          <t>Teflon packing, metal seat</t>
-        </is>
-      </c>
+      <c r="M19" s="13" t="n"/>
+      <c r="N19" s="13" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="13" t="inlineStr">
         <is>
-          <t>V164</t>
+          <t>V118</t>
         </is>
       </c>
       <c r="B20" s="13" t="inlineStr">
         <is>
-          <t>Sheet 9</t>
-        </is>
-      </c>
-      <c r="C20" s="13" t="inlineStr">
-        <is>
-          <t>3/4" Class 800</t>
-        </is>
-      </c>
-      <c r="D20" s="13" t="inlineStr">
-        <is>
-          <t>SW x NPT</t>
-        </is>
-      </c>
-      <c r="E20" s="13" t="inlineStr">
-        <is>
-          <t>Gate</t>
-        </is>
-      </c>
-      <c r="F20" s="13" t="inlineStr">
-        <is>
-          <t>ASTM A105N</t>
-        </is>
-      </c>
-      <c r="G20" s="13" t="inlineStr">
-        <is>
-          <t>Trim # 8</t>
-        </is>
-      </c>
-      <c r="H20" s="13" t="inlineStr">
-        <is>
-          <t>Conventional</t>
-        </is>
-      </c>
+          <t>Sheet 12</t>
+        </is>
+      </c>
+      <c r="C20" s="13" t="n"/>
+      <c r="D20" s="13" t="n"/>
+      <c r="E20" s="13" t="n"/>
+      <c r="F20" s="13" t="n"/>
+      <c r="G20" s="13" t="n"/>
+      <c r="H20" s="13" t="n"/>
       <c r="I20" s="13" t="inlineStr">
         <is>
-          <t>20-6"-P-5038-114-3CS11P-H-TE</t>
-        </is>
-      </c>
-      <c r="J20" s="13" t="inlineStr">
-        <is>
-          <t>3CS11</t>
-        </is>
-      </c>
+          <t>20-12"-P-5030-100-3CS11P</t>
+        </is>
+      </c>
+      <c r="J20" s="13" t="n"/>
       <c r="K20" s="13" t="n"/>
       <c r="L20" s="13" t="n"/>
-      <c r="M20" s="13" t="inlineStr">
-        <is>
-          <t>GASACH1F</t>
-        </is>
-      </c>
-      <c r="N20" s="13" t="inlineStr">
-        <is>
-          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
-        </is>
-      </c>
+      <c r="M20" s="13" t="n"/>
+      <c r="N20" s="13" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="13" t="inlineStr">
         <is>
-          <t>V165</t>
+          <t>V119</t>
         </is>
       </c>
       <c r="B21" s="13" t="inlineStr">
         <is>
-          <t>Sheet 9</t>
-        </is>
-      </c>
-      <c r="C21" s="13" t="inlineStr">
-        <is>
-          <t>1/2"</t>
-        </is>
-      </c>
-      <c r="D21" s="13" t="inlineStr">
-        <is>
-          <t>FNPT</t>
-        </is>
-      </c>
-      <c r="E21" s="13" t="inlineStr">
-        <is>
-          <t>2-Valve Manifold - PG</t>
-        </is>
-      </c>
-      <c r="F21" s="13" t="inlineStr">
-        <is>
-          <t>Stainless Steel</t>
-        </is>
-      </c>
-      <c r="G21" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H21" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+          <t>Sheet 12</t>
+        </is>
+      </c>
+      <c r="C21" s="13" t="n"/>
+      <c r="D21" s="13" t="n"/>
+      <c r="E21" s="13" t="n"/>
+      <c r="F21" s="13" t="n"/>
+      <c r="G21" s="13" t="n"/>
+      <c r="H21" s="13" t="n"/>
       <c r="I21" s="13" t="inlineStr">
         <is>
-          <t>Instrumentation / Tubing</t>
-        </is>
-      </c>
-      <c r="J21" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K21" s="13" t="inlineStr">
-        <is>
-          <t>AGCO</t>
-        </is>
-      </c>
-      <c r="L21" s="13" t="inlineStr">
-        <is>
-          <t>PTM-VIS-4 with V6-VIS-4</t>
-        </is>
-      </c>
-      <c r="M21" s="13" t="inlineStr">
-        <is>
-          <t>Not Applicable</t>
-        </is>
-      </c>
-      <c r="N21" s="13" t="inlineStr">
-        <is>
-          <t>Teflon packing, metal seat</t>
-        </is>
-      </c>
+          <t>20-12"-P-5030-100-3CS11P</t>
+        </is>
+      </c>
+      <c r="J21" s="13" t="n"/>
+      <c r="K21" s="13" t="n"/>
+      <c r="L21" s="13" t="n"/>
+      <c r="M21" s="13" t="n"/>
+      <c r="N21" s="13" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="13" t="inlineStr">
         <is>
-          <t>V169</t>
+          <t>V120</t>
         </is>
       </c>
       <c r="B22" s="13" t="inlineStr">
         <is>
-          <t>Sheet 9</t>
+          <t>Sheet 2</t>
         </is>
       </c>
       <c r="C22" s="13" t="inlineStr">
         <is>
-          <t>6"-300#</t>
+          <t>3/4" Class 800</t>
         </is>
       </c>
       <c r="D22" s="13" t="inlineStr">
         <is>
-          <t>RF Flange</t>
+          <t>SW x NPT</t>
         </is>
       </c>
       <c r="E22" s="13" t="inlineStr">
@@ -14158,7 +14418,7 @@
       </c>
       <c r="F22" s="13" t="inlineStr">
         <is>
-          <t>ASTM A216 WCB</t>
+          <t>ASTM A105N</t>
         </is>
       </c>
       <c r="G22" s="13" t="inlineStr">
@@ -14168,12 +14428,12 @@
       </c>
       <c r="H22" s="13" t="inlineStr">
         <is>
-          <t>Full Port</t>
+          <t>Conventional</t>
         </is>
       </c>
       <c r="I22" s="13" t="inlineStr">
         <is>
-          <t>20-6"-P-5038-114-3CS11P-H-TE</t>
+          <t>20-12"-P-5030-100-3CS11P</t>
         </is>
       </c>
       <c r="J22" s="13" t="inlineStr">
@@ -14185,116 +14445,160 @@
       <c r="L22" s="13" t="n"/>
       <c r="M22" s="13" t="inlineStr">
         <is>
-          <t>GABARH1F</t>
+          <t>GASACH1F</t>
         </is>
       </c>
       <c r="N22" s="13" t="inlineStr">
         <is>
-          <t>Bolted Bonnet, API 600, OS&amp;Y, Flexible Graphite Packing, Flexible/Solid Wedge</t>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="13" t="inlineStr">
         <is>
-          <t>V206</t>
+          <t>V121</t>
         </is>
       </c>
       <c r="B23" s="13" t="inlineStr">
         <is>
-          <t>Sheet 9</t>
-        </is>
-      </c>
-      <c r="C23" s="13" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="13" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="13" t="n"/>
-      <c r="H23" s="13" t="n"/>
+          <t>Sheet 2</t>
+        </is>
+      </c>
+      <c r="C23" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D23" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E23" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F23" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G23" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H23" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
       <c r="I23" s="13" t="inlineStr">
         <is>
-          <t>20-6"-P-5038-200-3CS11P-H</t>
-        </is>
-      </c>
-      <c r="J23" s="13" t="n"/>
+          <t>20-12"-P-5030-100-3CS11P</t>
+        </is>
+      </c>
+      <c r="J23" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
       <c r="K23" s="13" t="n"/>
       <c r="L23" s="13" t="n"/>
-      <c r="M23" s="13" t="n"/>
-      <c r="N23" s="13" t="n"/>
+      <c r="M23" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N23" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="13" t="inlineStr">
         <is>
-          <t>V210</t>
+          <t>V122</t>
         </is>
       </c>
       <c r="B24" s="13" t="inlineStr">
         <is>
-          <t>Sheet 10</t>
+          <t>Sheet 2</t>
         </is>
       </c>
       <c r="C24" s="13" t="inlineStr">
         <is>
-          <t>2"-300#</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="D24" s="13" t="inlineStr">
         <is>
-          <t>RF Flange</t>
+          <t>FNPT</t>
         </is>
       </c>
       <c r="E24" s="13" t="inlineStr">
         <is>
-          <t>Gate</t>
+          <t>2-Valve Manifold - PG</t>
         </is>
       </c>
       <c r="F24" s="13" t="inlineStr">
         <is>
-          <t>ASTM A216 WCB</t>
+          <t>Stainless Steel</t>
         </is>
       </c>
       <c r="G24" s="13" t="inlineStr">
         <is>
-          <t>Trim # 8</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H24" s="13" t="inlineStr">
         <is>
-          <t>Full Port</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I24" s="13" t="inlineStr">
         <is>
-          <t>20-4"-P-5039-202-3CS11P-H</t>
+          <t>20-16"-P-5030-101-3CS11P</t>
         </is>
       </c>
       <c r="J24" s="13" t="inlineStr">
         <is>
-          <t>3CS11</t>
-        </is>
-      </c>
-      <c r="K24" s="13" t="n"/>
-      <c r="L24" s="13" t="n"/>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K24" s="13" t="inlineStr">
+        <is>
+          <t>AGCO</t>
+        </is>
+      </c>
+      <c r="L24" s="13" t="inlineStr">
+        <is>
+          <t>PTM-VIS-4 with V6-VIS-4</t>
+        </is>
+      </c>
       <c r="M24" s="13" t="inlineStr">
         <is>
-          <t>GABARH1F</t>
+          <t>Not Applicable</t>
         </is>
       </c>
       <c r="N24" s="13" t="inlineStr">
         <is>
-          <t>Bolted Bonnet, API 600, OS&amp;Y, Flexible Graphite Packing, Flexible/Solid Wedge</t>
+          <t>Teflon packing, metal seat</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="13" t="inlineStr">
         <is>
-          <t>V211</t>
+          <t>V123</t>
         </is>
       </c>
       <c r="B25" s="13" t="inlineStr">
         <is>
-          <t>Sheet 10</t>
+          <t>Sheet 2</t>
         </is>
       </c>
       <c r="C25" s="13" t="inlineStr">
@@ -14329,7 +14633,7 @@
       </c>
       <c r="I25" s="13" t="inlineStr">
         <is>
-          <t>20-4"-P-5039-202-3CS11P-H</t>
+          <t>20-12"-P-5030-100-3CS11P</t>
         </is>
       </c>
       <c r="J25" s="13" t="inlineStr">
@@ -14353,12 +14657,12 @@
     <row r="26">
       <c r="A26" s="13" t="inlineStr">
         <is>
-          <t>V212</t>
+          <t>V124</t>
         </is>
       </c>
       <c r="B26" s="13" t="inlineStr">
         <is>
-          <t>Sheet 10</t>
+          <t>Sheet 2</t>
         </is>
       </c>
       <c r="C26" s="13" t="inlineStr">
@@ -14393,7 +14697,7 @@
       </c>
       <c r="I26" s="13" t="inlineStr">
         <is>
-          <t>Instrumentation / Tubing</t>
+          <t>20-16"-P-5030-101-3CS11P</t>
         </is>
       </c>
       <c r="J26" s="13" t="inlineStr">
@@ -14425,30 +14729,4314 @@
     <row r="27">
       <c r="A27" s="13" t="inlineStr">
         <is>
-          <t>V214</t>
+          <t>V125</t>
         </is>
       </c>
       <c r="B27" s="13" t="inlineStr">
         <is>
-          <t>Sheet 10</t>
-        </is>
-      </c>
-      <c r="C27" s="13" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="13" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="13" t="n"/>
-      <c r="H27" s="13" t="n"/>
+          <t>Sheet 2</t>
+        </is>
+      </c>
+      <c r="C27" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D27" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E27" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F27" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G27" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H27" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
       <c r="I27" s="13" t="inlineStr">
         <is>
-          <t>20-4"-P-5039-202-3CS11P-H</t>
-        </is>
-      </c>
-      <c r="J27" s="13" t="n"/>
+          <t>20-12"-P-5030-100-3CS11P</t>
+        </is>
+      </c>
+      <c r="J27" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
       <c r="K27" s="13" t="n"/>
       <c r="L27" s="13" t="n"/>
-      <c r="M27" s="13" t="n"/>
-      <c r="N27" s="13" t="n"/>
+      <c r="M27" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N27" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="13" t="inlineStr">
+        <is>
+          <t>V126</t>
+        </is>
+      </c>
+      <c r="B28" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 2</t>
+        </is>
+      </c>
+      <c r="C28" s="13" t="inlineStr">
+        <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="D28" s="13" t="inlineStr">
+        <is>
+          <t>FNPT</t>
+        </is>
+      </c>
+      <c r="E28" s="13" t="inlineStr">
+        <is>
+          <t>2-Valve Manifold - PG</t>
+        </is>
+      </c>
+      <c r="F28" s="13" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="G28" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H28" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I28" s="13" t="inlineStr">
+        <is>
+          <t>20-16"-P-5030-101-3CS11P</t>
+        </is>
+      </c>
+      <c r="J28" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K28" s="13" t="inlineStr">
+        <is>
+          <t>AGCO</t>
+        </is>
+      </c>
+      <c r="L28" s="13" t="inlineStr">
+        <is>
+          <t>PTM-VIS-4 with V6-VIS-4</t>
+        </is>
+      </c>
+      <c r="M28" s="13" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="N28" s="13" t="inlineStr">
+        <is>
+          <t>Teflon packing, metal seat</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="13" t="inlineStr">
+        <is>
+          <t>V127</t>
+        </is>
+      </c>
+      <c r="B29" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 2</t>
+        </is>
+      </c>
+      <c r="C29" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D29" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E29" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F29" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G29" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H29" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="I29" s="13" t="inlineStr">
+        <is>
+          <t>20-12"-P-5030-100-3CS11P</t>
+        </is>
+      </c>
+      <c r="J29" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K29" s="13" t="n"/>
+      <c r="L29" s="13" t="n"/>
+      <c r="M29" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N29" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="13" t="inlineStr">
+        <is>
+          <t>V128</t>
+        </is>
+      </c>
+      <c r="B30" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 2</t>
+        </is>
+      </c>
+      <c r="C30" s="13" t="inlineStr">
+        <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="D30" s="13" t="inlineStr">
+        <is>
+          <t>FNPT</t>
+        </is>
+      </c>
+      <c r="E30" s="13" t="inlineStr">
+        <is>
+          <t>2-Valve Manifold - PG</t>
+        </is>
+      </c>
+      <c r="F30" s="13" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="G30" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H30" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I30" s="13" t="inlineStr">
+        <is>
+          <t>20-16"-P-5030-101-3CS11P</t>
+        </is>
+      </c>
+      <c r="J30" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K30" s="13" t="inlineStr">
+        <is>
+          <t>AGCO</t>
+        </is>
+      </c>
+      <c r="L30" s="13" t="inlineStr">
+        <is>
+          <t>PTM-VIS-4 with V6-VIS-4</t>
+        </is>
+      </c>
+      <c r="M30" s="13" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="N30" s="13" t="inlineStr">
+        <is>
+          <t>Teflon packing, metal seat</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="13" t="inlineStr">
+        <is>
+          <t>V129</t>
+        </is>
+      </c>
+      <c r="B31" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 2</t>
+        </is>
+      </c>
+      <c r="C31" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D31" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E31" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F31" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G31" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H31" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="I31" s="13" t="inlineStr">
+        <is>
+          <t>20-12"-P-5030-100-3CS11P</t>
+        </is>
+      </c>
+      <c r="J31" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K31" s="13" t="n"/>
+      <c r="L31" s="13" t="n"/>
+      <c r="M31" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N31" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="13" t="inlineStr">
+        <is>
+          <t>V130</t>
+        </is>
+      </c>
+      <c r="B32" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 2</t>
+        </is>
+      </c>
+      <c r="C32" s="13" t="inlineStr">
+        <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="D32" s="13" t="inlineStr">
+        <is>
+          <t>FNPT</t>
+        </is>
+      </c>
+      <c r="E32" s="13" t="inlineStr">
+        <is>
+          <t>2-Valve Manifold - PG</t>
+        </is>
+      </c>
+      <c r="F32" s="13" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="G32" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H32" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I32" s="13" t="inlineStr">
+        <is>
+          <t>20-16"-P-5030-101-3CS11P</t>
+        </is>
+      </c>
+      <c r="J32" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K32" s="13" t="inlineStr">
+        <is>
+          <t>AGCO</t>
+        </is>
+      </c>
+      <c r="L32" s="13" t="inlineStr">
+        <is>
+          <t>PTM-VIS-4 with V6-VIS-4</t>
+        </is>
+      </c>
+      <c r="M32" s="13" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="N32" s="13" t="inlineStr">
+        <is>
+          <t>Teflon packing, metal seat</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="13" t="inlineStr">
+        <is>
+          <t>V131</t>
+        </is>
+      </c>
+      <c r="B33" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 2</t>
+        </is>
+      </c>
+      <c r="C33" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D33" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E33" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F33" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G33" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H33" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="I33" s="13" t="inlineStr">
+        <is>
+          <t>20-12"-P-5030-100-3CS11P</t>
+        </is>
+      </c>
+      <c r="J33" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K33" s="13" t="n"/>
+      <c r="L33" s="13" t="n"/>
+      <c r="M33" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N33" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="13" t="inlineStr">
+        <is>
+          <t>V132</t>
+        </is>
+      </c>
+      <c r="B34" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 2</t>
+        </is>
+      </c>
+      <c r="C34" s="13" t="inlineStr">
+        <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="D34" s="13" t="inlineStr">
+        <is>
+          <t>FNPT</t>
+        </is>
+      </c>
+      <c r="E34" s="13" t="inlineStr">
+        <is>
+          <t>2-Valve Manifold - PG</t>
+        </is>
+      </c>
+      <c r="F34" s="13" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="G34" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H34" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I34" s="13" t="inlineStr">
+        <is>
+          <t>20-16"-P-5030-101-3CS11P</t>
+        </is>
+      </c>
+      <c r="J34" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K34" s="13" t="inlineStr">
+        <is>
+          <t>AGCO</t>
+        </is>
+      </c>
+      <c r="L34" s="13" t="inlineStr">
+        <is>
+          <t>PTM-VIS-4 with V6-VIS-4</t>
+        </is>
+      </c>
+      <c r="M34" s="13" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="N34" s="13" t="inlineStr">
+        <is>
+          <t>Teflon packing, metal seat</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="13" t="inlineStr">
+        <is>
+          <t>V133</t>
+        </is>
+      </c>
+      <c r="B35" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 3</t>
+        </is>
+      </c>
+      <c r="C35" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D35" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E35" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F35" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G35" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H35" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="I35" s="13" t="inlineStr">
+        <is>
+          <t>20-12"-P-5030-100-3CS11P</t>
+        </is>
+      </c>
+      <c r="J35" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K35" s="13" t="n"/>
+      <c r="L35" s="13" t="n"/>
+      <c r="M35" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N35" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="13" t="inlineStr">
+        <is>
+          <t>V134</t>
+        </is>
+      </c>
+      <c r="B36" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 3</t>
+        </is>
+      </c>
+      <c r="C36" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D36" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E36" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F36" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G36" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H36" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="I36" s="13" t="inlineStr">
+        <is>
+          <t>20-12"-P-5030-100-3CS11P</t>
+        </is>
+      </c>
+      <c r="J36" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K36" s="13" t="n"/>
+      <c r="L36" s="13" t="n"/>
+      <c r="M36" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N36" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="13" t="inlineStr">
+        <is>
+          <t>V135</t>
+        </is>
+      </c>
+      <c r="B37" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 3</t>
+        </is>
+      </c>
+      <c r="C37" s="13" t="inlineStr">
+        <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="D37" s="13" t="inlineStr">
+        <is>
+          <t>FNPT</t>
+        </is>
+      </c>
+      <c r="E37" s="13" t="inlineStr">
+        <is>
+          <t>2-Valve Manifold - PG</t>
+        </is>
+      </c>
+      <c r="F37" s="13" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="G37" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H37" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I37" s="13" t="inlineStr">
+        <is>
+          <t>20-16"-P-5030-101-3CS11P</t>
+        </is>
+      </c>
+      <c r="J37" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K37" s="13" t="inlineStr">
+        <is>
+          <t>AGCO</t>
+        </is>
+      </c>
+      <c r="L37" s="13" t="inlineStr">
+        <is>
+          <t>PTM-VIS-4 with V6-VIS-4</t>
+        </is>
+      </c>
+      <c r="M37" s="13" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="N37" s="13" t="inlineStr">
+        <is>
+          <t>Teflon packing, metal seat</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="13" t="inlineStr">
+        <is>
+          <t>V136</t>
+        </is>
+      </c>
+      <c r="B38" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 4</t>
+        </is>
+      </c>
+      <c r="C38" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D38" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E38" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F38" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G38" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H38" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="I38" s="13" t="inlineStr">
+        <is>
+          <t>20-12"-P-5030-100-3CS11P</t>
+        </is>
+      </c>
+      <c r="J38" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K38" s="13" t="n"/>
+      <c r="L38" s="13" t="n"/>
+      <c r="M38" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N38" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="13" t="inlineStr">
+        <is>
+          <t>V137</t>
+        </is>
+      </c>
+      <c r="B39" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 4</t>
+        </is>
+      </c>
+      <c r="C39" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D39" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E39" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F39" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G39" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H39" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="I39" s="13" t="inlineStr">
+        <is>
+          <t>20-12"-P-5030-100-3CS11P</t>
+        </is>
+      </c>
+      <c r="J39" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K39" s="13" t="n"/>
+      <c r="L39" s="13" t="n"/>
+      <c r="M39" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N39" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="13" t="inlineStr">
+        <is>
+          <t>V138</t>
+        </is>
+      </c>
+      <c r="B40" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 4</t>
+        </is>
+      </c>
+      <c r="C40" s="13" t="inlineStr">
+        <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="D40" s="13" t="inlineStr">
+        <is>
+          <t>FNPT</t>
+        </is>
+      </c>
+      <c r="E40" s="13" t="inlineStr">
+        <is>
+          <t>2-Valve Manifold - PG</t>
+        </is>
+      </c>
+      <c r="F40" s="13" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="G40" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H40" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I40" s="13" t="inlineStr">
+        <is>
+          <t>20-16"-P-5030-101-3CS11P</t>
+        </is>
+      </c>
+      <c r="J40" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K40" s="13" t="inlineStr">
+        <is>
+          <t>AGCO</t>
+        </is>
+      </c>
+      <c r="L40" s="13" t="inlineStr">
+        <is>
+          <t>PTM-VIS-4 with V6-VIS-4</t>
+        </is>
+      </c>
+      <c r="M40" s="13" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="N40" s="13" t="inlineStr">
+        <is>
+          <t>Teflon packing, metal seat</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="13" t="inlineStr">
+        <is>
+          <t>V139</t>
+        </is>
+      </c>
+      <c r="B41" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 4</t>
+        </is>
+      </c>
+      <c r="C41" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D41" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E41" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F41" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G41" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H41" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="I41" s="13" t="inlineStr">
+        <is>
+          <t>20-12"-P-5030-100-3CS11P</t>
+        </is>
+      </c>
+      <c r="J41" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K41" s="13" t="n"/>
+      <c r="L41" s="13" t="n"/>
+      <c r="M41" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N41" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="13" t="inlineStr">
+        <is>
+          <t>V140</t>
+        </is>
+      </c>
+      <c r="B42" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 4</t>
+        </is>
+      </c>
+      <c r="C42" s="13" t="inlineStr">
+        <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="D42" s="13" t="inlineStr">
+        <is>
+          <t>FNPT</t>
+        </is>
+      </c>
+      <c r="E42" s="13" t="inlineStr">
+        <is>
+          <t>2-Valve Manifold - PG</t>
+        </is>
+      </c>
+      <c r="F42" s="13" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="G42" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H42" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I42" s="13" t="inlineStr">
+        <is>
+          <t>20-16"-P-5030-101-3CS11P</t>
+        </is>
+      </c>
+      <c r="J42" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K42" s="13" t="inlineStr">
+        <is>
+          <t>AGCO</t>
+        </is>
+      </c>
+      <c r="L42" s="13" t="inlineStr">
+        <is>
+          <t>PTM-VIS-4 with V6-VIS-4</t>
+        </is>
+      </c>
+      <c r="M42" s="13" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="N42" s="13" t="inlineStr">
+        <is>
+          <t>Teflon packing, metal seat</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="13" t="inlineStr">
+        <is>
+          <t>V141</t>
+        </is>
+      </c>
+      <c r="B43" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 4</t>
+        </is>
+      </c>
+      <c r="C43" s="13" t="inlineStr">
+        <is>
+          <t>8"-300#</t>
+        </is>
+      </c>
+      <c r="D43" s="13" t="inlineStr">
+        <is>
+          <t>RF Flange</t>
+        </is>
+      </c>
+      <c r="E43" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F43" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A216 WCB</t>
+        </is>
+      </c>
+      <c r="G43" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H43" s="13" t="inlineStr">
+        <is>
+          <t>Full Port</t>
+        </is>
+      </c>
+      <c r="I43" s="13" t="inlineStr">
+        <is>
+          <t>20-8"-P-5033-107-3CS11P-HP</t>
+        </is>
+      </c>
+      <c r="J43" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K43" s="13" t="n"/>
+      <c r="L43" s="13" t="n"/>
+      <c r="M43" s="13" t="inlineStr">
+        <is>
+          <t>GABARH2F</t>
+        </is>
+      </c>
+      <c r="N43" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, Gear Operated, API 600, OS&amp;Y, Bevel Gear Operator, Flexible Graphite Packing, Flexible/Solid Wedge</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="13" t="inlineStr">
+        <is>
+          <t>V142</t>
+        </is>
+      </c>
+      <c r="B44" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 4</t>
+        </is>
+      </c>
+      <c r="C44" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D44" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E44" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F44" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G44" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H44" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="I44" s="13" t="inlineStr">
+        <is>
+          <t>20-12"-P-5030-100-3CS11P</t>
+        </is>
+      </c>
+      <c r="J44" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K44" s="13" t="n"/>
+      <c r="L44" s="13" t="n"/>
+      <c r="M44" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N44" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="13" t="inlineStr">
+        <is>
+          <t>V143</t>
+        </is>
+      </c>
+      <c r="B45" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 4</t>
+        </is>
+      </c>
+      <c r="C45" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D45" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E45" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F45" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G45" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H45" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="I45" s="13" t="inlineStr">
+        <is>
+          <t>20-12"-P-5030-100-3CS11P</t>
+        </is>
+      </c>
+      <c r="J45" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K45" s="13" t="n"/>
+      <c r="L45" s="13" t="n"/>
+      <c r="M45" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N45" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="13" t="inlineStr">
+        <is>
+          <t>V144</t>
+        </is>
+      </c>
+      <c r="B46" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 4</t>
+        </is>
+      </c>
+      <c r="C46" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D46" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E46" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F46" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G46" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H46" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="I46" s="13" t="inlineStr">
+        <is>
+          <t>20-12"-P-5030-100-3CS11P</t>
+        </is>
+      </c>
+      <c r="J46" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K46" s="13" t="n"/>
+      <c r="L46" s="13" t="n"/>
+      <c r="M46" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N46" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="13" t="inlineStr">
+        <is>
+          <t>V145</t>
+        </is>
+      </c>
+      <c r="B47" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 4</t>
+        </is>
+      </c>
+      <c r="C47" s="13" t="inlineStr">
+        <is>
+          <t>8"-300#</t>
+        </is>
+      </c>
+      <c r="D47" s="13" t="inlineStr">
+        <is>
+          <t>RF Flange</t>
+        </is>
+      </c>
+      <c r="E47" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F47" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A216 WCB</t>
+        </is>
+      </c>
+      <c r="G47" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H47" s="13" t="inlineStr">
+        <is>
+          <t>Full Port</t>
+        </is>
+      </c>
+      <c r="I47" s="13" t="inlineStr">
+        <is>
+          <t>20-8"-P-5033-107-3CS11P-HP</t>
+        </is>
+      </c>
+      <c r="J47" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K47" s="13" t="n"/>
+      <c r="L47" s="13" t="n"/>
+      <c r="M47" s="13" t="inlineStr">
+        <is>
+          <t>GABARH2F</t>
+        </is>
+      </c>
+      <c r="N47" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, Gear Operated, API 600, OS&amp;Y, Bevel Gear Operator, Flexible Graphite Packing, Flexible/Solid Wedge</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="13" t="inlineStr">
+        <is>
+          <t>V146</t>
+        </is>
+      </c>
+      <c r="B48" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 4</t>
+        </is>
+      </c>
+      <c r="C48" s="13" t="n"/>
+      <c r="D48" s="13" t="n"/>
+      <c r="E48" s="13" t="n"/>
+      <c r="F48" s="13" t="n"/>
+      <c r="G48" s="13" t="n"/>
+      <c r="H48" s="13" t="n"/>
+      <c r="I48" s="13" t="inlineStr">
+        <is>
+          <t>20-12"-P-5030-100-3CS11P</t>
+        </is>
+      </c>
+      <c r="J48" s="13" t="n"/>
+      <c r="K48" s="13" t="n"/>
+      <c r="L48" s="13" t="n"/>
+      <c r="M48" s="13" t="n"/>
+      <c r="N48" s="13" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="13" t="inlineStr">
+        <is>
+          <t>CV147</t>
+        </is>
+      </c>
+      <c r="B49" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 4</t>
+        </is>
+      </c>
+      <c r="C49" s="13" t="inlineStr">
+        <is>
+          <t>8"-300#</t>
+        </is>
+      </c>
+      <c r="D49" s="13" t="inlineStr">
+        <is>
+          <t>RF Flange</t>
+        </is>
+      </c>
+      <c r="E49" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F49" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A216 WCB</t>
+        </is>
+      </c>
+      <c r="G49" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H49" s="13" t="inlineStr">
+        <is>
+          <t>Full Port</t>
+        </is>
+      </c>
+      <c r="I49" s="13" t="inlineStr">
+        <is>
+          <t>20-8"-P-5033-107-3CS11P-HP</t>
+        </is>
+      </c>
+      <c r="J49" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K49" s="13" t="n"/>
+      <c r="L49" s="13" t="n"/>
+      <c r="M49" s="13" t="inlineStr">
+        <is>
+          <t>GABARH2F</t>
+        </is>
+      </c>
+      <c r="N49" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, Gear Operated, API 600, OS&amp;Y, Bevel Gear Operator, Flexible Graphite Packing, Flexible/Solid Wedge</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="13" t="inlineStr">
+        <is>
+          <t>V148</t>
+        </is>
+      </c>
+      <c r="B50" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 4</t>
+        </is>
+      </c>
+      <c r="C50" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D50" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E50" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F50" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G50" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H50" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="I50" s="13" t="inlineStr">
+        <is>
+          <t>20-12"-P-5030-100-3CS11P</t>
+        </is>
+      </c>
+      <c r="J50" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K50" s="13" t="n"/>
+      <c r="L50" s="13" t="n"/>
+      <c r="M50" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N50" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="13" t="inlineStr">
+        <is>
+          <t>V149</t>
+        </is>
+      </c>
+      <c r="B51" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 6</t>
+        </is>
+      </c>
+      <c r="C51" s="13" t="inlineStr">
+        <is>
+          <t>8"-300#</t>
+        </is>
+      </c>
+      <c r="D51" s="13" t="inlineStr">
+        <is>
+          <t>RF Flange</t>
+        </is>
+      </c>
+      <c r="E51" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F51" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A216 WCB</t>
+        </is>
+      </c>
+      <c r="G51" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H51" s="13" t="inlineStr">
+        <is>
+          <t>Full Port</t>
+        </is>
+      </c>
+      <c r="I51" s="13" t="inlineStr">
+        <is>
+          <t>20-8"-P-5033-107-3CS11P-HP</t>
+        </is>
+      </c>
+      <c r="J51" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K51" s="13" t="n"/>
+      <c r="L51" s="13" t="n"/>
+      <c r="M51" s="13" t="inlineStr">
+        <is>
+          <t>GABARH2F</t>
+        </is>
+      </c>
+      <c r="N51" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, Gear Operated, API 600, OS&amp;Y, Bevel Gear Operator, Flexible Graphite Packing, Flexible/Solid Wedge</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="13" t="inlineStr">
+        <is>
+          <t>V150</t>
+        </is>
+      </c>
+      <c r="B52" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 6</t>
+        </is>
+      </c>
+      <c r="C52" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D52" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E52" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F52" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G52" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H52" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="I52" s="13" t="inlineStr">
+        <is>
+          <t>20-12"-P-5030-100-3CS11P</t>
+        </is>
+      </c>
+      <c r="J52" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K52" s="13" t="n"/>
+      <c r="L52" s="13" t="n"/>
+      <c r="M52" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N52" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="13" t="inlineStr">
+        <is>
+          <t>V151</t>
+        </is>
+      </c>
+      <c r="B53" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 6</t>
+        </is>
+      </c>
+      <c r="C53" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D53" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E53" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F53" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G53" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H53" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="I53" s="13" t="inlineStr">
+        <is>
+          <t>20-12"-P-5030-100-3CS11P</t>
+        </is>
+      </c>
+      <c r="J53" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K53" s="13" t="n"/>
+      <c r="L53" s="13" t="n"/>
+      <c r="M53" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N53" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="13" t="inlineStr">
+        <is>
+          <t>V152</t>
+        </is>
+      </c>
+      <c r="B54" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 6</t>
+        </is>
+      </c>
+      <c r="C54" s="13" t="inlineStr">
+        <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="D54" s="13" t="inlineStr">
+        <is>
+          <t>FNPT</t>
+        </is>
+      </c>
+      <c r="E54" s="13" t="inlineStr">
+        <is>
+          <t>2-Valve Manifold - PG</t>
+        </is>
+      </c>
+      <c r="F54" s="13" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="G54" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H54" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I54" s="13" t="inlineStr">
+        <is>
+          <t>20-16"-P-5030-101-3CS11P</t>
+        </is>
+      </c>
+      <c r="J54" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K54" s="13" t="inlineStr">
+        <is>
+          <t>AGCO</t>
+        </is>
+      </c>
+      <c r="L54" s="13" t="inlineStr">
+        <is>
+          <t>PTM-VIS-4 with V6-VIS-4</t>
+        </is>
+      </c>
+      <c r="M54" s="13" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="N54" s="13" t="inlineStr">
+        <is>
+          <t>Teflon packing, metal seat</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="13" t="inlineStr">
+        <is>
+          <t>V153</t>
+        </is>
+      </c>
+      <c r="B55" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 7</t>
+        </is>
+      </c>
+      <c r="C55" s="13" t="n"/>
+      <c r="D55" s="13" t="n"/>
+      <c r="E55" s="13" t="n"/>
+      <c r="F55" s="13" t="n"/>
+      <c r="G55" s="13" t="n"/>
+      <c r="H55" s="13" t="n"/>
+      <c r="I55" s="13" t="inlineStr">
+        <is>
+          <t>20-12"-P-5030-100-3CS11P</t>
+        </is>
+      </c>
+      <c r="J55" s="13" t="n"/>
+      <c r="K55" s="13" t="n"/>
+      <c r="L55" s="13" t="n"/>
+      <c r="M55" s="13" t="n"/>
+      <c r="N55" s="13" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="13" t="inlineStr">
+        <is>
+          <t>V154</t>
+        </is>
+      </c>
+      <c r="B56" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 7</t>
+        </is>
+      </c>
+      <c r="C56" s="13" t="n"/>
+      <c r="D56" s="13" t="n"/>
+      <c r="E56" s="13" t="n"/>
+      <c r="F56" s="13" t="n"/>
+      <c r="G56" s="13" t="n"/>
+      <c r="H56" s="13" t="n"/>
+      <c r="I56" s="13" t="inlineStr">
+        <is>
+          <t>20-12"-P-5030-100-3CS11P</t>
+        </is>
+      </c>
+      <c r="J56" s="13" t="n"/>
+      <c r="K56" s="13" t="n"/>
+      <c r="L56" s="13" t="n"/>
+      <c r="M56" s="13" t="n"/>
+      <c r="N56" s="13" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="13" t="inlineStr">
+        <is>
+          <t>V155</t>
+        </is>
+      </c>
+      <c r="B57" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 7</t>
+        </is>
+      </c>
+      <c r="C57" s="13" t="n"/>
+      <c r="D57" s="13" t="n"/>
+      <c r="E57" s="13" t="n"/>
+      <c r="F57" s="13" t="n"/>
+      <c r="G57" s="13" t="n"/>
+      <c r="H57" s="13" t="n"/>
+      <c r="I57" s="13" t="inlineStr">
+        <is>
+          <t>20-12"-P-5030-100-3CS11P</t>
+        </is>
+      </c>
+      <c r="J57" s="13" t="n"/>
+      <c r="K57" s="13" t="n"/>
+      <c r="L57" s="13" t="n"/>
+      <c r="M57" s="13" t="n"/>
+      <c r="N57" s="13" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="13" t="inlineStr">
+        <is>
+          <t>V156</t>
+        </is>
+      </c>
+      <c r="B58" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 7</t>
+        </is>
+      </c>
+      <c r="C58" s="13" t="n"/>
+      <c r="D58" s="13" t="n"/>
+      <c r="E58" s="13" t="n"/>
+      <c r="F58" s="13" t="n"/>
+      <c r="G58" s="13" t="n"/>
+      <c r="H58" s="13" t="n"/>
+      <c r="I58" s="13" t="inlineStr">
+        <is>
+          <t>20-12"-P-5030-100-3CS11P</t>
+        </is>
+      </c>
+      <c r="J58" s="13" t="n"/>
+      <c r="K58" s="13" t="n"/>
+      <c r="L58" s="13" t="n"/>
+      <c r="M58" s="13" t="n"/>
+      <c r="N58" s="13" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="13" t="inlineStr">
+        <is>
+          <t>V157</t>
+        </is>
+      </c>
+      <c r="B59" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 7</t>
+        </is>
+      </c>
+      <c r="C59" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D59" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E59" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F59" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G59" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H59" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="I59" s="13" t="inlineStr">
+        <is>
+          <t>20-12"-P-5030-100-3CS11P</t>
+        </is>
+      </c>
+      <c r="J59" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K59" s="13" t="n"/>
+      <c r="L59" s="13" t="n"/>
+      <c r="M59" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N59" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="13" t="inlineStr">
+        <is>
+          <t>V158</t>
+        </is>
+      </c>
+      <c r="B60" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 7</t>
+        </is>
+      </c>
+      <c r="C60" s="13" t="inlineStr">
+        <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="D60" s="13" t="inlineStr">
+        <is>
+          <t>FNPT</t>
+        </is>
+      </c>
+      <c r="E60" s="13" t="inlineStr">
+        <is>
+          <t>2-Valve Manifold - PG</t>
+        </is>
+      </c>
+      <c r="F60" s="13" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="G60" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H60" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I60" s="13" t="inlineStr">
+        <is>
+          <t>20-16"-P-5030-101-3CS11P</t>
+        </is>
+      </c>
+      <c r="J60" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K60" s="13" t="inlineStr">
+        <is>
+          <t>AGCO</t>
+        </is>
+      </c>
+      <c r="L60" s="13" t="inlineStr">
+        <is>
+          <t>PTM-VIS-4 with V6-VIS-4</t>
+        </is>
+      </c>
+      <c r="M60" s="13" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="N60" s="13" t="inlineStr">
+        <is>
+          <t>Teflon packing, metal seat</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="13" t="inlineStr">
+        <is>
+          <t>V159</t>
+        </is>
+      </c>
+      <c r="B61" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 7</t>
+        </is>
+      </c>
+      <c r="C61" s="13" t="n"/>
+      <c r="D61" s="13" t="n"/>
+      <c r="E61" s="13" t="n"/>
+      <c r="F61" s="13" t="n"/>
+      <c r="G61" s="13" t="n"/>
+      <c r="H61" s="13" t="n"/>
+      <c r="I61" s="13" t="inlineStr">
+        <is>
+          <t>20-12"-P-5030-100-3CS11P</t>
+        </is>
+      </c>
+      <c r="J61" s="13" t="n"/>
+      <c r="K61" s="13" t="n"/>
+      <c r="L61" s="13" t="n"/>
+      <c r="M61" s="13" t="n"/>
+      <c r="N61" s="13" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="13" t="inlineStr">
+        <is>
+          <t>V160</t>
+        </is>
+      </c>
+      <c r="B62" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 7</t>
+        </is>
+      </c>
+      <c r="C62" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D62" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E62" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F62" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G62" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H62" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="I62" s="13" t="inlineStr">
+        <is>
+          <t>20-12"-P-5030-100-3CS11P</t>
+        </is>
+      </c>
+      <c r="J62" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K62" s="13" t="n"/>
+      <c r="L62" s="13" t="n"/>
+      <c r="M62" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N62" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="13" t="inlineStr">
+        <is>
+          <t>V161</t>
+        </is>
+      </c>
+      <c r="B63" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 7</t>
+        </is>
+      </c>
+      <c r="C63" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D63" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E63" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F63" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G63" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H63" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="I63" s="13" t="inlineStr">
+        <is>
+          <t>20-12"-P-5030-100-3CS11P</t>
+        </is>
+      </c>
+      <c r="J63" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K63" s="13" t="n"/>
+      <c r="L63" s="13" t="n"/>
+      <c r="M63" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N63" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="13" t="inlineStr">
+        <is>
+          <t>V162</t>
+        </is>
+      </c>
+      <c r="B64" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 7</t>
+        </is>
+      </c>
+      <c r="C64" s="13" t="n"/>
+      <c r="D64" s="13" t="n"/>
+      <c r="E64" s="13" t="n"/>
+      <c r="F64" s="13" t="n"/>
+      <c r="G64" s="13" t="n"/>
+      <c r="H64" s="13" t="n"/>
+      <c r="I64" s="13" t="inlineStr">
+        <is>
+          <t>20-12"-P-5030-100-3CS11P</t>
+        </is>
+      </c>
+      <c r="J64" s="13" t="n"/>
+      <c r="K64" s="13" t="n"/>
+      <c r="L64" s="13" t="n"/>
+      <c r="M64" s="13" t="n"/>
+      <c r="N64" s="13" t="n"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="13" t="inlineStr">
+        <is>
+          <t>V163</t>
+        </is>
+      </c>
+      <c r="B65" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 7</t>
+        </is>
+      </c>
+      <c r="C65" s="13" t="n"/>
+      <c r="D65" s="13" t="n"/>
+      <c r="E65" s="13" t="n"/>
+      <c r="F65" s="13" t="n"/>
+      <c r="G65" s="13" t="n"/>
+      <c r="H65" s="13" t="n"/>
+      <c r="I65" s="13" t="inlineStr">
+        <is>
+          <t>20-12"-P-5030-100-3CS11P</t>
+        </is>
+      </c>
+      <c r="J65" s="13" t="n"/>
+      <c r="K65" s="13" t="n"/>
+      <c r="L65" s="13" t="n"/>
+      <c r="M65" s="13" t="n"/>
+      <c r="N65" s="13" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="13" t="inlineStr">
+        <is>
+          <t>V164</t>
+        </is>
+      </c>
+      <c r="B66" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 9</t>
+        </is>
+      </c>
+      <c r="C66" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D66" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E66" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F66" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G66" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H66" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="I66" s="13" t="inlineStr">
+        <is>
+          <t>20-12"-P-5030-100-3CS11P</t>
+        </is>
+      </c>
+      <c r="J66" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K66" s="13" t="n"/>
+      <c r="L66" s="13" t="n"/>
+      <c r="M66" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N66" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="13" t="inlineStr">
+        <is>
+          <t>V165</t>
+        </is>
+      </c>
+      <c r="B67" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 9</t>
+        </is>
+      </c>
+      <c r="C67" s="13" t="inlineStr">
+        <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="D67" s="13" t="inlineStr">
+        <is>
+          <t>FNPT</t>
+        </is>
+      </c>
+      <c r="E67" s="13" t="inlineStr">
+        <is>
+          <t>2-Valve Manifold - PG</t>
+        </is>
+      </c>
+      <c r="F67" s="13" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="G67" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H67" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I67" s="13" t="inlineStr">
+        <is>
+          <t>20-16"-P-5030-101-3CS11P</t>
+        </is>
+      </c>
+      <c r="J67" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K67" s="13" t="inlineStr">
+        <is>
+          <t>AGCO</t>
+        </is>
+      </c>
+      <c r="L67" s="13" t="inlineStr">
+        <is>
+          <t>PTM-VIS-4 with V6-VIS-4</t>
+        </is>
+      </c>
+      <c r="M67" s="13" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="N67" s="13" t="inlineStr">
+        <is>
+          <t>Teflon packing, metal seat</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="13" t="inlineStr">
+        <is>
+          <t>V166</t>
+        </is>
+      </c>
+      <c r="B68" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 9</t>
+        </is>
+      </c>
+      <c r="C68" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D68" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E68" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F68" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G68" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H68" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="I68" s="13" t="inlineStr">
+        <is>
+          <t>20-12"-P-5030-100-3CS11P</t>
+        </is>
+      </c>
+      <c r="J68" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K68" s="13" t="n"/>
+      <c r="L68" s="13" t="n"/>
+      <c r="M68" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N68" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="13" t="inlineStr">
+        <is>
+          <t>V167</t>
+        </is>
+      </c>
+      <c r="B69" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 9</t>
+        </is>
+      </c>
+      <c r="C69" s="13" t="inlineStr">
+        <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="D69" s="13" t="inlineStr">
+        <is>
+          <t>FNPT</t>
+        </is>
+      </c>
+      <c r="E69" s="13" t="inlineStr">
+        <is>
+          <t>2-Valve Manifold - PG</t>
+        </is>
+      </c>
+      <c r="F69" s="13" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="G69" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H69" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I69" s="13" t="inlineStr">
+        <is>
+          <t>20-16"-P-5030-101-3CS11P</t>
+        </is>
+      </c>
+      <c r="J69" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K69" s="13" t="inlineStr">
+        <is>
+          <t>AGCO</t>
+        </is>
+      </c>
+      <c r="L69" s="13" t="inlineStr">
+        <is>
+          <t>PTM-VIS-4 with V6-VIS-4</t>
+        </is>
+      </c>
+      <c r="M69" s="13" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="N69" s="13" t="inlineStr">
+        <is>
+          <t>Teflon packing, metal seat</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="13" t="inlineStr">
+        <is>
+          <t>V168</t>
+        </is>
+      </c>
+      <c r="B70" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 9</t>
+        </is>
+      </c>
+      <c r="C70" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D70" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E70" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F70" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G70" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H70" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="I70" s="13" t="inlineStr">
+        <is>
+          <t>20-12"-P-5030-100-3CS11P</t>
+        </is>
+      </c>
+      <c r="J70" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K70" s="13" t="n"/>
+      <c r="L70" s="13" t="n"/>
+      <c r="M70" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N70" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="13" t="inlineStr">
+        <is>
+          <t>V169</t>
+        </is>
+      </c>
+      <c r="B71" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 9</t>
+        </is>
+      </c>
+      <c r="C71" s="13" t="inlineStr">
+        <is>
+          <t>8"-300#</t>
+        </is>
+      </c>
+      <c r="D71" s="13" t="inlineStr">
+        <is>
+          <t>RF Flange</t>
+        </is>
+      </c>
+      <c r="E71" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F71" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A216 WCB</t>
+        </is>
+      </c>
+      <c r="G71" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H71" s="13" t="inlineStr">
+        <is>
+          <t>Full Port</t>
+        </is>
+      </c>
+      <c r="I71" s="13" t="inlineStr">
+        <is>
+          <t>20-8"-P-5033-107-3CS11P-HP</t>
+        </is>
+      </c>
+      <c r="J71" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K71" s="13" t="n"/>
+      <c r="L71" s="13" t="n"/>
+      <c r="M71" s="13" t="inlineStr">
+        <is>
+          <t>GABARH2F</t>
+        </is>
+      </c>
+      <c r="N71" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, Gear Operated, API 600, OS&amp;Y, Bevel Gear Operator, Flexible Graphite Packing, Flexible/Solid Wedge</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="13" t="inlineStr">
+        <is>
+          <t>CV170</t>
+        </is>
+      </c>
+      <c r="B72" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 9</t>
+        </is>
+      </c>
+      <c r="C72" s="13" t="inlineStr">
+        <is>
+          <t>8"-300#</t>
+        </is>
+      </c>
+      <c r="D72" s="13" t="inlineStr">
+        <is>
+          <t>RF Flange</t>
+        </is>
+      </c>
+      <c r="E72" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F72" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A216 WCB</t>
+        </is>
+      </c>
+      <c r="G72" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H72" s="13" t="inlineStr">
+        <is>
+          <t>Full Port</t>
+        </is>
+      </c>
+      <c r="I72" s="13" t="inlineStr">
+        <is>
+          <t>20-8"-P-5033-107-3CS11P-HP</t>
+        </is>
+      </c>
+      <c r="J72" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K72" s="13" t="n"/>
+      <c r="L72" s="13" t="n"/>
+      <c r="M72" s="13" t="inlineStr">
+        <is>
+          <t>GABARH2F</t>
+        </is>
+      </c>
+      <c r="N72" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, Gear Operated, API 600, OS&amp;Y, Bevel Gear Operator, Flexible Graphite Packing, Flexible/Solid Wedge</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="13" t="inlineStr">
+        <is>
+          <t>V200</t>
+        </is>
+      </c>
+      <c r="B73" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 9</t>
+        </is>
+      </c>
+      <c r="C73" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D73" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E73" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F73" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G73" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H73" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="I73" s="13" t="inlineStr">
+        <is>
+          <t>20-12"-P-5030-100-3CS11P</t>
+        </is>
+      </c>
+      <c r="J73" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K73" s="13" t="n"/>
+      <c r="L73" s="13" t="n"/>
+      <c r="M73" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N73" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="13" t="inlineStr">
+        <is>
+          <t>V201</t>
+        </is>
+      </c>
+      <c r="B74" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 9</t>
+        </is>
+      </c>
+      <c r="C74" s="13" t="inlineStr">
+        <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="D74" s="13" t="inlineStr">
+        <is>
+          <t>FNPT</t>
+        </is>
+      </c>
+      <c r="E74" s="13" t="inlineStr">
+        <is>
+          <t>2-Valve Manifold - PG</t>
+        </is>
+      </c>
+      <c r="F74" s="13" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="G74" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H74" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I74" s="13" t="inlineStr">
+        <is>
+          <t>20-16"-P-5030-101-3CS11P</t>
+        </is>
+      </c>
+      <c r="J74" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K74" s="13" t="inlineStr">
+        <is>
+          <t>AGCO</t>
+        </is>
+      </c>
+      <c r="L74" s="13" t="inlineStr">
+        <is>
+          <t>PTM-VIS-4 with V6-VIS-4</t>
+        </is>
+      </c>
+      <c r="M74" s="13" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="N74" s="13" t="inlineStr">
+        <is>
+          <t>Teflon packing, metal seat</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="13" t="inlineStr">
+        <is>
+          <t>V202</t>
+        </is>
+      </c>
+      <c r="B75" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 9</t>
+        </is>
+      </c>
+      <c r="C75" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D75" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E75" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F75" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G75" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H75" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="I75" s="13" t="inlineStr">
+        <is>
+          <t>20-12"-P-5030-100-3CS11P</t>
+        </is>
+      </c>
+      <c r="J75" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K75" s="13" t="n"/>
+      <c r="L75" s="13" t="n"/>
+      <c r="M75" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N75" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="13" t="inlineStr">
+        <is>
+          <t>V203</t>
+        </is>
+      </c>
+      <c r="B76" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 9</t>
+        </is>
+      </c>
+      <c r="C76" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D76" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E76" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F76" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G76" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H76" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="I76" s="13" t="inlineStr">
+        <is>
+          <t>20-12"-P-5030-100-3CS11P</t>
+        </is>
+      </c>
+      <c r="J76" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K76" s="13" t="n"/>
+      <c r="L76" s="13" t="n"/>
+      <c r="M76" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N76" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="13" t="inlineStr">
+        <is>
+          <t>V204</t>
+        </is>
+      </c>
+      <c r="B77" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 9</t>
+        </is>
+      </c>
+      <c r="C77" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D77" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E77" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F77" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G77" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H77" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="I77" s="13" t="inlineStr">
+        <is>
+          <t>20-12"-P-5030-100-3CS11P</t>
+        </is>
+      </c>
+      <c r="J77" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K77" s="13" t="n"/>
+      <c r="L77" s="13" t="n"/>
+      <c r="M77" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N77" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="13" t="inlineStr">
+        <is>
+          <t>V205</t>
+        </is>
+      </c>
+      <c r="B78" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 9</t>
+        </is>
+      </c>
+      <c r="C78" s="13" t="inlineStr">
+        <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="D78" s="13" t="inlineStr">
+        <is>
+          <t>FNPT</t>
+        </is>
+      </c>
+      <c r="E78" s="13" t="inlineStr">
+        <is>
+          <t>2-Valve Manifold - PG</t>
+        </is>
+      </c>
+      <c r="F78" s="13" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="G78" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H78" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I78" s="13" t="inlineStr">
+        <is>
+          <t>20-16"-P-5030-101-3CS11P</t>
+        </is>
+      </c>
+      <c r="J78" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K78" s="13" t="inlineStr">
+        <is>
+          <t>AGCO</t>
+        </is>
+      </c>
+      <c r="L78" s="13" t="inlineStr">
+        <is>
+          <t>PTM-VIS-4 with V6-VIS-4</t>
+        </is>
+      </c>
+      <c r="M78" s="13" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="N78" s="13" t="inlineStr">
+        <is>
+          <t>Teflon packing, metal seat</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="13" t="inlineStr">
+        <is>
+          <t>V206</t>
+        </is>
+      </c>
+      <c r="B79" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 9</t>
+        </is>
+      </c>
+      <c r="C79" s="13" t="n"/>
+      <c r="D79" s="13" t="n"/>
+      <c r="E79" s="13" t="n"/>
+      <c r="F79" s="13" t="n"/>
+      <c r="G79" s="13" t="n"/>
+      <c r="H79" s="13" t="n"/>
+      <c r="I79" s="13" t="inlineStr">
+        <is>
+          <t>20-12"-P-5030-100-3CS11P</t>
+        </is>
+      </c>
+      <c r="J79" s="13" t="n"/>
+      <c r="K79" s="13" t="n"/>
+      <c r="L79" s="13" t="n"/>
+      <c r="M79" s="13" t="n"/>
+      <c r="N79" s="13" t="n"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="13" t="inlineStr">
+        <is>
+          <t>V207</t>
+        </is>
+      </c>
+      <c r="B80" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 9</t>
+        </is>
+      </c>
+      <c r="C80" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D80" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E80" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F80" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G80" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H80" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="I80" s="13" t="inlineStr">
+        <is>
+          <t>20-12"-P-5030-100-3CS11P</t>
+        </is>
+      </c>
+      <c r="J80" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K80" s="13" t="n"/>
+      <c r="L80" s="13" t="n"/>
+      <c r="M80" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N80" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="13" t="inlineStr">
+        <is>
+          <t>V208</t>
+        </is>
+      </c>
+      <c r="B81" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 9</t>
+        </is>
+      </c>
+      <c r="C81" s="13" t="inlineStr">
+        <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="D81" s="13" t="inlineStr">
+        <is>
+          <t>FNPT</t>
+        </is>
+      </c>
+      <c r="E81" s="13" t="inlineStr">
+        <is>
+          <t>2-Valve Manifold - PG</t>
+        </is>
+      </c>
+      <c r="F81" s="13" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="G81" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H81" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I81" s="13" t="inlineStr">
+        <is>
+          <t>20-16"-P-5030-101-3CS11P</t>
+        </is>
+      </c>
+      <c r="J81" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K81" s="13" t="inlineStr">
+        <is>
+          <t>AGCO</t>
+        </is>
+      </c>
+      <c r="L81" s="13" t="inlineStr">
+        <is>
+          <t>PTM-VIS-4 with V6-VIS-4</t>
+        </is>
+      </c>
+      <c r="M81" s="13" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="N81" s="13" t="inlineStr">
+        <is>
+          <t>Teflon packing, metal seat</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="13" t="inlineStr">
+        <is>
+          <t>V209</t>
+        </is>
+      </c>
+      <c r="B82" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 9</t>
+        </is>
+      </c>
+      <c r="C82" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D82" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E82" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F82" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G82" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H82" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="I82" s="13" t="inlineStr">
+        <is>
+          <t>20-12"-P-5030-100-3CS11P</t>
+        </is>
+      </c>
+      <c r="J82" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K82" s="13" t="n"/>
+      <c r="L82" s="13" t="n"/>
+      <c r="M82" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N82" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="13" t="inlineStr">
+        <is>
+          <t>V210</t>
+        </is>
+      </c>
+      <c r="B83" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 10</t>
+        </is>
+      </c>
+      <c r="C83" s="13" t="inlineStr">
+        <is>
+          <t>8"-300#</t>
+        </is>
+      </c>
+      <c r="D83" s="13" t="inlineStr">
+        <is>
+          <t>RF Flange</t>
+        </is>
+      </c>
+      <c r="E83" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F83" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A216 WCB</t>
+        </is>
+      </c>
+      <c r="G83" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H83" s="13" t="inlineStr">
+        <is>
+          <t>Full Port</t>
+        </is>
+      </c>
+      <c r="I83" s="13" t="inlineStr">
+        <is>
+          <t>20-8"-P-5033-107-3CS11P-HP</t>
+        </is>
+      </c>
+      <c r="J83" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K83" s="13" t="n"/>
+      <c r="L83" s="13" t="n"/>
+      <c r="M83" s="13" t="inlineStr">
+        <is>
+          <t>GABARH2F</t>
+        </is>
+      </c>
+      <c r="N83" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, Gear Operated, API 600, OS&amp;Y, Bevel Gear Operator, Flexible Graphite Packing, Flexible/Solid Wedge</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="13" t="inlineStr">
+        <is>
+          <t>V211</t>
+        </is>
+      </c>
+      <c r="B84" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 10</t>
+        </is>
+      </c>
+      <c r="C84" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D84" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E84" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F84" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G84" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H84" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="I84" s="13" t="inlineStr">
+        <is>
+          <t>20-12"-P-5030-100-3CS11P</t>
+        </is>
+      </c>
+      <c r="J84" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K84" s="13" t="n"/>
+      <c r="L84" s="13" t="n"/>
+      <c r="M84" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N84" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="13" t="inlineStr">
+        <is>
+          <t>V212</t>
+        </is>
+      </c>
+      <c r="B85" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 10</t>
+        </is>
+      </c>
+      <c r="C85" s="13" t="inlineStr">
+        <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="D85" s="13" t="inlineStr">
+        <is>
+          <t>FNPT</t>
+        </is>
+      </c>
+      <c r="E85" s="13" t="inlineStr">
+        <is>
+          <t>2-Valve Manifold - PG</t>
+        </is>
+      </c>
+      <c r="F85" s="13" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="G85" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H85" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I85" s="13" t="inlineStr">
+        <is>
+          <t>20-16"-P-5030-101-3CS11P</t>
+        </is>
+      </c>
+      <c r="J85" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K85" s="13" t="inlineStr">
+        <is>
+          <t>AGCO</t>
+        </is>
+      </c>
+      <c r="L85" s="13" t="inlineStr">
+        <is>
+          <t>PTM-VIS-4 with V6-VIS-4</t>
+        </is>
+      </c>
+      <c r="M85" s="13" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="N85" s="13" t="inlineStr">
+        <is>
+          <t>Teflon packing, metal seat</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="13" t="inlineStr">
+        <is>
+          <t>V213</t>
+        </is>
+      </c>
+      <c r="B86" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 10</t>
+        </is>
+      </c>
+      <c r="C86" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D86" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E86" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F86" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G86" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H86" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="I86" s="13" t="inlineStr">
+        <is>
+          <t>20-12"-P-5030-100-3CS11P</t>
+        </is>
+      </c>
+      <c r="J86" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K86" s="13" t="n"/>
+      <c r="L86" s="13" t="n"/>
+      <c r="M86" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N86" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="13" t="inlineStr">
+        <is>
+          <t>V214</t>
+        </is>
+      </c>
+      <c r="B87" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 10</t>
+        </is>
+      </c>
+      <c r="C87" s="13" t="n"/>
+      <c r="D87" s="13" t="n"/>
+      <c r="E87" s="13" t="n"/>
+      <c r="F87" s="13" t="n"/>
+      <c r="G87" s="13" t="n"/>
+      <c r="H87" s="13" t="n"/>
+      <c r="I87" s="13" t="inlineStr">
+        <is>
+          <t>20-12"-P-5030-100-3CS11P</t>
+        </is>
+      </c>
+      <c r="J87" s="13" t="n"/>
+      <c r="K87" s="13" t="n"/>
+      <c r="L87" s="13" t="n"/>
+      <c r="M87" s="13" t="n"/>
+      <c r="N87" s="13" t="n"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="13" t="inlineStr">
+        <is>
+          <t>V215</t>
+        </is>
+      </c>
+      <c r="B88" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 10</t>
+        </is>
+      </c>
+      <c r="C88" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D88" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E88" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F88" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G88" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H88" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="I88" s="13" t="inlineStr">
+        <is>
+          <t>20-12"-P-5030-100-3CS11P</t>
+        </is>
+      </c>
+      <c r="J88" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K88" s="13" t="n"/>
+      <c r="L88" s="13" t="n"/>
+      <c r="M88" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N88" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="13" t="inlineStr">
+        <is>
+          <t>V216</t>
+        </is>
+      </c>
+      <c r="B89" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 10</t>
+        </is>
+      </c>
+      <c r="C89" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D89" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E89" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F89" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G89" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H89" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="I89" s="13" t="inlineStr">
+        <is>
+          <t>20-12"-P-5030-100-3CS11P</t>
+        </is>
+      </c>
+      <c r="J89" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K89" s="13" t="n"/>
+      <c r="L89" s="13" t="n"/>
+      <c r="M89" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N89" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="13" t="inlineStr">
+        <is>
+          <t>V217</t>
+        </is>
+      </c>
+      <c r="B90" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 10</t>
+        </is>
+      </c>
+      <c r="C90" s="13" t="inlineStr">
+        <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="D90" s="13" t="inlineStr">
+        <is>
+          <t>FNPT</t>
+        </is>
+      </c>
+      <c r="E90" s="13" t="inlineStr">
+        <is>
+          <t>2-Valve Manifold - PG</t>
+        </is>
+      </c>
+      <c r="F90" s="13" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="G90" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H90" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I90" s="13" t="inlineStr">
+        <is>
+          <t>20-16"-P-5030-101-3CS11P</t>
+        </is>
+      </c>
+      <c r="J90" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K90" s="13" t="inlineStr">
+        <is>
+          <t>AGCO</t>
+        </is>
+      </c>
+      <c r="L90" s="13" t="inlineStr">
+        <is>
+          <t>PTM-VIS-4 with V6-VIS-4</t>
+        </is>
+      </c>
+      <c r="M90" s="13" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="N90" s="13" t="inlineStr">
+        <is>
+          <t>Teflon packing, metal seat</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="13" t="inlineStr">
+        <is>
+          <t>V218</t>
+        </is>
+      </c>
+      <c r="B91" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 10</t>
+        </is>
+      </c>
+      <c r="C91" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D91" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E91" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F91" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G91" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H91" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="I91" s="13" t="inlineStr">
+        <is>
+          <t>20-12"-P-5030-100-3CS11P</t>
+        </is>
+      </c>
+      <c r="J91" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K91" s="13" t="n"/>
+      <c r="L91" s="13" t="n"/>
+      <c r="M91" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N91" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="13" t="inlineStr">
+        <is>
+          <t>V219</t>
+        </is>
+      </c>
+      <c r="B92" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 10</t>
+        </is>
+      </c>
+      <c r="C92" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D92" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E92" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F92" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G92" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H92" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="I92" s="13" t="inlineStr">
+        <is>
+          <t>20-12"-P-5030-100-3CS11P</t>
+        </is>
+      </c>
+      <c r="J92" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K92" s="13" t="n"/>
+      <c r="L92" s="13" t="n"/>
+      <c r="M92" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N92" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="13" t="inlineStr">
+        <is>
+          <t>V220</t>
+        </is>
+      </c>
+      <c r="B93" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 10</t>
+        </is>
+      </c>
+      <c r="C93" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D93" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E93" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F93" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G93" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H93" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="I93" s="13" t="inlineStr">
+        <is>
+          <t>20-12"-P-5030-100-3CS11P</t>
+        </is>
+      </c>
+      <c r="J93" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K93" s="13" t="n"/>
+      <c r="L93" s="13" t="n"/>
+      <c r="M93" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N93" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="13" t="inlineStr">
+        <is>
+          <t>V221</t>
+        </is>
+      </c>
+      <c r="B94" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 10</t>
+        </is>
+      </c>
+      <c r="C94" s="13" t="n"/>
+      <c r="D94" s="13" t="n"/>
+      <c r="E94" s="13" t="n"/>
+      <c r="F94" s="13" t="n"/>
+      <c r="G94" s="13" t="n"/>
+      <c r="H94" s="13" t="n"/>
+      <c r="I94" s="13" t="inlineStr">
+        <is>
+          <t>20-12"-P-5030-100-3CS11P</t>
+        </is>
+      </c>
+      <c r="J94" s="13" t="n"/>
+      <c r="K94" s="13" t="n"/>
+      <c r="L94" s="13" t="n"/>
+      <c r="M94" s="13" t="n"/>
+      <c r="N94" s="13" t="n"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="13" t="inlineStr">
+        <is>
+          <t>V222</t>
+        </is>
+      </c>
+      <c r="B95" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 10</t>
+        </is>
+      </c>
+      <c r="C95" s="13" t="n"/>
+      <c r="D95" s="13" t="n"/>
+      <c r="E95" s="13" t="n"/>
+      <c r="F95" s="13" t="n"/>
+      <c r="G95" s="13" t="n"/>
+      <c r="H95" s="13" t="n"/>
+      <c r="I95" s="13" t="inlineStr">
+        <is>
+          <t>20-12"-P-5030-100-3CS11P</t>
+        </is>
+      </c>
+      <c r="J95" s="13" t="n"/>
+      <c r="K95" s="13" t="n"/>
+      <c r="L95" s="13" t="n"/>
+      <c r="M95" s="13" t="n"/>
+      <c r="N95" s="13" t="n"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="13" t="inlineStr">
+        <is>
+          <t>V223</t>
+        </is>
+      </c>
+      <c r="B96" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 10</t>
+        </is>
+      </c>
+      <c r="C96" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D96" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E96" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F96" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G96" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H96" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="I96" s="13" t="inlineStr">
+        <is>
+          <t>20-12"-P-5030-100-3CS11P</t>
+        </is>
+      </c>
+      <c r="J96" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K96" s="13" t="n"/>
+      <c r="L96" s="13" t="n"/>
+      <c r="M96" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N96" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="13" t="inlineStr">
+        <is>
+          <t>V224</t>
+        </is>
+      </c>
+      <c r="B97" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 10</t>
+        </is>
+      </c>
+      <c r="C97" s="13" t="inlineStr">
+        <is>
+          <t>3/4" Class 800</t>
+        </is>
+      </c>
+      <c r="D97" s="13" t="inlineStr">
+        <is>
+          <t>SW x NPT</t>
+        </is>
+      </c>
+      <c r="E97" s="13" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="F97" s="13" t="inlineStr">
+        <is>
+          <t>ASTM A105N</t>
+        </is>
+      </c>
+      <c r="G97" s="13" t="inlineStr">
+        <is>
+          <t>Trim # 8</t>
+        </is>
+      </c>
+      <c r="H97" s="13" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="I97" s="13" t="inlineStr">
+        <is>
+          <t>20-12"-P-5030-100-3CS11P</t>
+        </is>
+      </c>
+      <c r="J97" s="13" t="inlineStr">
+        <is>
+          <t>3CS11</t>
+        </is>
+      </c>
+      <c r="K97" s="13" t="n"/>
+      <c r="L97" s="13" t="n"/>
+      <c r="M97" s="13" t="inlineStr">
+        <is>
+          <t>GASACH1F</t>
+        </is>
+      </c>
+      <c r="N97" s="13" t="inlineStr">
+        <is>
+          <t>Bolted Bonnet, API 602, OS&amp;Y, Flexible Graphite Packing, Solid Wedge, Certified Low Emissions</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="13" t="inlineStr">
+        <is>
+          <t>V225</t>
+        </is>
+      </c>
+      <c r="B98" s="13" t="inlineStr">
+        <is>
+          <t>Sheet 10</t>
+        </is>
+      </c>
+      <c r="C98" s="13" t="inlineStr">
+        <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="D98" s="13" t="inlineStr">
+        <is>
+          <t>FNPT</t>
+        </is>
+      </c>
+      <c r="E98" s="13" t="inlineStr">
+        <is>
+          <t>2-Valve Manifold - PG</t>
+        </is>
+      </c>
+      <c r="F98" s="13" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="G98" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H98" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I98" s="13" t="inlineStr">
+        <is>
+          <t>20-16"-P-5030-101-3CS11P</t>
+        </is>
+      </c>
+      <c r="J98" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K98" s="13" t="inlineStr">
+        <is>
+          <t>AGCO</t>
+        </is>
+      </c>
+      <c r="L98" s="13" t="inlineStr">
+        <is>
+          <t>PTM-VIS-4 with V6-VIS-4</t>
+        </is>
+      </c>
+      <c r="M98" s="13" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="N98" s="13" t="inlineStr">
+        <is>
+          <t>Teflon packing, metal seat</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
